--- a/Reports/Seasonal_Habitat_Landmark_Waypoints_2021_Final.xlsx
+++ b/Reports/Seasonal_Habitat_Landmark_Waypoints_2021_Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Dropbox\Disconnected Sites\Data\03_Survey Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Desktop\Box Sync\Thesis\Chinook Seasonal Floodplain Habitat\GitHub\seasonal-floodplains\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19BE84D-773B-43C7-9924-8BFE4080F8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279C295A-F452-42AF-A1E3-579A3114CFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5F03E6B5-5464-43F8-AED9-513F851700B6}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5F03E6B5-5464-43F8-AED9-513F851700B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="92">
   <si>
     <t>Latitude</t>
   </si>
@@ -338,12 +338,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -358,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -378,6 +384,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,11 +707,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF9064F-0344-4C21-823B-7B2564E6B2DB}">
-  <dimension ref="A1:D395"/>
+  <dimension ref="A1:D399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K347" sqref="K347"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G192" sqref="G192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3296,60 +3311,60 @@
         <v>-121.58786600000001</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A186" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B186" s="3">
-        <v>138</v>
-      </c>
-      <c r="C186" s="2">
-        <v>48.353960000000001</v>
-      </c>
-      <c r="D186" s="2">
-        <v>-121.55264</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A187" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B187" s="3">
-        <v>139</v>
+    <row r="186" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B186" s="10">
+        <v>104</v>
+      </c>
+      <c r="C186" s="9">
+        <v>48.472039000000002</v>
+      </c>
+      <c r="D186" s="9">
+        <v>-122.286027</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B187" s="13">
+        <v>125</v>
       </c>
       <c r="C187" s="2">
-        <v>48.353765000000003</v>
+        <v>48.366309000000001</v>
       </c>
       <c r="D187" s="2">
-        <v>-121.552618</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A188" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B188" s="3">
-        <v>140</v>
-      </c>
-      <c r="C188" s="2">
-        <v>48.353721</v>
-      </c>
-      <c r="D188" s="2">
-        <v>-121.55254499999999</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A189" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B189" s="3">
-        <v>141</v>
-      </c>
-      <c r="C189" s="2">
-        <v>48.353634</v>
-      </c>
-      <c r="D189" s="2">
-        <v>-121.552571</v>
+        <v>-121.547241</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B188" s="10">
+        <v>126</v>
+      </c>
+      <c r="C188" s="9">
+        <v>48.366123000000002</v>
+      </c>
+      <c r="D188" s="9">
+        <v>-121.546778</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B189" s="13">
+        <v>128</v>
+      </c>
+      <c r="C189" s="12">
+        <v>48.365602000000003</v>
+      </c>
+      <c r="D189" s="12">
+        <v>-121.546019</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
@@ -3357,13 +3372,13 @@
         <v>89</v>
       </c>
       <c r="B190" s="3">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C190" s="2">
-        <v>48.353524</v>
+        <v>48.353960000000001</v>
       </c>
       <c r="D190" s="2">
-        <v>-121.552351</v>
+        <v>-121.55264</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
@@ -3371,13 +3386,13 @@
         <v>89</v>
       </c>
       <c r="B191" s="3">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C191" s="2">
-        <v>48.353259999999999</v>
+        <v>48.353765000000003</v>
       </c>
       <c r="D191" s="2">
-        <v>-121.55230299999999</v>
+        <v>-121.552618</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
@@ -3385,69 +3400,69 @@
         <v>89</v>
       </c>
       <c r="B192" s="3">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C192" s="2">
-        <v>48.352997999999999</v>
+        <v>48.353721</v>
       </c>
       <c r="D192" s="2">
-        <v>-121.552277</v>
+        <v>-121.55254499999999</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B193" s="2">
-        <v>145</v>
+      <c r="B193" s="3">
+        <v>141</v>
       </c>
       <c r="C193" s="2">
-        <v>48.497284999999998</v>
+        <v>48.353634</v>
       </c>
       <c r="D193" s="2">
-        <v>-121.465881</v>
+        <v>-121.552571</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B194" s="2">
-        <v>146</v>
+      <c r="B194" s="3">
+        <v>142</v>
       </c>
       <c r="C194" s="2">
-        <v>48.497262999999997</v>
+        <v>48.353524</v>
       </c>
       <c r="D194" s="2">
-        <v>-121.465891</v>
+        <v>-121.552351</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B195" s="2">
-        <v>147</v>
+      <c r="B195" s="3">
+        <v>143</v>
       </c>
       <c r="C195" s="2">
-        <v>48.497315</v>
+        <v>48.353259999999999</v>
       </c>
       <c r="D195" s="2">
-        <v>-121.46591600000001</v>
+        <v>-121.55230299999999</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B196" s="2">
-        <v>148</v>
+      <c r="B196" s="3">
+        <v>144</v>
       </c>
       <c r="C196" s="2">
-        <v>48.497323000000002</v>
+        <v>48.352997999999999</v>
       </c>
       <c r="D196" s="2">
-        <v>-121.465946</v>
+        <v>-121.552277</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
@@ -3455,13 +3470,13 @@
         <v>89</v>
       </c>
       <c r="B197" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C197" s="2">
-        <v>48.497422</v>
+        <v>48.497284999999998</v>
       </c>
       <c r="D197" s="2">
-        <v>-121.465974</v>
+        <v>-121.465881</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
@@ -3469,13 +3484,13 @@
         <v>89</v>
       </c>
       <c r="B198" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C198" s="2">
-        <v>48.497408</v>
+        <v>48.497262999999997</v>
       </c>
       <c r="D198" s="2">
-        <v>-121.465997</v>
+        <v>-121.465891</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
@@ -3483,13 +3498,13 @@
         <v>89</v>
       </c>
       <c r="B199" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C199" s="2">
-        <v>48.497349</v>
+        <v>48.497315</v>
       </c>
       <c r="D199" s="2">
-        <v>-121.466137</v>
+        <v>-121.46591600000001</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
@@ -3497,13 +3512,13 @@
         <v>89</v>
       </c>
       <c r="B200" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C200" s="2">
-        <v>48.497042999999998</v>
+        <v>48.497323000000002</v>
       </c>
       <c r="D200" s="2">
-        <v>-121.466696</v>
+        <v>-121.465946</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
@@ -3511,13 +3526,13 @@
         <v>89</v>
       </c>
       <c r="B201" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C201" s="2">
-        <v>48.497086000000003</v>
+        <v>48.497422</v>
       </c>
       <c r="D201" s="2">
-        <v>-121.466723</v>
+        <v>-121.465974</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
@@ -3525,13 +3540,13 @@
         <v>89</v>
       </c>
       <c r="B202" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C202" s="2">
-        <v>48.364921000000002</v>
+        <v>48.497408</v>
       </c>
       <c r="D202" s="2">
-        <v>-121.544873</v>
+        <v>-121.465997</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
@@ -3539,13 +3554,13 @@
         <v>89</v>
       </c>
       <c r="B203" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C203" s="2">
-        <v>48.366118999999998</v>
+        <v>48.497349</v>
       </c>
       <c r="D203" s="2">
-        <v>-121.54662500000001</v>
+        <v>-121.466137</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
@@ -3553,13 +3568,13 @@
         <v>89</v>
       </c>
       <c r="B204" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C204" s="2">
-        <v>48.366050999999999</v>
+        <v>48.497042999999998</v>
       </c>
       <c r="D204" s="2">
-        <v>-121.546576</v>
+        <v>-121.466696</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
@@ -3567,13 +3582,13 @@
         <v>89</v>
       </c>
       <c r="B205" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C205" s="2">
-        <v>48.366010000000003</v>
+        <v>48.497086000000003</v>
       </c>
       <c r="D205" s="2">
-        <v>-121.54649000000001</v>
+        <v>-121.466723</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
@@ -3581,13 +3596,13 @@
         <v>89</v>
       </c>
       <c r="B206" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C206" s="2">
-        <v>48.366061999999999</v>
+        <v>48.364921000000002</v>
       </c>
       <c r="D206" s="2">
-        <v>-121.54637</v>
+        <v>-121.544873</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
@@ -3595,13 +3610,13 @@
         <v>89</v>
       </c>
       <c r="B207" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C207" s="2">
-        <v>48.366030000000002</v>
+        <v>48.366118999999998</v>
       </c>
       <c r="D207" s="2">
-        <v>-121.546297</v>
+        <v>-121.54662500000001</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
@@ -3609,13 +3624,13 @@
         <v>89</v>
       </c>
       <c r="B208" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C208" s="2">
-        <v>48.365972999999997</v>
+        <v>48.366050999999999</v>
       </c>
       <c r="D208" s="2">
-        <v>-121.54628099999999</v>
+        <v>-121.546576</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
@@ -3623,13 +3638,13 @@
         <v>89</v>
       </c>
       <c r="B209" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C209" s="2">
-        <v>48.365713999999997</v>
+        <v>48.366010000000003</v>
       </c>
       <c r="D209" s="2">
-        <v>-121.54604399999999</v>
+        <v>-121.54649000000001</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
@@ -3637,13 +3652,13 @@
         <v>89</v>
       </c>
       <c r="B210" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C210" s="2">
-        <v>48.365721999999998</v>
+        <v>48.366061999999999</v>
       </c>
       <c r="D210" s="2">
-        <v>-121.54598900000001</v>
+        <v>-121.54637</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
@@ -3651,13 +3666,13 @@
         <v>89</v>
       </c>
       <c r="B211" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C211" s="2">
-        <v>48.365634</v>
+        <v>48.366030000000002</v>
       </c>
       <c r="D211" s="2">
-        <v>-121.54576299999999</v>
+        <v>-121.546297</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
@@ -3665,13 +3680,13 @@
         <v>89</v>
       </c>
       <c r="B212" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C212" s="2">
-        <v>48.476799999999997</v>
+        <v>48.365972999999997</v>
       </c>
       <c r="D212" s="2">
-        <v>-121.64369499999999</v>
+        <v>-121.54628099999999</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
@@ -3679,13 +3694,13 @@
         <v>89</v>
       </c>
       <c r="B213" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C213" s="2">
-        <v>48.476759999999999</v>
+        <v>48.365713999999997</v>
       </c>
       <c r="D213" s="2">
-        <v>-121.643377</v>
+        <v>-121.54604399999999</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
@@ -3693,13 +3708,13 @@
         <v>89</v>
       </c>
       <c r="B214" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C214" s="2">
-        <v>48.476756999999999</v>
+        <v>48.365721999999998</v>
       </c>
       <c r="D214" s="2">
-        <v>-121.643417</v>
+        <v>-121.54598900000001</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
@@ -3707,13 +3722,13 @@
         <v>89</v>
       </c>
       <c r="B215" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C215" s="2">
-        <v>48.476734999999998</v>
+        <v>48.365634</v>
       </c>
       <c r="D215" s="2">
-        <v>-121.643306</v>
+        <v>-121.54576299999999</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
@@ -3721,13 +3736,13 @@
         <v>89</v>
       </c>
       <c r="B216" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C216" s="2">
-        <v>48.476529999999997</v>
+        <v>48.476799999999997</v>
       </c>
       <c r="D216" s="2">
-        <v>-121.642929</v>
+        <v>-121.64369499999999</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
@@ -3735,13 +3750,13 @@
         <v>89</v>
       </c>
       <c r="B217" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C217" s="2">
-        <v>48.476560999999997</v>
+        <v>48.476759999999999</v>
       </c>
       <c r="D217" s="2">
-        <v>-121.643034</v>
+        <v>-121.643377</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
@@ -3749,13 +3764,13 @@
         <v>89</v>
       </c>
       <c r="B218" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C218" s="2">
-        <v>48.476542000000002</v>
+        <v>48.476756999999999</v>
       </c>
       <c r="D218" s="2">
-        <v>-121.642563</v>
+        <v>-121.643417</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
@@ -3763,13 +3778,13 @@
         <v>89</v>
       </c>
       <c r="B219" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C219" s="2">
-        <v>48.476292999999998</v>
+        <v>48.476734999999998</v>
       </c>
       <c r="D219" s="2">
-        <v>-121.642285</v>
+        <v>-121.643306</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
@@ -3777,13 +3792,13 @@
         <v>89</v>
       </c>
       <c r="B220" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C220" s="2">
-        <v>48.513111000000002</v>
+        <v>48.476529999999997</v>
       </c>
       <c r="D220" s="2">
-        <v>-121.709901</v>
+        <v>-121.642929</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
@@ -3791,13 +3806,13 @@
         <v>89</v>
       </c>
       <c r="B221" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C221" s="2">
-        <v>48.513106999999998</v>
+        <v>48.476560999999997</v>
       </c>
       <c r="D221" s="2">
-        <v>-121.70983200000001</v>
+        <v>-121.643034</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
@@ -3805,13 +3820,13 @@
         <v>89</v>
       </c>
       <c r="B222" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C222" s="2">
-        <v>48.513125000000002</v>
+        <v>48.476542000000002</v>
       </c>
       <c r="D222" s="2">
-        <v>-121.709757</v>
+        <v>-121.642563</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
@@ -3819,13 +3834,13 @@
         <v>89</v>
       </c>
       <c r="B223" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C223" s="2">
-        <v>48.512858000000001</v>
+        <v>48.476292999999998</v>
       </c>
       <c r="D223" s="2">
-        <v>-121.710024</v>
+        <v>-121.642285</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
@@ -3833,13 +3848,13 @@
         <v>89</v>
       </c>
       <c r="B224" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C224" s="2">
-        <v>48.512909000000001</v>
+        <v>48.513111000000002</v>
       </c>
       <c r="D224" s="2">
-        <v>-121.709836</v>
+        <v>-121.709901</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
@@ -3847,13 +3862,13 @@
         <v>89</v>
       </c>
       <c r="B225" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C225" s="2">
-        <v>48.512644999999999</v>
+        <v>48.513106999999998</v>
       </c>
       <c r="D225" s="2">
-        <v>-121.70998400000001</v>
+        <v>-121.70983200000001</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
@@ -3861,13 +3876,13 @@
         <v>89</v>
       </c>
       <c r="B226" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C226" s="2">
-        <v>48.512227000000003</v>
+        <v>48.513125000000002</v>
       </c>
       <c r="D226" s="2">
-        <v>-121.710189</v>
+        <v>-121.709757</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
@@ -3875,13 +3890,13 @@
         <v>89</v>
       </c>
       <c r="B227" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C227" s="2">
-        <v>48.512248999999997</v>
+        <v>48.512858000000001</v>
       </c>
       <c r="D227" s="2">
-        <v>-121.71023099999999</v>
+        <v>-121.710024</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
@@ -3889,13 +3904,13 @@
         <v>89</v>
       </c>
       <c r="B228" s="2">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C228" s="2">
-        <v>48.515915999999997</v>
+        <v>48.512909000000001</v>
       </c>
       <c r="D228" s="2">
-        <v>-122.006714</v>
+        <v>-121.709836</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
@@ -3903,13 +3918,13 @@
         <v>89</v>
       </c>
       <c r="B229" s="2">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C229" s="2">
-        <v>48.515931999999999</v>
+        <v>48.512644999999999</v>
       </c>
       <c r="D229" s="2">
-        <v>-122.00670599999999</v>
+        <v>-121.70998400000001</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
@@ -3917,13 +3932,13 @@
         <v>89</v>
       </c>
       <c r="B230" s="2">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C230" s="2">
-        <v>48.516241000000001</v>
+        <v>48.512227000000003</v>
       </c>
       <c r="D230" s="2">
-        <v>-122.006857</v>
+        <v>-121.710189</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
@@ -3931,13 +3946,13 @@
         <v>89</v>
       </c>
       <c r="B231" s="2">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C231" s="2">
-        <v>48.516634000000003</v>
+        <v>48.512248999999997</v>
       </c>
       <c r="D231" s="2">
-        <v>-122.007296</v>
+        <v>-121.71023099999999</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
@@ -3945,13 +3960,13 @@
         <v>89</v>
       </c>
       <c r="B232" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C232" s="2">
-        <v>48.515540999999999</v>
+        <v>48.515915999999997</v>
       </c>
       <c r="D232" s="2">
-        <v>-121.879868</v>
+        <v>-122.006714</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
@@ -3959,13 +3974,13 @@
         <v>89</v>
       </c>
       <c r="B233" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C233" s="2">
-        <v>48.515208999999999</v>
+        <v>48.515931999999999</v>
       </c>
       <c r="D233" s="2">
-        <v>-121.880021</v>
+        <v>-122.00670599999999</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
@@ -3973,13 +3988,13 @@
         <v>89</v>
       </c>
       <c r="B234" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C234" s="2">
-        <v>48.515165000000003</v>
+        <v>48.516241000000001</v>
       </c>
       <c r="D234" s="2">
-        <v>-121.88000599999999</v>
+        <v>-122.006857</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
@@ -3987,13 +4002,13 @@
         <v>89</v>
       </c>
       <c r="B235" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C235" s="2">
-        <v>48.515180000000001</v>
+        <v>48.516634000000003</v>
       </c>
       <c r="D235" s="2">
-        <v>-121.880081</v>
+        <v>-122.007296</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
@@ -4001,13 +4016,13 @@
         <v>89</v>
       </c>
       <c r="B236" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C236" s="2">
-        <v>48.514980999999999</v>
+        <v>48.515540999999999</v>
       </c>
       <c r="D236" s="2">
-        <v>-121.88046199999999</v>
+        <v>-121.879868</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
@@ -4015,13 +4030,13 @@
         <v>89</v>
       </c>
       <c r="B237" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C237" s="2">
-        <v>48.515065</v>
+        <v>48.515208999999999</v>
       </c>
       <c r="D237" s="2">
-        <v>-121.88021500000001</v>
+        <v>-121.880021</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
@@ -4029,13 +4044,13 @@
         <v>89</v>
       </c>
       <c r="B238" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C238" s="2">
-        <v>48.514797000000002</v>
+        <v>48.515165000000003</v>
       </c>
       <c r="D238" s="2">
-        <v>-121.880172</v>
+        <v>-121.88000599999999</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
@@ -4043,13 +4058,13 @@
         <v>89</v>
       </c>
       <c r="B239" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C239" s="2">
-        <v>48.514800999999999</v>
+        <v>48.515180000000001</v>
       </c>
       <c r="D239" s="2">
-        <v>-121.88032699999999</v>
+        <v>-121.880081</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
@@ -4057,13 +4072,13 @@
         <v>89</v>
       </c>
       <c r="B240" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C240" s="2">
-        <v>48.514966999999999</v>
+        <v>48.514980999999999</v>
       </c>
       <c r="D240" s="2">
-        <v>-121.88042900000001</v>
+        <v>-121.88046199999999</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
@@ -4071,13 +4086,13 @@
         <v>89</v>
       </c>
       <c r="B241" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C241" s="2">
-        <v>48.514257999999998</v>
+        <v>48.515065</v>
       </c>
       <c r="D241" s="2">
-        <v>-121.880703</v>
+        <v>-121.88021500000001</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
@@ -4085,13 +4100,13 @@
         <v>89</v>
       </c>
       <c r="B242" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C242" s="2">
-        <v>48.514259000000003</v>
+        <v>48.514797000000002</v>
       </c>
       <c r="D242" s="2">
-        <v>-121.880563</v>
+        <v>-121.880172</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
@@ -4099,13 +4114,13 @@
         <v>89</v>
       </c>
       <c r="B243" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C243" s="2">
-        <v>48.514232999999997</v>
+        <v>48.514800999999999</v>
       </c>
       <c r="D243" s="2">
-        <v>-121.88081699999999</v>
+        <v>-121.88032699999999</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
@@ -4113,13 +4128,13 @@
         <v>89</v>
       </c>
       <c r="B244" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C244" s="2">
-        <v>48.514102999999999</v>
+        <v>48.514966999999999</v>
       </c>
       <c r="D244" s="2">
-        <v>-121.880892</v>
+        <v>-121.88042900000001</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
@@ -4127,13 +4142,13 @@
         <v>89</v>
       </c>
       <c r="B245" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C245" s="2">
-        <v>48.514028000000003</v>
+        <v>48.514257999999998</v>
       </c>
       <c r="D245" s="2">
-        <v>-121.880951</v>
+        <v>-121.880703</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
@@ -4141,13 +4156,13 @@
         <v>89</v>
       </c>
       <c r="B246" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C246" s="2">
-        <v>48.514114999999997</v>
+        <v>48.514259000000003</v>
       </c>
       <c r="D246" s="2">
-        <v>-121.881165</v>
+        <v>-121.880563</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
@@ -4155,13 +4170,13 @@
         <v>89</v>
       </c>
       <c r="B247" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C247" s="2">
-        <v>48.513893000000003</v>
+        <v>48.514232999999997</v>
       </c>
       <c r="D247" s="2">
-        <v>-121.881062</v>
+        <v>-121.88081699999999</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
@@ -4169,13 +4184,13 @@
         <v>89</v>
       </c>
       <c r="B248" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C248" s="2">
-        <v>48.513719000000002</v>
+        <v>48.514102999999999</v>
       </c>
       <c r="D248" s="2">
-        <v>-121.88120600000001</v>
+        <v>-121.880892</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
@@ -4183,13 +4198,13 @@
         <v>89</v>
       </c>
       <c r="B249" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C249" s="2">
-        <v>48.486128000000001</v>
+        <v>48.514028000000003</v>
       </c>
       <c r="D249" s="2">
-        <v>-121.590261</v>
+        <v>-121.880951</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
@@ -4197,13 +4212,13 @@
         <v>89</v>
       </c>
       <c r="B250" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C250" s="2">
-        <v>48.486133000000002</v>
+        <v>48.514114999999997</v>
       </c>
       <c r="D250" s="2">
-        <v>-121.59020700000001</v>
+        <v>-121.881165</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
@@ -4211,13 +4226,13 @@
         <v>89</v>
       </c>
       <c r="B251" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C251" s="2">
-        <v>48.486066999999998</v>
+        <v>48.513893000000003</v>
       </c>
       <c r="D251" s="2">
-        <v>-121.590165</v>
+        <v>-121.881062</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
@@ -4225,13 +4240,13 @@
         <v>89</v>
       </c>
       <c r="B252" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C252" s="2">
-        <v>48.486044</v>
+        <v>48.513719000000002</v>
       </c>
       <c r="D252" s="2">
-        <v>-121.590158</v>
+        <v>-121.88120600000001</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
@@ -4239,13 +4254,13 @@
         <v>89</v>
       </c>
       <c r="B253" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C253" s="2">
-        <v>48.486085000000003</v>
+        <v>48.486128000000001</v>
       </c>
       <c r="D253" s="2">
-        <v>-121.590058</v>
+        <v>-121.590261</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
@@ -4253,13 +4268,13 @@
         <v>89</v>
       </c>
       <c r="B254" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C254" s="2">
-        <v>48.485993000000001</v>
+        <v>48.486133000000002</v>
       </c>
       <c r="D254" s="2">
-        <v>-121.590003</v>
+        <v>-121.59020700000001</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
@@ -4267,13 +4282,13 @@
         <v>89</v>
       </c>
       <c r="B255" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C255" s="2">
-        <v>48.486044999999997</v>
+        <v>48.486066999999998</v>
       </c>
       <c r="D255" s="2">
-        <v>-121.589962</v>
+        <v>-121.590165</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
@@ -4281,13 +4296,13 @@
         <v>89</v>
       </c>
       <c r="B256" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C256" s="2">
-        <v>48.486066000000001</v>
+        <v>48.486044</v>
       </c>
       <c r="D256" s="2">
-        <v>-121.58985699999999</v>
+        <v>-121.590158</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
@@ -4295,13 +4310,13 @@
         <v>89</v>
       </c>
       <c r="B257" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C257" s="2">
-        <v>48.486105999999999</v>
+        <v>48.486085000000003</v>
       </c>
       <c r="D257" s="2">
-        <v>-121.58991</v>
+        <v>-121.590058</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
@@ -4309,13 +4324,13 @@
         <v>89</v>
       </c>
       <c r="B258" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C258" s="2">
-        <v>48.486038999999998</v>
+        <v>48.485993000000001</v>
       </c>
       <c r="D258" s="2">
-        <v>-121.589786</v>
+        <v>-121.590003</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
@@ -4323,13 +4338,13 @@
         <v>89</v>
       </c>
       <c r="B259" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C259" s="2">
-        <v>48.486089999999997</v>
+        <v>48.486044999999997</v>
       </c>
       <c r="D259" s="2">
-        <v>-121.58978399999999</v>
+        <v>-121.589962</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
@@ -4337,13 +4352,13 @@
         <v>89</v>
       </c>
       <c r="B260" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C260" s="2">
-        <v>48.486016999999997</v>
+        <v>48.486066000000001</v>
       </c>
       <c r="D260" s="2">
-        <v>-121.589708</v>
+        <v>-121.58985699999999</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
@@ -4351,13 +4366,13 @@
         <v>89</v>
       </c>
       <c r="B261" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C261" s="2">
-        <v>48.486198999999999</v>
+        <v>48.486105999999999</v>
       </c>
       <c r="D261" s="2">
-        <v>-121.58968</v>
+        <v>-121.58991</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
@@ -4365,13 +4380,13 @@
         <v>89</v>
       </c>
       <c r="B262" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C262" s="2">
-        <v>48.486094000000001</v>
+        <v>48.486038999999998</v>
       </c>
       <c r="D262" s="2">
-        <v>-121.589602</v>
+        <v>-121.589786</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
@@ -4379,13 +4394,13 @@
         <v>89</v>
       </c>
       <c r="B263" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C263" s="2">
-        <v>48.486072999999998</v>
+        <v>48.486089999999997</v>
       </c>
       <c r="D263" s="2">
-        <v>-121.58966100000001</v>
+        <v>-121.58978399999999</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
@@ -4393,13 +4408,13 @@
         <v>89</v>
       </c>
       <c r="B264" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C264" s="2">
-        <v>48.486058</v>
+        <v>48.486016999999997</v>
       </c>
       <c r="D264" s="2">
-        <v>-121.58957100000001</v>
+        <v>-121.589708</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
@@ -4407,13 +4422,13 @@
         <v>89</v>
       </c>
       <c r="B265" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C265" s="2">
-        <v>48.486109999999996</v>
+        <v>48.486198999999999</v>
       </c>
       <c r="D265" s="2">
-        <v>-121.589422</v>
+        <v>-121.58968</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
@@ -4421,13 +4436,13 @@
         <v>89</v>
       </c>
       <c r="B266" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C266" s="2">
-        <v>48.486055999999998</v>
+        <v>48.486094000000001</v>
       </c>
       <c r="D266" s="2">
-        <v>-121.58909</v>
+        <v>-121.589602</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
@@ -4435,13 +4450,13 @@
         <v>89</v>
       </c>
       <c r="B267" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C267" s="2">
-        <v>48.486040000000003</v>
+        <v>48.486072999999998</v>
       </c>
       <c r="D267" s="2">
-        <v>-121.58900199999999</v>
+        <v>-121.58966100000001</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
@@ -4449,13 +4464,13 @@
         <v>89</v>
       </c>
       <c r="B268" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C268" s="2">
-        <v>48.485638000000002</v>
+        <v>48.486058</v>
       </c>
       <c r="D268" s="2">
-        <v>-121.588987</v>
+        <v>-121.58957100000001</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
@@ -4463,13 +4478,13 @@
         <v>89</v>
       </c>
       <c r="B269" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C269" s="2">
-        <v>48.48556</v>
+        <v>48.486109999999996</v>
       </c>
       <c r="D269" s="2">
-        <v>-121.588855</v>
+        <v>-121.589422</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
@@ -4477,13 +4492,13 @@
         <v>89</v>
       </c>
       <c r="B270" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C270" s="2">
-        <v>48.485643000000003</v>
+        <v>48.486055999999998</v>
       </c>
       <c r="D270" s="2">
-        <v>-121.58892299999999</v>
+        <v>-121.58909</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
@@ -4491,13 +4506,13 @@
         <v>89</v>
       </c>
       <c r="B271" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C271" s="2">
-        <v>48.485537999999998</v>
+        <v>48.486040000000003</v>
       </c>
       <c r="D271" s="2">
-        <v>-121.588887</v>
+        <v>-121.58900199999999</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
@@ -4505,13 +4520,13 @@
         <v>89</v>
       </c>
       <c r="B272" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C272" s="2">
-        <v>48.485568999999998</v>
+        <v>48.485638000000002</v>
       </c>
       <c r="D272" s="2">
-        <v>-121.58879899999999</v>
+        <v>-121.588987</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
@@ -4519,13 +4534,13 @@
         <v>89</v>
       </c>
       <c r="B273" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C273" s="2">
-        <v>48.486178000000002</v>
+        <v>48.48556</v>
       </c>
       <c r="D273" s="2">
-        <v>-121.58985800000001</v>
+        <v>-121.588855</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
@@ -4533,13 +4548,13 @@
         <v>89</v>
       </c>
       <c r="B274" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C274" s="2">
-        <v>48.538148999999997</v>
+        <v>48.485643000000003</v>
       </c>
       <c r="D274" s="2">
-        <v>-121.81778300000001</v>
+        <v>-121.58892299999999</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
@@ -4547,13 +4562,13 @@
         <v>89</v>
       </c>
       <c r="B275" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C275" s="2">
-        <v>48.537573999999999</v>
+        <v>48.485537999999998</v>
       </c>
       <c r="D275" s="2">
-        <v>-121.817784</v>
+        <v>-121.588887</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
@@ -4561,13 +4576,13 @@
         <v>89</v>
       </c>
       <c r="B276" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C276" s="2">
-        <v>48.537056</v>
+        <v>48.485568999999998</v>
       </c>
       <c r="D276" s="2">
-        <v>-121.817975</v>
+        <v>-121.58879899999999</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
@@ -4575,13 +4590,13 @@
         <v>89</v>
       </c>
       <c r="B277" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C277" s="2">
-        <v>48.537011</v>
+        <v>48.486178000000002</v>
       </c>
       <c r="D277" s="2">
-        <v>-121.81749499999999</v>
+        <v>-121.58985800000001</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
@@ -4589,13 +4604,13 @@
         <v>89</v>
       </c>
       <c r="B278" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C278" s="2">
-        <v>48.535997999999999</v>
+        <v>48.538148999999997</v>
       </c>
       <c r="D278" s="2">
-        <v>-121.817279</v>
+        <v>-121.81778300000001</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
@@ -4603,13 +4618,13 @@
         <v>89</v>
       </c>
       <c r="B279" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C279" s="2">
-        <v>48.536290999999999</v>
+        <v>48.537573999999999</v>
       </c>
       <c r="D279" s="2">
-        <v>-121.81790700000001</v>
+        <v>-121.817784</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
@@ -4617,13 +4632,13 @@
         <v>89</v>
       </c>
       <c r="B280" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C280" s="2">
-        <v>48.535459000000003</v>
+        <v>48.537056</v>
       </c>
       <c r="D280" s="2">
-        <v>-121.817443</v>
+        <v>-121.817975</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
@@ -4631,13 +4646,13 @@
         <v>89</v>
       </c>
       <c r="B281" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C281" s="2">
-        <v>48.535274999999999</v>
+        <v>48.537011</v>
       </c>
       <c r="D281" s="2">
-        <v>-121.81724</v>
+        <v>-121.81749499999999</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
@@ -4645,13 +4660,13 @@
         <v>89</v>
       </c>
       <c r="B282" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C282" s="2">
-        <v>48.535026999999999</v>
+        <v>48.535997999999999</v>
       </c>
       <c r="D282" s="2">
-        <v>-121.817734</v>
+        <v>-121.817279</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
@@ -4659,13 +4674,13 @@
         <v>89</v>
       </c>
       <c r="B283" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C283" s="2">
-        <v>48.535001999999999</v>
+        <v>48.536290999999999</v>
       </c>
       <c r="D283" s="2">
-        <v>-121.81711</v>
+        <v>-121.81790700000001</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
@@ -4673,13 +4688,13 @@
         <v>89</v>
       </c>
       <c r="B284" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C284" s="2">
-        <v>48.534528000000002</v>
+        <v>48.535459000000003</v>
       </c>
       <c r="D284" s="2">
-        <v>-121.817548</v>
+        <v>-121.817443</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
@@ -4687,13 +4702,13 @@
         <v>89</v>
       </c>
       <c r="B285" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C285" s="2">
-        <v>48.538569000000003</v>
+        <v>48.535274999999999</v>
       </c>
       <c r="D285" s="2">
-        <v>-121.81769799999999</v>
+        <v>-121.81724</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
@@ -4701,13 +4716,13 @@
         <v>89</v>
       </c>
       <c r="B286" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C286" s="2">
-        <v>48.538549000000003</v>
+        <v>48.535026999999999</v>
       </c>
       <c r="D286" s="2">
-        <v>-121.81756</v>
+        <v>-121.817734</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
@@ -4715,69 +4730,69 @@
         <v>89</v>
       </c>
       <c r="B287" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C287" s="2">
-        <v>48.540405</v>
+        <v>48.535001999999999</v>
       </c>
       <c r="D287" s="2">
-        <v>-121.818438</v>
+        <v>-121.81711</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B288">
-        <v>250</v>
-      </c>
-      <c r="C288">
-        <v>48.515582000000002</v>
-      </c>
-      <c r="D288">
-        <v>-122.137444</v>
+      <c r="B288" s="2">
+        <v>246</v>
+      </c>
+      <c r="C288" s="2">
+        <v>48.534528000000002</v>
+      </c>
+      <c r="D288" s="2">
+        <v>-121.817548</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B289">
-        <v>251</v>
-      </c>
-      <c r="C289">
-        <v>48.515664000000001</v>
-      </c>
-      <c r="D289">
-        <v>-122.13708099999999</v>
+      <c r="B289" s="2">
+        <v>247</v>
+      </c>
+      <c r="C289" s="2">
+        <v>48.538569000000003</v>
+      </c>
+      <c r="D289" s="2">
+        <v>-121.81769799999999</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B290">
-        <v>252</v>
-      </c>
-      <c r="C290">
-        <v>48.515645999999997</v>
-      </c>
-      <c r="D290">
-        <v>-122.136931</v>
+      <c r="B290" s="2">
+        <v>248</v>
+      </c>
+      <c r="C290" s="2">
+        <v>48.538549000000003</v>
+      </c>
+      <c r="D290" s="2">
+        <v>-121.81756</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B291">
-        <v>253</v>
-      </c>
-      <c r="C291">
-        <v>48.515706000000002</v>
-      </c>
-      <c r="D291">
-        <v>-122.136735</v>
+      <c r="B291" s="2">
+        <v>249</v>
+      </c>
+      <c r="C291" s="2">
+        <v>48.540405</v>
+      </c>
+      <c r="D291" s="2">
+        <v>-121.818438</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
@@ -4785,13 +4800,13 @@
         <v>89</v>
       </c>
       <c r="B292">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C292">
-        <v>48.523027999999996</v>
+        <v>48.515582000000002</v>
       </c>
       <c r="D292">
-        <v>-122.09708500000001</v>
+        <v>-122.137444</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
@@ -4799,13 +4814,13 @@
         <v>89</v>
       </c>
       <c r="B293">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C293">
-        <v>48.522559000000001</v>
+        <v>48.515664000000001</v>
       </c>
       <c r="D293">
-        <v>-122.104742</v>
+        <v>-122.13708099999999</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
@@ -4813,13 +4828,13 @@
         <v>89</v>
       </c>
       <c r="B294">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C294">
-        <v>48.522629000000002</v>
+        <v>48.515645999999997</v>
       </c>
       <c r="D294">
-        <v>-122.10482500000001</v>
+        <v>-122.136931</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
@@ -4827,13 +4842,13 @@
         <v>89</v>
       </c>
       <c r="B295">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C295">
-        <v>48.527442999999998</v>
+        <v>48.515706000000002</v>
       </c>
       <c r="D295">
-        <v>-121.75259</v>
+        <v>-122.136735</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
@@ -4841,13 +4856,13 @@
         <v>89</v>
       </c>
       <c r="B296">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C296">
-        <v>48.527816000000001</v>
+        <v>48.523027999999996</v>
       </c>
       <c r="D296">
-        <v>-121.75205800000001</v>
+        <v>-122.09708500000001</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.35">
@@ -4855,13 +4870,13 @@
         <v>89</v>
       </c>
       <c r="B297">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C297">
-        <v>48.527971000000001</v>
+        <v>48.522559000000001</v>
       </c>
       <c r="D297">
-        <v>-121.751892</v>
+        <v>-122.104742</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
@@ -4869,13 +4884,13 @@
         <v>89</v>
       </c>
       <c r="B298">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C298">
-        <v>48.533273000000001</v>
+        <v>48.522629000000002</v>
       </c>
       <c r="D298">
-        <v>-121.818251</v>
+        <v>-122.10482500000001</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
@@ -4883,13 +4898,13 @@
         <v>89</v>
       </c>
       <c r="B299">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C299">
-        <v>48.533605000000001</v>
+        <v>48.527442999999998</v>
       </c>
       <c r="D299">
-        <v>-121.818124</v>
+        <v>-121.75259</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.35">
@@ -4897,13 +4912,13 @@
         <v>89</v>
       </c>
       <c r="B300">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C300">
-        <v>48.484695000000002</v>
+        <v>48.527816000000001</v>
       </c>
       <c r="D300">
-        <v>-121.61359899999999</v>
+        <v>-121.75205800000001</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
@@ -4911,13 +4926,13 @@
         <v>89</v>
       </c>
       <c r="B301">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C301">
-        <v>48.484690999999998</v>
+        <v>48.527971000000001</v>
       </c>
       <c r="D301">
-        <v>-121.613738</v>
+        <v>-121.751892</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
@@ -4925,13 +4940,13 @@
         <v>89</v>
       </c>
       <c r="B302">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C302">
-        <v>48.484602000000002</v>
+        <v>48.533273000000001</v>
       </c>
       <c r="D302">
-        <v>-121.614114</v>
+        <v>-121.818251</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.35">
@@ -4939,13 +4954,13 @@
         <v>89</v>
       </c>
       <c r="B303">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C303">
-        <v>48.484623999999997</v>
+        <v>48.533605000000001</v>
       </c>
       <c r="D303">
-        <v>-121.614339</v>
+        <v>-121.818124</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.35">
@@ -4953,13 +4968,13 @@
         <v>89</v>
       </c>
       <c r="B304">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C304">
-        <v>48.480823000000001</v>
+        <v>48.484695000000002</v>
       </c>
       <c r="D304">
-        <v>-121.587673</v>
+        <v>-121.61359899999999</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
@@ -4967,13 +4982,13 @@
         <v>89</v>
       </c>
       <c r="B305">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C305">
-        <v>48.481059999999999</v>
+        <v>48.484690999999998</v>
       </c>
       <c r="D305">
-        <v>-121.587757</v>
+        <v>-121.613738</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.35">
@@ -4981,13 +4996,13 @@
         <v>89</v>
       </c>
       <c r="B306">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C306">
-        <v>48.481234999999998</v>
+        <v>48.484602000000002</v>
       </c>
       <c r="D306">
-        <v>-121.58769599999999</v>
+        <v>-121.614114</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
@@ -4995,13 +5010,13 @@
         <v>89</v>
       </c>
       <c r="B307">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C307">
-        <v>48.481409999999997</v>
+        <v>48.484623999999997</v>
       </c>
       <c r="D307">
-        <v>-121.587661</v>
+        <v>-121.614339</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
@@ -5009,13 +5024,13 @@
         <v>89</v>
       </c>
       <c r="B308">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C308">
-        <v>48.481679</v>
+        <v>48.480823000000001</v>
       </c>
       <c r="D308">
-        <v>-121.58765200000001</v>
+        <v>-121.587673</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.35">
@@ -5023,13 +5038,13 @@
         <v>89</v>
       </c>
       <c r="B309">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C309">
-        <v>48.481814999999997</v>
+        <v>48.481059999999999</v>
       </c>
       <c r="D309">
-        <v>-121.587641</v>
+        <v>-121.587757</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
@@ -5037,13 +5052,13 @@
         <v>89</v>
       </c>
       <c r="B310">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C310">
-        <v>48.503050999999999</v>
+        <v>48.481234999999998</v>
       </c>
       <c r="D310">
-        <v>-121.718833</v>
+        <v>-121.58769599999999</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
@@ -5051,13 +5066,13 @@
         <v>89</v>
       </c>
       <c r="B311">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C311">
-        <v>48.503205000000001</v>
+        <v>48.481409999999997</v>
       </c>
       <c r="D311">
-        <v>-121.718977</v>
+        <v>-121.587661</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.35">
@@ -5065,13 +5080,13 @@
         <v>89</v>
       </c>
       <c r="B312">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C312">
-        <v>48.487403999999998</v>
+        <v>48.481679</v>
       </c>
       <c r="D312">
-        <v>-121.64868800000001</v>
+        <v>-121.58765200000001</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.35">
@@ -5079,13 +5094,13 @@
         <v>89</v>
       </c>
       <c r="B313">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C313">
-        <v>48.48762</v>
+        <v>48.481814999999997</v>
       </c>
       <c r="D313">
-        <v>-121.649019</v>
+        <v>-121.587641</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
@@ -5093,13 +5108,13 @@
         <v>89</v>
       </c>
       <c r="B314">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C314">
-        <v>48.487774000000002</v>
+        <v>48.503050999999999</v>
       </c>
       <c r="D314">
-        <v>-121.64917800000001</v>
+        <v>-121.718833</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.35">
@@ -5107,13 +5122,13 @@
         <v>89</v>
       </c>
       <c r="B315">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C315">
-        <v>48.487994</v>
+        <v>48.503205000000001</v>
       </c>
       <c r="D315">
-        <v>-121.649433</v>
+        <v>-121.718977</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
@@ -5121,13 +5136,13 @@
         <v>89</v>
       </c>
       <c r="B316">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C316">
-        <v>48.488106999999999</v>
+        <v>48.487403999999998</v>
       </c>
       <c r="D316">
-        <v>-121.649393</v>
+        <v>-121.64868800000001</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
@@ -5135,13 +5150,13 @@
         <v>89</v>
       </c>
       <c r="B317">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C317">
-        <v>48.488177</v>
+        <v>48.48762</v>
       </c>
       <c r="D317">
-        <v>-121.649573</v>
+        <v>-121.649019</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.35">
@@ -5149,13 +5164,13 @@
         <v>89</v>
       </c>
       <c r="B318">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C318">
-        <v>48.488235000000003</v>
+        <v>48.487774000000002</v>
       </c>
       <c r="D318">
-        <v>-121.649624</v>
+        <v>-121.64917800000001</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
@@ -5163,13 +5178,13 @@
         <v>89</v>
       </c>
       <c r="B319">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C319">
-        <v>48.488337000000001</v>
+        <v>48.487994</v>
       </c>
       <c r="D319">
-        <v>-121.64959</v>
+        <v>-121.649433</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
@@ -5177,13 +5192,13 @@
         <v>89</v>
       </c>
       <c r="B320">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C320">
-        <v>48.488163999999998</v>
+        <v>48.488106999999999</v>
       </c>
       <c r="D320">
-        <v>-121.649608</v>
+        <v>-121.649393</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.35">
@@ -5191,13 +5206,13 @@
         <v>89</v>
       </c>
       <c r="B321">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C321">
-        <v>48.488348000000002</v>
+        <v>48.488177</v>
       </c>
       <c r="D321">
-        <v>-121.64962199999999</v>
+        <v>-121.649573</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.35">
@@ -5205,13 +5220,13 @@
         <v>89</v>
       </c>
       <c r="B322">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C322">
-        <v>48.488539000000003</v>
+        <v>48.488235000000003</v>
       </c>
       <c r="D322">
-        <v>-121.649877</v>
+        <v>-121.649624</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
@@ -5219,13 +5234,13 @@
         <v>89</v>
       </c>
       <c r="B323">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C323">
-        <v>48.488624999999999</v>
+        <v>48.488337000000001</v>
       </c>
       <c r="D323">
-        <v>-121.65013500000001</v>
+        <v>-121.64959</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.35">
@@ -5233,13 +5248,13 @@
         <v>89</v>
       </c>
       <c r="B324">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C324">
-        <v>48.503030000000003</v>
+        <v>48.488163999999998</v>
       </c>
       <c r="D324">
-        <v>-121.718829</v>
+        <v>-121.649608</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.35">
@@ -5247,13 +5262,13 @@
         <v>89</v>
       </c>
       <c r="B325">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C325">
-        <v>48.527329000000002</v>
+        <v>48.488348000000002</v>
       </c>
       <c r="D325">
-        <v>-121.749999</v>
+        <v>-121.64962199999999</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
@@ -5261,13 +5276,13 @@
         <v>89</v>
       </c>
       <c r="B326">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C326">
-        <v>48.527717000000003</v>
+        <v>48.488539000000003</v>
       </c>
       <c r="D326">
-        <v>-121.749509</v>
+        <v>-121.649877</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.35">
@@ -5275,13 +5290,13 @@
         <v>89</v>
       </c>
       <c r="B327">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C327">
-        <v>48.527937000000001</v>
+        <v>48.488624999999999</v>
       </c>
       <c r="D327">
-        <v>-121.74912399999999</v>
+        <v>-121.65013500000001</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.35">
@@ -5289,13 +5304,13 @@
         <v>89</v>
       </c>
       <c r="B328">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C328">
-        <v>48.528343999999997</v>
+        <v>48.503030000000003</v>
       </c>
       <c r="D328">
-        <v>-121.74866299999999</v>
+        <v>-121.718829</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
@@ -5303,13 +5318,13 @@
         <v>89</v>
       </c>
       <c r="B329">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C329">
-        <v>48.528528999999999</v>
+        <v>48.527329000000002</v>
       </c>
       <c r="D329">
-        <v>-121.74753200000001</v>
+        <v>-121.749999</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.35">
@@ -5317,13 +5332,13 @@
         <v>89</v>
       </c>
       <c r="B330">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C330">
-        <v>48.472003999999998</v>
+        <v>48.527717000000003</v>
       </c>
       <c r="D330">
-        <v>-122.285893</v>
+        <v>-121.749509</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.35">
@@ -5331,13 +5346,13 @@
         <v>89</v>
       </c>
       <c r="B331">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C331">
-        <v>48.478256999999999</v>
+        <v>48.527937000000001</v>
       </c>
       <c r="D331">
-        <v>-122.275356</v>
+        <v>-121.74912399999999</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
@@ -5345,13 +5360,13 @@
         <v>89</v>
       </c>
       <c r="B332">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C332">
-        <v>48.493402000000003</v>
+        <v>48.528343999999997</v>
       </c>
       <c r="D332">
-        <v>-122.19202799999999</v>
+        <v>-121.74866299999999</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.35">
@@ -5359,27 +5374,27 @@
         <v>89</v>
       </c>
       <c r="B333">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C333">
-        <v>48.488377</v>
+        <v>48.528528999999999</v>
       </c>
       <c r="D333">
-        <v>-122.16024299999999</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A334" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B334">
-        <v>296</v>
-      </c>
-      <c r="C334">
-        <v>48.488450999999998</v>
-      </c>
-      <c r="D334">
-        <v>-122.159278</v>
+        <v>-121.74753200000001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A334" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B334" s="11">
+        <v>292</v>
+      </c>
+      <c r="C334" s="11">
+        <v>48.472003999999998</v>
+      </c>
+      <c r="D334" s="11">
+        <v>-122.285893</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
@@ -5387,13 +5402,13 @@
         <v>89</v>
       </c>
       <c r="B335">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C335">
-        <v>48.512653</v>
+        <v>48.478256999999999</v>
       </c>
       <c r="D335">
-        <v>-122.080733</v>
+        <v>-122.275356</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.35">
@@ -5401,13 +5416,13 @@
         <v>89</v>
       </c>
       <c r="B336">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C336">
-        <v>48.527771999999999</v>
+        <v>48.493402000000003</v>
       </c>
       <c r="D336">
-        <v>-121.74947899999999</v>
+        <v>-122.19202799999999</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.35">
@@ -5415,13 +5430,13 @@
         <v>89</v>
       </c>
       <c r="B337">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C337">
-        <v>48.528429000000003</v>
+        <v>48.488377</v>
       </c>
       <c r="D337">
-        <v>-121.747694</v>
+        <v>-122.16024299999999</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
@@ -5429,13 +5444,13 @@
         <v>89</v>
       </c>
       <c r="B338">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C338">
-        <v>48.528016000000001</v>
+        <v>48.488450999999998</v>
       </c>
       <c r="D338">
-        <v>-121.749303</v>
+        <v>-122.159278</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.35">
@@ -5443,13 +5458,13 @@
         <v>89</v>
       </c>
       <c r="B339">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C339">
-        <v>48.528185000000001</v>
+        <v>48.512653</v>
       </c>
       <c r="D339">
-        <v>-121.74846100000001</v>
+        <v>-122.080733</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.35">
@@ -5457,13 +5472,13 @@
         <v>89</v>
       </c>
       <c r="B340">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C340">
-        <v>48.528381000000003</v>
+        <v>48.527771999999999</v>
       </c>
       <c r="D340">
-        <v>-121.748192</v>
+        <v>-121.74947899999999</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
@@ -5471,13 +5486,13 @@
         <v>89</v>
       </c>
       <c r="B341">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C341">
-        <v>48.528146999999997</v>
+        <v>48.528429000000003</v>
       </c>
       <c r="D341">
-        <v>-121.748824</v>
+        <v>-121.747694</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.35">
@@ -5485,13 +5500,13 @@
         <v>89</v>
       </c>
       <c r="B342">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C342">
-        <v>48.513182</v>
+        <v>48.528016000000001</v>
       </c>
       <c r="D342">
-        <v>-121.710078</v>
+        <v>-121.749303</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
@@ -5499,13 +5514,13 @@
         <v>89</v>
       </c>
       <c r="B343">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C343">
-        <v>48.513052000000002</v>
+        <v>48.528185000000001</v>
       </c>
       <c r="D343">
-        <v>-121.709778</v>
+        <v>-121.74846100000001</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
@@ -5513,13 +5528,13 @@
         <v>89</v>
       </c>
       <c r="B344">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C344">
-        <v>48.493481000000003</v>
+        <v>48.528381000000003</v>
       </c>
       <c r="D344">
-        <v>-121.53885200000001</v>
+        <v>-121.748192</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
@@ -5527,13 +5542,13 @@
         <v>89</v>
       </c>
       <c r="B345">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C345">
-        <v>48.493257999999997</v>
+        <v>48.528146999999997</v>
       </c>
       <c r="D345">
-        <v>-121.53928500000001</v>
+        <v>-121.748824</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
@@ -5541,13 +5556,13 @@
         <v>89</v>
       </c>
       <c r="B346">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C346">
-        <v>48.493205000000003</v>
+        <v>48.513182</v>
       </c>
       <c r="D346">
-        <v>-121.539917</v>
+        <v>-121.710078</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
@@ -5555,13 +5570,13 @@
         <v>89</v>
       </c>
       <c r="B347">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C347">
-        <v>48.492963000000003</v>
+        <v>48.513052000000002</v>
       </c>
       <c r="D347">
-        <v>-121.54064</v>
+        <v>-121.709778</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
@@ -5569,69 +5584,69 @@
         <v>89</v>
       </c>
       <c r="B348">
+        <v>306</v>
+      </c>
+      <c r="C348">
+        <v>48.493481000000003</v>
+      </c>
+      <c r="D348">
+        <v>-121.53885200000001</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A349" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B349">
+        <v>307</v>
+      </c>
+      <c r="C349">
+        <v>48.493257999999997</v>
+      </c>
+      <c r="D349">
+        <v>-121.53928500000001</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A350" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B350">
+        <v>308</v>
+      </c>
+      <c r="C350">
+        <v>48.493205000000003</v>
+      </c>
+      <c r="D350">
+        <v>-121.539917</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A351" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B351">
+        <v>309</v>
+      </c>
+      <c r="C351">
+        <v>48.492963000000003</v>
+      </c>
+      <c r="D351">
+        <v>-121.54064</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A352" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B352">
         <v>310</v>
       </c>
-      <c r="C348">
+      <c r="C352">
         <v>48.493471999999997</v>
       </c>
-      <c r="D348">
+      <c r="D352">
         <v>-121.53907599999999</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A349" t="s">
-        <v>89</v>
-      </c>
-      <c r="B349">
-        <v>313</v>
-      </c>
-      <c r="C349">
-        <v>48.513010999999999</v>
-      </c>
-      <c r="D349">
-        <v>-121.70989400000001</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A350" t="s">
-        <v>89</v>
-      </c>
-      <c r="B350">
-        <v>314</v>
-      </c>
-      <c r="C350">
-        <v>48.512836</v>
-      </c>
-      <c r="D350">
-        <v>-121.709947</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A351" t="s">
-        <v>89</v>
-      </c>
-      <c r="B351">
-        <v>315</v>
-      </c>
-      <c r="C351">
-        <v>48.512669000000002</v>
-      </c>
-      <c r="D351">
-        <v>-121.71006199999999</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A352" t="s">
-        <v>89</v>
-      </c>
-      <c r="B352">
-        <v>316</v>
-      </c>
-      <c r="C352">
-        <v>48.512484999999998</v>
-      </c>
-      <c r="D352">
-        <v>-121.710112</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
@@ -5639,13 +5654,13 @@
         <v>89</v>
       </c>
       <c r="B353">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C353">
-        <v>48.512345000000003</v>
+        <v>48.513010999999999</v>
       </c>
       <c r="D353">
-        <v>-121.710182</v>
+        <v>-121.70989400000001</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.35">
@@ -5653,13 +5668,13 @@
         <v>89</v>
       </c>
       <c r="B354">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C354">
-        <v>48.512281000000002</v>
+        <v>48.512836</v>
       </c>
       <c r="D354">
-        <v>-121.71007299999999</v>
+        <v>-121.709947</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.35">
@@ -5667,13 +5682,13 @@
         <v>89</v>
       </c>
       <c r="B355">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C355">
-        <v>48.512239000000001</v>
+        <v>48.512669000000002</v>
       </c>
       <c r="D355">
-        <v>-121.710258</v>
+        <v>-121.71006199999999</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
@@ -5681,13 +5696,13 @@
         <v>89</v>
       </c>
       <c r="B356">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C356">
-        <v>48.513035000000002</v>
+        <v>48.512484999999998</v>
       </c>
       <c r="D356">
-        <v>-121.709914</v>
+        <v>-121.710112</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.35">
@@ -5695,13 +5710,13 @@
         <v>89</v>
       </c>
       <c r="B357">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C357">
-        <v>48.486179</v>
+        <v>48.512345000000003</v>
       </c>
       <c r="D357">
-        <v>-121.59041000000001</v>
+        <v>-121.710182</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.35">
@@ -5709,13 +5724,13 @@
         <v>89</v>
       </c>
       <c r="B358">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C358">
-        <v>48.486196</v>
+        <v>48.512281000000002</v>
       </c>
       <c r="D358">
-        <v>-121.59023999999999</v>
+        <v>-121.71007299999999</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
@@ -5723,13 +5738,13 @@
         <v>89</v>
       </c>
       <c r="B359">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C359">
-        <v>48.486207</v>
+        <v>48.512239000000001</v>
       </c>
       <c r="D359">
-        <v>-121.590363</v>
+        <v>-121.710258</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.35">
@@ -5737,13 +5752,13 @@
         <v>89</v>
       </c>
       <c r="B360">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C360">
-        <v>48.486212999999999</v>
+        <v>48.513035000000002</v>
       </c>
       <c r="D360">
-        <v>-121.59026</v>
+        <v>-121.709914</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
@@ -5751,13 +5766,13 @@
         <v>89</v>
       </c>
       <c r="B361">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C361">
-        <v>48.486248000000003</v>
+        <v>48.486179</v>
       </c>
       <c r="D361">
-        <v>-121.59023000000001</v>
+        <v>-121.59041000000001</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
@@ -5765,13 +5780,13 @@
         <v>89</v>
       </c>
       <c r="B362">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C362">
-        <v>48.486212999999999</v>
+        <v>48.486196</v>
       </c>
       <c r="D362">
-        <v>-121.59018500000001</v>
+        <v>-121.59023999999999</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.35">
@@ -5779,13 +5794,13 @@
         <v>89</v>
       </c>
       <c r="B363">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C363">
-        <v>48.486196</v>
+        <v>48.486207</v>
       </c>
       <c r="D363">
-        <v>-121.590107</v>
+        <v>-121.590363</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.35">
@@ -5793,13 +5808,13 @@
         <v>89</v>
       </c>
       <c r="B364">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C364">
-        <v>48.486215999999999</v>
+        <v>48.486212999999999</v>
       </c>
       <c r="D364">
-        <v>-121.590074</v>
+        <v>-121.59026</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
@@ -5807,13 +5822,13 @@
         <v>89</v>
       </c>
       <c r="B365">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C365">
-        <v>48.486221</v>
+        <v>48.486248000000003</v>
       </c>
       <c r="D365">
-        <v>-121.589996</v>
+        <v>-121.59023000000001</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.35">
@@ -5821,13 +5836,13 @@
         <v>89</v>
       </c>
       <c r="B366">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C366">
-        <v>48.486176</v>
+        <v>48.486212999999999</v>
       </c>
       <c r="D366">
-        <v>-121.589918</v>
+        <v>-121.59018500000001</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.35">
@@ -5835,13 +5850,13 @@
         <v>89</v>
       </c>
       <c r="B367">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C367">
-        <v>48.486230999999997</v>
+        <v>48.486196</v>
       </c>
       <c r="D367">
-        <v>-121.589911</v>
+        <v>-121.590107</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
@@ -5849,13 +5864,13 @@
         <v>89</v>
       </c>
       <c r="B368">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C368">
-        <v>48.486190999999998</v>
+        <v>48.486215999999999</v>
       </c>
       <c r="D368">
-        <v>-121.589794</v>
+        <v>-121.590074</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.35">
@@ -5863,13 +5878,13 @@
         <v>89</v>
       </c>
       <c r="B369">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C369">
-        <v>48.486119000000002</v>
+        <v>48.486221</v>
       </c>
       <c r="D369">
-        <v>-121.58977899999999</v>
+        <v>-121.589996</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.35">
@@ -5877,13 +5892,13 @@
         <v>89</v>
       </c>
       <c r="B370">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C370">
-        <v>48.486105999999999</v>
+        <v>48.486176</v>
       </c>
       <c r="D370">
-        <v>-121.589733</v>
+        <v>-121.589918</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
@@ -5891,13 +5906,13 @@
         <v>89</v>
       </c>
       <c r="B371">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C371">
-        <v>48.486192000000003</v>
+        <v>48.486230999999997</v>
       </c>
       <c r="D371">
-        <v>-121.589617</v>
+        <v>-121.589911</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.35">
@@ -5905,13 +5920,13 @@
         <v>89</v>
       </c>
       <c r="B372">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C372">
-        <v>48.486246999999999</v>
+        <v>48.486190999999998</v>
       </c>
       <c r="D372">
-        <v>-121.589564</v>
+        <v>-121.589794</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.35">
@@ -5919,13 +5934,13 @@
         <v>89</v>
       </c>
       <c r="B373">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C373">
-        <v>48.486229000000002</v>
+        <v>48.486119000000002</v>
       </c>
       <c r="D373">
-        <v>-121.589558</v>
+        <v>-121.58977899999999</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
@@ -5933,13 +5948,13 @@
         <v>89</v>
       </c>
       <c r="B374">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C374">
-        <v>48.486170999999999</v>
+        <v>48.486105999999999</v>
       </c>
       <c r="D374">
-        <v>-121.58953200000001</v>
+        <v>-121.589733</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.35">
@@ -5947,13 +5962,13 @@
         <v>89</v>
       </c>
       <c r="B375">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C375">
-        <v>48.350872000000003</v>
+        <v>48.486192000000003</v>
       </c>
       <c r="D375">
-        <v>-121.55139200000001</v>
+        <v>-121.589617</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.35">
@@ -5961,13 +5976,13 @@
         <v>89</v>
       </c>
       <c r="B376">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C376">
-        <v>48.350879999999997</v>
+        <v>48.486246999999999</v>
       </c>
       <c r="D376">
-        <v>-121.551591</v>
+        <v>-121.589564</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
@@ -5975,13 +5990,13 @@
         <v>89</v>
       </c>
       <c r="B377">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C377">
-        <v>48.351145000000002</v>
+        <v>48.486229000000002</v>
       </c>
       <c r="D377">
-        <v>-121.551526</v>
+        <v>-121.589558</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.35">
@@ -5989,13 +6004,13 @@
         <v>89</v>
       </c>
       <c r="B378">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C378">
-        <v>48.351019999999998</v>
+        <v>48.486170999999999</v>
       </c>
       <c r="D378">
-        <v>-121.55129100000001</v>
+        <v>-121.58953200000001</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
@@ -6003,13 +6018,13 @@
         <v>89</v>
       </c>
       <c r="B379">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C379">
-        <v>48.351008999999998</v>
+        <v>48.350872000000003</v>
       </c>
       <c r="D379">
-        <v>-121.551604</v>
+        <v>-121.55139200000001</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
@@ -6017,13 +6032,13 @@
         <v>89</v>
       </c>
       <c r="B380">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C380">
-        <v>48.351562000000001</v>
+        <v>48.350879999999997</v>
       </c>
       <c r="D380">
-        <v>-121.551508</v>
+        <v>-121.551591</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.35">
@@ -6031,13 +6046,13 @@
         <v>89</v>
       </c>
       <c r="B381">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C381">
-        <v>48.351461</v>
+        <v>48.351145000000002</v>
       </c>
       <c r="D381">
-        <v>-121.55141399999999</v>
+        <v>-121.551526</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
@@ -6045,13 +6060,13 @@
         <v>89</v>
       </c>
       <c r="B382">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C382">
-        <v>48.351630999999998</v>
+        <v>48.351019999999998</v>
       </c>
       <c r="D382">
-        <v>-121.55165700000001</v>
+        <v>-121.55129100000001</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
@@ -6059,13 +6074,13 @@
         <v>89</v>
       </c>
       <c r="B383">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C383">
-        <v>48.352632999999997</v>
+        <v>48.351008999999998</v>
       </c>
       <c r="D383">
-        <v>-121.552127</v>
+        <v>-121.551604</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.35">
@@ -6073,13 +6088,13 @@
         <v>89</v>
       </c>
       <c r="B384">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C384">
-        <v>48.353017999999999</v>
+        <v>48.351562000000001</v>
       </c>
       <c r="D384">
-        <v>-121.55206099999999</v>
+        <v>-121.551508</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.35">
@@ -6087,13 +6102,13 @@
         <v>89</v>
       </c>
       <c r="B385">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C385">
-        <v>48.353065999999998</v>
+        <v>48.351461</v>
       </c>
       <c r="D385">
-        <v>-121.552251</v>
+        <v>-121.55141399999999</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
@@ -6101,13 +6116,13 @@
         <v>89</v>
       </c>
       <c r="B386">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C386">
-        <v>48.353065999999998</v>
+        <v>48.351630999999998</v>
       </c>
       <c r="D386">
-        <v>-121.55225299999999</v>
+        <v>-121.55165700000001</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.35">
@@ -6115,13 +6130,13 @@
         <v>89</v>
       </c>
       <c r="B387">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C387">
-        <v>48.353256999999999</v>
+        <v>48.352632999999997</v>
       </c>
       <c r="D387">
-        <v>-121.55217</v>
+        <v>-121.552127</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.35">
@@ -6129,13 +6144,13 @@
         <v>89</v>
       </c>
       <c r="B388">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C388">
-        <v>48.353316</v>
+        <v>48.353017999999999</v>
       </c>
       <c r="D388">
-        <v>-121.552154</v>
+        <v>-121.55206099999999</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
@@ -6143,13 +6158,13 @@
         <v>89</v>
       </c>
       <c r="B389">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C389">
-        <v>48.353304999999999</v>
+        <v>48.353065999999998</v>
       </c>
       <c r="D389">
-        <v>-121.552136</v>
+        <v>-121.552251</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.35">
@@ -6157,13 +6172,13 @@
         <v>89</v>
       </c>
       <c r="B390">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C390">
-        <v>48.353485999999997</v>
+        <v>48.353065999999998</v>
       </c>
       <c r="D390">
-        <v>-121.552497</v>
+        <v>-121.55225299999999</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.35">
@@ -6171,13 +6186,13 @@
         <v>89</v>
       </c>
       <c r="B391">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C391">
-        <v>48.353411000000001</v>
+        <v>48.353256999999999</v>
       </c>
       <c r="D391">
-        <v>-121.552616</v>
+        <v>-121.55217</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
@@ -6185,13 +6200,13 @@
         <v>89</v>
       </c>
       <c r="B392">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C392">
-        <v>48.353549000000001</v>
+        <v>48.353316</v>
       </c>
       <c r="D392">
-        <v>-121.552482</v>
+        <v>-121.552154</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.35">
@@ -6199,13 +6214,13 @@
         <v>89</v>
       </c>
       <c r="B393">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C393">
-        <v>48.353551000000003</v>
+        <v>48.353304999999999</v>
       </c>
       <c r="D393">
-        <v>-121.55244</v>
+        <v>-121.552136</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.35">
@@ -6213,13 +6228,13 @@
         <v>89</v>
       </c>
       <c r="B394">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C394">
-        <v>48.473525000000002</v>
+        <v>48.353485999999997</v>
       </c>
       <c r="D394">
-        <v>-121.557974</v>
+        <v>-121.552497</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
@@ -6227,12 +6242,68 @@
         <v>89</v>
       </c>
       <c r="B395">
+        <v>355</v>
+      </c>
+      <c r="C395">
+        <v>48.353411000000001</v>
+      </c>
+      <c r="D395">
+        <v>-121.552616</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
+        <v>89</v>
+      </c>
+      <c r="B396">
+        <v>356</v>
+      </c>
+      <c r="C396">
+        <v>48.353549000000001</v>
+      </c>
+      <c r="D396">
+        <v>-121.552482</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
+        <v>89</v>
+      </c>
+      <c r="B397">
+        <v>357</v>
+      </c>
+      <c r="C397">
+        <v>48.353551000000003</v>
+      </c>
+      <c r="D397">
+        <v>-121.55244</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
+        <v>89</v>
+      </c>
+      <c r="B398">
+        <v>358</v>
+      </c>
+      <c r="C398">
+        <v>48.473525000000002</v>
+      </c>
+      <c r="D398">
+        <v>-121.557974</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
+        <v>89</v>
+      </c>
+      <c r="B399">
         <v>359</v>
       </c>
-      <c r="C395">
+      <c r="C399">
         <v>48.473289999999999</v>
       </c>
-      <c r="D395">
+      <c r="D399">
         <v>-121.558246</v>
       </c>
     </row>

--- a/Reports/Seasonal_Habitat_Landmark_Waypoints_2021_Final.xlsx
+++ b/Reports/Seasonal_Habitat_Landmark_Waypoints_2021_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Desktop\Box Sync\Thesis\Chinook Seasonal Floodplain Habitat\GitHub\seasonal-floodplains\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279C295A-F452-42AF-A1E3-579A3114CFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B060963-F401-4827-8D45-159BF3C0EB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5F03E6B5-5464-43F8-AED9-513F851700B6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5F03E6B5-5464-43F8-AED9-513F851700B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="95">
   <si>
     <t>Latitude</t>
   </si>
@@ -310,6 +310,15 @@
   </si>
   <si>
     <t>GPS Unit</t>
+  </si>
+  <si>
+    <t>Site Code</t>
+  </si>
+  <si>
+    <t>Site Name</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -707,11 +716,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF9064F-0344-4C21-823B-7B2564E6B2DB}">
-  <dimension ref="A1:D399"/>
+  <dimension ref="A1:G403"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G192" sqref="G192"/>
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F226" sqref="F226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -721,7 +730,7 @@
     <col min="3" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>91</v>
       </c>
@@ -734,8 +743,17 @@
       <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>88</v>
       </c>
@@ -749,7 +767,7 @@
         <v>-121.48860000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>88</v>
       </c>
@@ -763,7 +781,7 @@
         <v>-121.48883499999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>88</v>
       </c>
@@ -777,7 +795,7 @@
         <v>-121.488778</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>88</v>
       </c>
@@ -791,7 +809,7 @@
         <v>-121.48907800000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>88</v>
       </c>
@@ -805,7 +823,7 @@
         <v>-121.488945</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>88</v>
       </c>
@@ -819,7 +837,7 @@
         <v>-121.488756</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>88</v>
       </c>
@@ -833,7 +851,7 @@
         <v>-121.48905999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>88</v>
       </c>
@@ -847,7 +865,7 @@
         <v>-121.489369</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>88</v>
       </c>
@@ -861,7 +879,7 @@
         <v>-121.489223</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>88</v>
       </c>
@@ -875,7 +893,7 @@
         <v>-121.489248</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>88</v>
       </c>
@@ -889,7 +907,7 @@
         <v>-121.48939300000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>88</v>
       </c>
@@ -903,7 +921,7 @@
         <v>-121.489486</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>88</v>
       </c>
@@ -917,7 +935,7 @@
         <v>-121.48966900000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>88</v>
       </c>
@@ -931,7 +949,7 @@
         <v>-121.49208</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>88</v>
       </c>
@@ -2723,17 +2741,17 @@
         <v>-122.274575</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B144" s="3">
+    <row r="144" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B144" s="10">
         <v>62</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144" s="9">
         <v>48.484935</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D144" s="9">
         <v>-121.612025</v>
       </c>
     </row>
@@ -2751,17 +2769,17 @@
         <v>-121.61256</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B146" s="3">
+    <row r="146" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B146" s="10">
         <v>64</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146" s="9">
         <v>48.484763000000001</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D146" s="9">
         <v>-121.613505</v>
       </c>
     </row>
@@ -2779,17 +2797,17 @@
         <v>-121.613647</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B148" s="3">
+    <row r="148" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B148" s="10">
         <v>66</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148" s="9">
         <v>48.484715000000001</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148" s="9">
         <v>-121.613856</v>
       </c>
     </row>
@@ -3311,17 +3329,17 @@
         <v>-121.58786600000001</v>
       </c>
     </row>
-    <row r="186" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B186" s="10">
+    <row r="186" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B186" s="13">
         <v>104</v>
       </c>
-      <c r="C186" s="9">
+      <c r="C186" s="12">
         <v>48.472039000000002</v>
       </c>
-      <c r="D186" s="9">
+      <c r="D186" s="12">
         <v>-122.286027</v>
       </c>
     </row>
@@ -3703,31 +3721,31 @@
         <v>-121.54604399999999</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A214" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B214" s="2">
+    <row r="214" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B214" s="9">
         <v>162</v>
       </c>
-      <c r="C214" s="2">
+      <c r="C214" s="9">
         <v>48.365721999999998</v>
       </c>
-      <c r="D214" s="2">
+      <c r="D214" s="9">
         <v>-121.54598900000001</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A215" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B215" s="2">
+    <row r="215" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B215" s="9">
         <v>163</v>
       </c>
-      <c r="C215" s="2">
+      <c r="C215" s="9">
         <v>48.365634</v>
       </c>
-      <c r="D215" s="2">
+      <c r="D215" s="9">
         <v>-121.54576299999999</v>
       </c>
     </row>
@@ -3960,55 +3978,55 @@
         <v>89</v>
       </c>
       <c r="B232" s="2">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C232" s="2">
-        <v>48.515915999999997</v>
+        <v>48.485892</v>
       </c>
       <c r="D232" s="2">
-        <v>-122.006714</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A233" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B233" s="2">
-        <v>190</v>
-      </c>
-      <c r="C233" s="2">
-        <v>48.515931999999999</v>
-      </c>
-      <c r="D233" s="2">
-        <v>-122.00670599999999</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A234" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B234" s="2">
-        <v>191</v>
-      </c>
-      <c r="C234" s="2">
-        <v>48.516241000000001</v>
-      </c>
-      <c r="D234" s="2">
-        <v>-122.006857</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A235" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B235" s="2">
-        <v>192</v>
-      </c>
-      <c r="C235" s="2">
-        <v>48.516634000000003</v>
-      </c>
-      <c r="D235" s="2">
-        <v>-122.007296</v>
+        <v>-121.59098899999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B233" s="9">
+        <v>182</v>
+      </c>
+      <c r="C233" s="9">
+        <v>48.48621</v>
+      </c>
+      <c r="D233" s="9">
+        <v>-121.59039900000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B234" s="9">
+        <v>183</v>
+      </c>
+      <c r="C234" s="9">
+        <v>48.486165999999997</v>
+      </c>
+      <c r="D234" s="9">
+        <v>-121.589386</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B235" s="9">
+        <v>184</v>
+      </c>
+      <c r="C235" s="9">
+        <v>48.486001999999999</v>
+      </c>
+      <c r="D235" s="9">
+        <v>-121.58907000000001</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
@@ -4016,13 +4034,13 @@
         <v>89</v>
       </c>
       <c r="B236" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C236" s="2">
-        <v>48.515540999999999</v>
+        <v>48.515915999999997</v>
       </c>
       <c r="D236" s="2">
-        <v>-121.879868</v>
+        <v>-122.006714</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
@@ -4030,13 +4048,13 @@
         <v>89</v>
       </c>
       <c r="B237" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C237" s="2">
-        <v>48.515208999999999</v>
+        <v>48.515931999999999</v>
       </c>
       <c r="D237" s="2">
-        <v>-121.880021</v>
+        <v>-122.00670599999999</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
@@ -4044,13 +4062,13 @@
         <v>89</v>
       </c>
       <c r="B238" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C238" s="2">
-        <v>48.515165000000003</v>
+        <v>48.516241000000001</v>
       </c>
       <c r="D238" s="2">
-        <v>-121.88000599999999</v>
+        <v>-122.006857</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
@@ -4058,13 +4076,13 @@
         <v>89</v>
       </c>
       <c r="B239" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C239" s="2">
-        <v>48.515180000000001</v>
+        <v>48.516634000000003</v>
       </c>
       <c r="D239" s="2">
-        <v>-121.880081</v>
+        <v>-122.007296</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
@@ -4072,13 +4090,13 @@
         <v>89</v>
       </c>
       <c r="B240" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C240" s="2">
-        <v>48.514980999999999</v>
+        <v>48.515540999999999</v>
       </c>
       <c r="D240" s="2">
-        <v>-121.88046199999999</v>
+        <v>-121.879868</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
@@ -4086,13 +4104,13 @@
         <v>89</v>
       </c>
       <c r="B241" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C241" s="2">
-        <v>48.515065</v>
+        <v>48.515208999999999</v>
       </c>
       <c r="D241" s="2">
-        <v>-121.88021500000001</v>
+        <v>-121.880021</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
@@ -4100,13 +4118,13 @@
         <v>89</v>
       </c>
       <c r="B242" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C242" s="2">
-        <v>48.514797000000002</v>
+        <v>48.515165000000003</v>
       </c>
       <c r="D242" s="2">
-        <v>-121.880172</v>
+        <v>-121.88000599999999</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
@@ -4114,13 +4132,13 @@
         <v>89</v>
       </c>
       <c r="B243" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C243" s="2">
-        <v>48.514800999999999</v>
+        <v>48.515180000000001</v>
       </c>
       <c r="D243" s="2">
-        <v>-121.88032699999999</v>
+        <v>-121.880081</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
@@ -4128,13 +4146,13 @@
         <v>89</v>
       </c>
       <c r="B244" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C244" s="2">
-        <v>48.514966999999999</v>
+        <v>48.514980999999999</v>
       </c>
       <c r="D244" s="2">
-        <v>-121.88042900000001</v>
+        <v>-121.88046199999999</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
@@ -4142,13 +4160,13 @@
         <v>89</v>
       </c>
       <c r="B245" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C245" s="2">
-        <v>48.514257999999998</v>
+        <v>48.515065</v>
       </c>
       <c r="D245" s="2">
-        <v>-121.880703</v>
+        <v>-121.88021500000001</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
@@ -4156,13 +4174,13 @@
         <v>89</v>
       </c>
       <c r="B246" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C246" s="2">
-        <v>48.514259000000003</v>
+        <v>48.514797000000002</v>
       </c>
       <c r="D246" s="2">
-        <v>-121.880563</v>
+        <v>-121.880172</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
@@ -4170,13 +4188,13 @@
         <v>89</v>
       </c>
       <c r="B247" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C247" s="2">
-        <v>48.514232999999997</v>
+        <v>48.514800999999999</v>
       </c>
       <c r="D247" s="2">
-        <v>-121.88081699999999</v>
+        <v>-121.88032699999999</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
@@ -4184,13 +4202,13 @@
         <v>89</v>
       </c>
       <c r="B248" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C248" s="2">
-        <v>48.514102999999999</v>
+        <v>48.514966999999999</v>
       </c>
       <c r="D248" s="2">
-        <v>-121.880892</v>
+        <v>-121.88042900000001</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
@@ -4198,13 +4216,13 @@
         <v>89</v>
       </c>
       <c r="B249" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C249" s="2">
-        <v>48.514028000000003</v>
+        <v>48.514257999999998</v>
       </c>
       <c r="D249" s="2">
-        <v>-121.880951</v>
+        <v>-121.880703</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
@@ -4212,13 +4230,13 @@
         <v>89</v>
       </c>
       <c r="B250" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C250" s="2">
-        <v>48.514114999999997</v>
+        <v>48.514259000000003</v>
       </c>
       <c r="D250" s="2">
-        <v>-121.881165</v>
+        <v>-121.880563</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
@@ -4226,13 +4244,13 @@
         <v>89</v>
       </c>
       <c r="B251" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C251" s="2">
-        <v>48.513893000000003</v>
+        <v>48.514232999999997</v>
       </c>
       <c r="D251" s="2">
-        <v>-121.881062</v>
+        <v>-121.88081699999999</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
@@ -4240,13 +4258,13 @@
         <v>89</v>
       </c>
       <c r="B252" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C252" s="2">
-        <v>48.513719000000002</v>
+        <v>48.514102999999999</v>
       </c>
       <c r="D252" s="2">
-        <v>-121.88120600000001</v>
+        <v>-121.880892</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
@@ -4254,13 +4272,13 @@
         <v>89</v>
       </c>
       <c r="B253" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C253" s="2">
-        <v>48.486128000000001</v>
+        <v>48.514028000000003</v>
       </c>
       <c r="D253" s="2">
-        <v>-121.590261</v>
+        <v>-121.880951</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
@@ -4268,13 +4286,13 @@
         <v>89</v>
       </c>
       <c r="B254" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C254" s="2">
-        <v>48.486133000000002</v>
+        <v>48.514114999999997</v>
       </c>
       <c r="D254" s="2">
-        <v>-121.59020700000001</v>
+        <v>-121.881165</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
@@ -4282,13 +4300,13 @@
         <v>89</v>
       </c>
       <c r="B255" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C255" s="2">
-        <v>48.486066999999998</v>
+        <v>48.513893000000003</v>
       </c>
       <c r="D255" s="2">
-        <v>-121.590165</v>
+        <v>-121.881062</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
@@ -4296,13 +4314,13 @@
         <v>89</v>
       </c>
       <c r="B256" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C256" s="2">
-        <v>48.486044</v>
+        <v>48.513719000000002</v>
       </c>
       <c r="D256" s="2">
-        <v>-121.590158</v>
+        <v>-121.88120600000001</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
@@ -4310,13 +4328,13 @@
         <v>89</v>
       </c>
       <c r="B257" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C257" s="2">
-        <v>48.486085000000003</v>
+        <v>48.486128000000001</v>
       </c>
       <c r="D257" s="2">
-        <v>-121.590058</v>
+        <v>-121.590261</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
@@ -4324,13 +4342,13 @@
         <v>89</v>
       </c>
       <c r="B258" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C258" s="2">
-        <v>48.485993000000001</v>
+        <v>48.486133000000002</v>
       </c>
       <c r="D258" s="2">
-        <v>-121.590003</v>
+        <v>-121.59020700000001</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
@@ -4338,13 +4356,13 @@
         <v>89</v>
       </c>
       <c r="B259" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C259" s="2">
-        <v>48.486044999999997</v>
+        <v>48.486066999999998</v>
       </c>
       <c r="D259" s="2">
-        <v>-121.589962</v>
+        <v>-121.590165</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
@@ -4352,13 +4370,13 @@
         <v>89</v>
       </c>
       <c r="B260" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C260" s="2">
-        <v>48.486066000000001</v>
+        <v>48.486044</v>
       </c>
       <c r="D260" s="2">
-        <v>-121.58985699999999</v>
+        <v>-121.590158</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
@@ -4366,13 +4384,13 @@
         <v>89</v>
       </c>
       <c r="B261" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C261" s="2">
-        <v>48.486105999999999</v>
+        <v>48.486085000000003</v>
       </c>
       <c r="D261" s="2">
-        <v>-121.58991</v>
+        <v>-121.590058</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
@@ -4380,13 +4398,13 @@
         <v>89</v>
       </c>
       <c r="B262" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C262" s="2">
-        <v>48.486038999999998</v>
+        <v>48.485993000000001</v>
       </c>
       <c r="D262" s="2">
-        <v>-121.589786</v>
+        <v>-121.590003</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
@@ -4394,13 +4412,13 @@
         <v>89</v>
       </c>
       <c r="B263" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C263" s="2">
-        <v>48.486089999999997</v>
+        <v>48.486044999999997</v>
       </c>
       <c r="D263" s="2">
-        <v>-121.58978399999999</v>
+        <v>-121.589962</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
@@ -4408,13 +4426,13 @@
         <v>89</v>
       </c>
       <c r="B264" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C264" s="2">
-        <v>48.486016999999997</v>
+        <v>48.486066000000001</v>
       </c>
       <c r="D264" s="2">
-        <v>-121.589708</v>
+        <v>-121.58985699999999</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
@@ -4422,13 +4440,13 @@
         <v>89</v>
       </c>
       <c r="B265" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C265" s="2">
-        <v>48.486198999999999</v>
+        <v>48.486105999999999</v>
       </c>
       <c r="D265" s="2">
-        <v>-121.58968</v>
+        <v>-121.58991</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
@@ -4436,13 +4454,13 @@
         <v>89</v>
       </c>
       <c r="B266" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C266" s="2">
-        <v>48.486094000000001</v>
+        <v>48.486038999999998</v>
       </c>
       <c r="D266" s="2">
-        <v>-121.589602</v>
+        <v>-121.589786</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
@@ -4450,13 +4468,13 @@
         <v>89</v>
       </c>
       <c r="B267" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C267" s="2">
-        <v>48.486072999999998</v>
+        <v>48.486089999999997</v>
       </c>
       <c r="D267" s="2">
-        <v>-121.58966100000001</v>
+        <v>-121.58978399999999</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
@@ -4464,13 +4482,13 @@
         <v>89</v>
       </c>
       <c r="B268" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C268" s="2">
-        <v>48.486058</v>
+        <v>48.486016999999997</v>
       </c>
       <c r="D268" s="2">
-        <v>-121.58957100000001</v>
+        <v>-121.589708</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
@@ -4478,13 +4496,13 @@
         <v>89</v>
       </c>
       <c r="B269" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C269" s="2">
-        <v>48.486109999999996</v>
+        <v>48.486198999999999</v>
       </c>
       <c r="D269" s="2">
-        <v>-121.589422</v>
+        <v>-121.58968</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
@@ -4492,13 +4510,13 @@
         <v>89</v>
       </c>
       <c r="B270" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C270" s="2">
-        <v>48.486055999999998</v>
+        <v>48.486094000000001</v>
       </c>
       <c r="D270" s="2">
-        <v>-121.58909</v>
+        <v>-121.589602</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
@@ -4506,13 +4524,13 @@
         <v>89</v>
       </c>
       <c r="B271" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C271" s="2">
-        <v>48.486040000000003</v>
+        <v>48.486072999999998</v>
       </c>
       <c r="D271" s="2">
-        <v>-121.58900199999999</v>
+        <v>-121.58966100000001</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
@@ -4520,13 +4538,13 @@
         <v>89</v>
       </c>
       <c r="B272" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C272" s="2">
-        <v>48.485638000000002</v>
+        <v>48.486058</v>
       </c>
       <c r="D272" s="2">
-        <v>-121.588987</v>
+        <v>-121.58957100000001</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
@@ -4534,13 +4552,13 @@
         <v>89</v>
       </c>
       <c r="B273" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C273" s="2">
-        <v>48.48556</v>
+        <v>48.486109999999996</v>
       </c>
       <c r="D273" s="2">
-        <v>-121.588855</v>
+        <v>-121.589422</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
@@ -4548,13 +4566,13 @@
         <v>89</v>
       </c>
       <c r="B274" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C274" s="2">
-        <v>48.485643000000003</v>
+        <v>48.486055999999998</v>
       </c>
       <c r="D274" s="2">
-        <v>-121.58892299999999</v>
+        <v>-121.58909</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
@@ -4562,13 +4580,13 @@
         <v>89</v>
       </c>
       <c r="B275" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C275" s="2">
-        <v>48.485537999999998</v>
+        <v>48.486040000000003</v>
       </c>
       <c r="D275" s="2">
-        <v>-121.588887</v>
+        <v>-121.58900199999999</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
@@ -4576,13 +4594,13 @@
         <v>89</v>
       </c>
       <c r="B276" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C276" s="2">
-        <v>48.485568999999998</v>
+        <v>48.485638000000002</v>
       </c>
       <c r="D276" s="2">
-        <v>-121.58879899999999</v>
+        <v>-121.588987</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
@@ -4590,13 +4608,13 @@
         <v>89</v>
       </c>
       <c r="B277" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C277" s="2">
-        <v>48.486178000000002</v>
+        <v>48.48556</v>
       </c>
       <c r="D277" s="2">
-        <v>-121.58985800000001</v>
+        <v>-121.588855</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
@@ -4604,13 +4622,13 @@
         <v>89</v>
       </c>
       <c r="B278" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C278" s="2">
-        <v>48.538148999999997</v>
+        <v>48.485643000000003</v>
       </c>
       <c r="D278" s="2">
-        <v>-121.81778300000001</v>
+        <v>-121.58892299999999</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
@@ -4618,13 +4636,13 @@
         <v>89</v>
       </c>
       <c r="B279" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C279" s="2">
-        <v>48.537573999999999</v>
+        <v>48.485537999999998</v>
       </c>
       <c r="D279" s="2">
-        <v>-121.817784</v>
+        <v>-121.588887</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
@@ -4632,13 +4650,13 @@
         <v>89</v>
       </c>
       <c r="B280" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C280" s="2">
-        <v>48.537056</v>
+        <v>48.485568999999998</v>
       </c>
       <c r="D280" s="2">
-        <v>-121.817975</v>
+        <v>-121.58879899999999</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
@@ -4646,13 +4664,13 @@
         <v>89</v>
       </c>
       <c r="B281" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C281" s="2">
-        <v>48.537011</v>
+        <v>48.486178000000002</v>
       </c>
       <c r="D281" s="2">
-        <v>-121.81749499999999</v>
+        <v>-121.58985800000001</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
@@ -4660,13 +4678,13 @@
         <v>89</v>
       </c>
       <c r="B282" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C282" s="2">
-        <v>48.535997999999999</v>
+        <v>48.538148999999997</v>
       </c>
       <c r="D282" s="2">
-        <v>-121.817279</v>
+        <v>-121.81778300000001</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
@@ -4674,13 +4692,13 @@
         <v>89</v>
       </c>
       <c r="B283" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C283" s="2">
-        <v>48.536290999999999</v>
+        <v>48.537573999999999</v>
       </c>
       <c r="D283" s="2">
-        <v>-121.81790700000001</v>
+        <v>-121.817784</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
@@ -4688,13 +4706,13 @@
         <v>89</v>
       </c>
       <c r="B284" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C284" s="2">
-        <v>48.535459000000003</v>
+        <v>48.537056</v>
       </c>
       <c r="D284" s="2">
-        <v>-121.817443</v>
+        <v>-121.817975</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
@@ -4702,13 +4720,13 @@
         <v>89</v>
       </c>
       <c r="B285" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C285" s="2">
-        <v>48.535274999999999</v>
+        <v>48.537011</v>
       </c>
       <c r="D285" s="2">
-        <v>-121.81724</v>
+        <v>-121.81749499999999</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
@@ -4716,13 +4734,13 @@
         <v>89</v>
       </c>
       <c r="B286" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C286" s="2">
-        <v>48.535026999999999</v>
+        <v>48.535997999999999</v>
       </c>
       <c r="D286" s="2">
-        <v>-121.817734</v>
+        <v>-121.817279</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
@@ -4730,13 +4748,13 @@
         <v>89</v>
       </c>
       <c r="B287" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C287" s="2">
-        <v>48.535001999999999</v>
+        <v>48.536290999999999</v>
       </c>
       <c r="D287" s="2">
-        <v>-121.81711</v>
+        <v>-121.81790700000001</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
@@ -4744,13 +4762,13 @@
         <v>89</v>
       </c>
       <c r="B288" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C288" s="2">
-        <v>48.534528000000002</v>
+        <v>48.535459000000003</v>
       </c>
       <c r="D288" s="2">
-        <v>-121.817548</v>
+        <v>-121.817443</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
@@ -4758,13 +4776,13 @@
         <v>89</v>
       </c>
       <c r="B289" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C289" s="2">
-        <v>48.538569000000003</v>
+        <v>48.535274999999999</v>
       </c>
       <c r="D289" s="2">
-        <v>-121.81769799999999</v>
+        <v>-121.81724</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
@@ -4772,13 +4790,13 @@
         <v>89</v>
       </c>
       <c r="B290" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C290" s="2">
-        <v>48.538549000000003</v>
+        <v>48.535026999999999</v>
       </c>
       <c r="D290" s="2">
-        <v>-121.81756</v>
+        <v>-121.817734</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
@@ -4786,69 +4804,69 @@
         <v>89</v>
       </c>
       <c r="B291" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C291" s="2">
-        <v>48.540405</v>
+        <v>48.535001999999999</v>
       </c>
       <c r="D291" s="2">
-        <v>-121.818438</v>
+        <v>-121.81711</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B292">
-        <v>250</v>
-      </c>
-      <c r="C292">
-        <v>48.515582000000002</v>
-      </c>
-      <c r="D292">
-        <v>-122.137444</v>
+      <c r="B292" s="2">
+        <v>246</v>
+      </c>
+      <c r="C292" s="2">
+        <v>48.534528000000002</v>
+      </c>
+      <c r="D292" s="2">
+        <v>-121.817548</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B293">
-        <v>251</v>
-      </c>
-      <c r="C293">
-        <v>48.515664000000001</v>
-      </c>
-      <c r="D293">
-        <v>-122.13708099999999</v>
+      <c r="B293" s="2">
+        <v>247</v>
+      </c>
+      <c r="C293" s="2">
+        <v>48.538569000000003</v>
+      </c>
+      <c r="D293" s="2">
+        <v>-121.81769799999999</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B294">
-        <v>252</v>
-      </c>
-      <c r="C294">
-        <v>48.515645999999997</v>
-      </c>
-      <c r="D294">
-        <v>-122.136931</v>
+      <c r="B294" s="2">
+        <v>248</v>
+      </c>
+      <c r="C294" s="2">
+        <v>48.538549000000003</v>
+      </c>
+      <c r="D294" s="2">
+        <v>-121.81756</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B295">
-        <v>253</v>
-      </c>
-      <c r="C295">
-        <v>48.515706000000002</v>
-      </c>
-      <c r="D295">
-        <v>-122.136735</v>
+      <c r="B295" s="2">
+        <v>249</v>
+      </c>
+      <c r="C295" s="2">
+        <v>48.540405</v>
+      </c>
+      <c r="D295" s="2">
+        <v>-121.818438</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
@@ -4856,13 +4874,13 @@
         <v>89</v>
       </c>
       <c r="B296">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C296">
-        <v>48.523027999999996</v>
+        <v>48.515582000000002</v>
       </c>
       <c r="D296">
-        <v>-122.09708500000001</v>
+        <v>-122.137444</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.35">
@@ -4870,13 +4888,13 @@
         <v>89</v>
       </c>
       <c r="B297">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C297">
-        <v>48.522559000000001</v>
+        <v>48.515664000000001</v>
       </c>
       <c r="D297">
-        <v>-122.104742</v>
+        <v>-122.13708099999999</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
@@ -4884,13 +4902,13 @@
         <v>89</v>
       </c>
       <c r="B298">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C298">
-        <v>48.522629000000002</v>
+        <v>48.515645999999997</v>
       </c>
       <c r="D298">
-        <v>-122.10482500000001</v>
+        <v>-122.136931</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
@@ -4898,13 +4916,13 @@
         <v>89</v>
       </c>
       <c r="B299">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C299">
-        <v>48.527442999999998</v>
+        <v>48.515706000000002</v>
       </c>
       <c r="D299">
-        <v>-121.75259</v>
+        <v>-122.136735</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.35">
@@ -4912,13 +4930,13 @@
         <v>89</v>
       </c>
       <c r="B300">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C300">
-        <v>48.527816000000001</v>
+        <v>48.523027999999996</v>
       </c>
       <c r="D300">
-        <v>-121.75205800000001</v>
+        <v>-122.09708500000001</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
@@ -4926,13 +4944,13 @@
         <v>89</v>
       </c>
       <c r="B301">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C301">
-        <v>48.527971000000001</v>
+        <v>48.522559000000001</v>
       </c>
       <c r="D301">
-        <v>-121.751892</v>
+        <v>-122.104742</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
@@ -4940,13 +4958,13 @@
         <v>89</v>
       </c>
       <c r="B302">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C302">
-        <v>48.533273000000001</v>
+        <v>48.522629000000002</v>
       </c>
       <c r="D302">
-        <v>-121.818251</v>
+        <v>-122.10482500000001</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.35">
@@ -4954,13 +4972,13 @@
         <v>89</v>
       </c>
       <c r="B303">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C303">
-        <v>48.533605000000001</v>
+        <v>48.527442999999998</v>
       </c>
       <c r="D303">
-        <v>-121.818124</v>
+        <v>-121.75259</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.35">
@@ -4968,13 +4986,13 @@
         <v>89</v>
       </c>
       <c r="B304">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C304">
-        <v>48.484695000000002</v>
+        <v>48.527816000000001</v>
       </c>
       <c r="D304">
-        <v>-121.61359899999999</v>
+        <v>-121.75205800000001</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
@@ -4982,13 +5000,13 @@
         <v>89</v>
       </c>
       <c r="B305">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C305">
-        <v>48.484690999999998</v>
+        <v>48.527971000000001</v>
       </c>
       <c r="D305">
-        <v>-121.613738</v>
+        <v>-121.751892</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.35">
@@ -4996,13 +5014,13 @@
         <v>89</v>
       </c>
       <c r="B306">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C306">
-        <v>48.484602000000002</v>
+        <v>48.533273000000001</v>
       </c>
       <c r="D306">
-        <v>-121.614114</v>
+        <v>-121.818251</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
@@ -5010,13 +5028,13 @@
         <v>89</v>
       </c>
       <c r="B307">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C307">
-        <v>48.484623999999997</v>
+        <v>48.533605000000001</v>
       </c>
       <c r="D307">
-        <v>-121.614339</v>
+        <v>-121.818124</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
@@ -5024,13 +5042,13 @@
         <v>89</v>
       </c>
       <c r="B308">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C308">
-        <v>48.480823000000001</v>
+        <v>48.484695000000002</v>
       </c>
       <c r="D308">
-        <v>-121.587673</v>
+        <v>-121.61359899999999</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.35">
@@ -5038,13 +5056,13 @@
         <v>89</v>
       </c>
       <c r="B309">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C309">
-        <v>48.481059999999999</v>
+        <v>48.484690999999998</v>
       </c>
       <c r="D309">
-        <v>-121.587757</v>
+        <v>-121.613738</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
@@ -5052,13 +5070,13 @@
         <v>89</v>
       </c>
       <c r="B310">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C310">
-        <v>48.481234999999998</v>
+        <v>48.484602000000002</v>
       </c>
       <c r="D310">
-        <v>-121.58769599999999</v>
+        <v>-121.614114</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
@@ -5066,13 +5084,13 @@
         <v>89</v>
       </c>
       <c r="B311">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C311">
-        <v>48.481409999999997</v>
+        <v>48.484623999999997</v>
       </c>
       <c r="D311">
-        <v>-121.587661</v>
+        <v>-121.614339</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.35">
@@ -5080,13 +5098,13 @@
         <v>89</v>
       </c>
       <c r="B312">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C312">
-        <v>48.481679</v>
+        <v>48.480823000000001</v>
       </c>
       <c r="D312">
-        <v>-121.58765200000001</v>
+        <v>-121.587673</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.35">
@@ -5094,27 +5112,27 @@
         <v>89</v>
       </c>
       <c r="B313">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C313">
-        <v>48.481814999999997</v>
+        <v>48.481059999999999</v>
       </c>
       <c r="D313">
-        <v>-121.587641</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A314" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B314">
-        <v>272</v>
-      </c>
-      <c r="C314">
-        <v>48.503050999999999</v>
-      </c>
-      <c r="D314">
-        <v>-121.718833</v>
+        <v>-121.587757</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A314" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B314" s="11">
+        <v>268</v>
+      </c>
+      <c r="C314" s="11">
+        <v>48.481234999999998</v>
+      </c>
+      <c r="D314" s="11">
+        <v>-121.58769599999999</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.35">
@@ -5122,27 +5140,27 @@
         <v>89</v>
       </c>
       <c r="B315">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C315">
-        <v>48.503205000000001</v>
+        <v>48.481409999999997</v>
       </c>
       <c r="D315">
-        <v>-121.718977</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A316" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B316">
-        <v>274</v>
-      </c>
-      <c r="C316">
-        <v>48.487403999999998</v>
-      </c>
-      <c r="D316">
-        <v>-121.64868800000001</v>
+        <v>-121.587661</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B316" s="11">
+        <v>270</v>
+      </c>
+      <c r="C316" s="11">
+        <v>48.481679</v>
+      </c>
+      <c r="D316" s="11">
+        <v>-121.58765200000001</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
@@ -5150,13 +5168,13 @@
         <v>89</v>
       </c>
       <c r="B317">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C317">
-        <v>48.48762</v>
+        <v>48.481814999999997</v>
       </c>
       <c r="D317">
-        <v>-121.649019</v>
+        <v>-121.587641</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.35">
@@ -5164,13 +5182,13 @@
         <v>89</v>
       </c>
       <c r="B318">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C318">
-        <v>48.487774000000002</v>
+        <v>48.503050999999999</v>
       </c>
       <c r="D318">
-        <v>-121.64917800000001</v>
+        <v>-121.718833</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
@@ -5178,13 +5196,13 @@
         <v>89</v>
       </c>
       <c r="B319">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C319">
-        <v>48.487994</v>
+        <v>48.503205000000001</v>
       </c>
       <c r="D319">
-        <v>-121.649433</v>
+        <v>-121.718977</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
@@ -5192,13 +5210,13 @@
         <v>89</v>
       </c>
       <c r="B320">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C320">
-        <v>48.488106999999999</v>
+        <v>48.487403999999998</v>
       </c>
       <c r="D320">
-        <v>-121.649393</v>
+        <v>-121.64868800000001</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.35">
@@ -5206,13 +5224,13 @@
         <v>89</v>
       </c>
       <c r="B321">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C321">
-        <v>48.488177</v>
+        <v>48.48762</v>
       </c>
       <c r="D321">
-        <v>-121.649573</v>
+        <v>-121.649019</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.35">
@@ -5220,13 +5238,13 @@
         <v>89</v>
       </c>
       <c r="B322">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C322">
-        <v>48.488235000000003</v>
+        <v>48.487774000000002</v>
       </c>
       <c r="D322">
-        <v>-121.649624</v>
+        <v>-121.64917800000001</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
@@ -5234,13 +5252,13 @@
         <v>89</v>
       </c>
       <c r="B323">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C323">
-        <v>48.488337000000001</v>
+        <v>48.487994</v>
       </c>
       <c r="D323">
-        <v>-121.64959</v>
+        <v>-121.649433</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.35">
@@ -5248,13 +5266,13 @@
         <v>89</v>
       </c>
       <c r="B324">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C324">
-        <v>48.488163999999998</v>
+        <v>48.488106999999999</v>
       </c>
       <c r="D324">
-        <v>-121.649608</v>
+        <v>-121.649393</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.35">
@@ -5262,13 +5280,13 @@
         <v>89</v>
       </c>
       <c r="B325">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C325">
-        <v>48.488348000000002</v>
+        <v>48.488177</v>
       </c>
       <c r="D325">
-        <v>-121.64962199999999</v>
+        <v>-121.649573</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
@@ -5276,13 +5294,13 @@
         <v>89</v>
       </c>
       <c r="B326">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C326">
-        <v>48.488539000000003</v>
+        <v>48.488235000000003</v>
       </c>
       <c r="D326">
-        <v>-121.649877</v>
+        <v>-121.649624</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.35">
@@ -5290,13 +5308,13 @@
         <v>89</v>
       </c>
       <c r="B327">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C327">
-        <v>48.488624999999999</v>
+        <v>48.488337000000001</v>
       </c>
       <c r="D327">
-        <v>-121.65013500000001</v>
+        <v>-121.64959</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.35">
@@ -5304,13 +5322,13 @@
         <v>89</v>
       </c>
       <c r="B328">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C328">
-        <v>48.503030000000003</v>
+        <v>48.488163999999998</v>
       </c>
       <c r="D328">
-        <v>-121.718829</v>
+        <v>-121.649608</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
@@ -5318,13 +5336,13 @@
         <v>89</v>
       </c>
       <c r="B329">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C329">
-        <v>48.527329000000002</v>
+        <v>48.488348000000002</v>
       </c>
       <c r="D329">
-        <v>-121.749999</v>
+        <v>-121.64962199999999</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.35">
@@ -5332,13 +5350,13 @@
         <v>89</v>
       </c>
       <c r="B330">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C330">
-        <v>48.527717000000003</v>
+        <v>48.488539000000003</v>
       </c>
       <c r="D330">
-        <v>-121.749509</v>
+        <v>-121.649877</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.35">
@@ -5346,13 +5364,13 @@
         <v>89</v>
       </c>
       <c r="B331">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C331">
-        <v>48.527937000000001</v>
+        <v>48.488624999999999</v>
       </c>
       <c r="D331">
-        <v>-121.74912399999999</v>
+        <v>-121.65013500000001</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
@@ -5360,13 +5378,13 @@
         <v>89</v>
       </c>
       <c r="B332">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C332">
-        <v>48.528343999999997</v>
+        <v>48.503030000000003</v>
       </c>
       <c r="D332">
-        <v>-121.74866299999999</v>
+        <v>-121.718829</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.35">
@@ -5374,27 +5392,27 @@
         <v>89</v>
       </c>
       <c r="B333">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C333">
-        <v>48.528528999999999</v>
+        <v>48.527329000000002</v>
       </c>
       <c r="D333">
-        <v>-121.74753200000001</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A334" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B334" s="11">
-        <v>292</v>
-      </c>
-      <c r="C334" s="11">
-        <v>48.472003999999998</v>
-      </c>
-      <c r="D334" s="11">
-        <v>-122.285893</v>
+        <v>-121.749999</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A334" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B334">
+        <v>288</v>
+      </c>
+      <c r="C334">
+        <v>48.527717000000003</v>
+      </c>
+      <c r="D334">
+        <v>-121.749509</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
@@ -5402,13 +5420,13 @@
         <v>89</v>
       </c>
       <c r="B335">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C335">
-        <v>48.478256999999999</v>
+        <v>48.527937000000001</v>
       </c>
       <c r="D335">
-        <v>-122.275356</v>
+        <v>-121.74912399999999</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.35">
@@ -5416,13 +5434,13 @@
         <v>89</v>
       </c>
       <c r="B336">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C336">
-        <v>48.493402000000003</v>
+        <v>48.528343999999997</v>
       </c>
       <c r="D336">
-        <v>-122.19202799999999</v>
+        <v>-121.74866299999999</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.35">
@@ -5430,27 +5448,27 @@
         <v>89</v>
       </c>
       <c r="B337">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C337">
-        <v>48.488377</v>
+        <v>48.528528999999999</v>
       </c>
       <c r="D337">
-        <v>-122.16024299999999</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A338" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B338">
-        <v>296</v>
-      </c>
-      <c r="C338">
-        <v>48.488450999999998</v>
-      </c>
-      <c r="D338">
-        <v>-122.159278</v>
+        <v>-121.74753200000001</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A338" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B338" s="11">
+        <v>292</v>
+      </c>
+      <c r="C338" s="11">
+        <v>48.472003999999998</v>
+      </c>
+      <c r="D338" s="11">
+        <v>-122.285893</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.35">
@@ -5458,13 +5476,13 @@
         <v>89</v>
       </c>
       <c r="B339">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C339">
-        <v>48.512653</v>
+        <v>48.478256999999999</v>
       </c>
       <c r="D339">
-        <v>-122.080733</v>
+        <v>-122.275356</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.35">
@@ -5472,13 +5490,13 @@
         <v>89</v>
       </c>
       <c r="B340">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C340">
-        <v>48.527771999999999</v>
+        <v>48.493402000000003</v>
       </c>
       <c r="D340">
-        <v>-121.74947899999999</v>
+        <v>-122.19202799999999</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
@@ -5486,13 +5504,13 @@
         <v>89</v>
       </c>
       <c r="B341">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C341">
-        <v>48.528429000000003</v>
+        <v>48.488377</v>
       </c>
       <c r="D341">
-        <v>-121.747694</v>
+        <v>-122.16024299999999</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.35">
@@ -5500,13 +5518,13 @@
         <v>89</v>
       </c>
       <c r="B342">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C342">
-        <v>48.528016000000001</v>
+        <v>48.488450999999998</v>
       </c>
       <c r="D342">
-        <v>-121.749303</v>
+        <v>-122.159278</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
@@ -5514,13 +5532,13 @@
         <v>89</v>
       </c>
       <c r="B343">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C343">
-        <v>48.528185000000001</v>
+        <v>48.512653</v>
       </c>
       <c r="D343">
-        <v>-121.74846100000001</v>
+        <v>-122.080733</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
@@ -5528,13 +5546,13 @@
         <v>89</v>
       </c>
       <c r="B344">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C344">
-        <v>48.528381000000003</v>
+        <v>48.527771999999999</v>
       </c>
       <c r="D344">
-        <v>-121.748192</v>
+        <v>-121.74947899999999</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
@@ -5542,13 +5560,13 @@
         <v>89</v>
       </c>
       <c r="B345">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C345">
-        <v>48.528146999999997</v>
+        <v>48.528429000000003</v>
       </c>
       <c r="D345">
-        <v>-121.748824</v>
+        <v>-121.747694</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
@@ -5556,13 +5574,13 @@
         <v>89</v>
       </c>
       <c r="B346">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C346">
-        <v>48.513182</v>
+        <v>48.528016000000001</v>
       </c>
       <c r="D346">
-        <v>-121.710078</v>
+        <v>-121.749303</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
@@ -5570,13 +5588,13 @@
         <v>89</v>
       </c>
       <c r="B347">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C347">
-        <v>48.513052000000002</v>
+        <v>48.528185000000001</v>
       </c>
       <c r="D347">
-        <v>-121.709778</v>
+        <v>-121.74846100000001</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
@@ -5584,13 +5602,13 @@
         <v>89</v>
       </c>
       <c r="B348">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C348">
-        <v>48.493481000000003</v>
+        <v>48.528381000000003</v>
       </c>
       <c r="D348">
-        <v>-121.53885200000001</v>
+        <v>-121.748192</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.35">
@@ -5598,13 +5616,13 @@
         <v>89</v>
       </c>
       <c r="B349">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C349">
-        <v>48.493257999999997</v>
+        <v>48.528146999999997</v>
       </c>
       <c r="D349">
-        <v>-121.53928500000001</v>
+        <v>-121.748824</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
@@ -5612,13 +5630,13 @@
         <v>89</v>
       </c>
       <c r="B350">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C350">
-        <v>48.493205000000003</v>
+        <v>48.513182</v>
       </c>
       <c r="D350">
-        <v>-121.539917</v>
+        <v>-121.710078</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.35">
@@ -5626,13 +5644,13 @@
         <v>89</v>
       </c>
       <c r="B351">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C351">
-        <v>48.492963000000003</v>
+        <v>48.513052000000002</v>
       </c>
       <c r="D351">
-        <v>-121.54064</v>
+        <v>-121.709778</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
@@ -5640,69 +5658,69 @@
         <v>89</v>
       </c>
       <c r="B352">
+        <v>306</v>
+      </c>
+      <c r="C352">
+        <v>48.493481000000003</v>
+      </c>
+      <c r="D352">
+        <v>-121.53885200000001</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A353" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B353">
+        <v>307</v>
+      </c>
+      <c r="C353">
+        <v>48.493257999999997</v>
+      </c>
+      <c r="D353">
+        <v>-121.53928500000001</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A354" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B354">
+        <v>308</v>
+      </c>
+      <c r="C354">
+        <v>48.493205000000003</v>
+      </c>
+      <c r="D354">
+        <v>-121.539917</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A355" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B355">
+        <v>309</v>
+      </c>
+      <c r="C355">
+        <v>48.492963000000003</v>
+      </c>
+      <c r="D355">
+        <v>-121.54064</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A356" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B356">
         <v>310</v>
       </c>
-      <c r="C352">
+      <c r="C356">
         <v>48.493471999999997</v>
       </c>
-      <c r="D352">
+      <c r="D356">
         <v>-121.53907599999999</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A353" t="s">
-        <v>89</v>
-      </c>
-      <c r="B353">
-        <v>313</v>
-      </c>
-      <c r="C353">
-        <v>48.513010999999999</v>
-      </c>
-      <c r="D353">
-        <v>-121.70989400000001</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A354" t="s">
-        <v>89</v>
-      </c>
-      <c r="B354">
-        <v>314</v>
-      </c>
-      <c r="C354">
-        <v>48.512836</v>
-      </c>
-      <c r="D354">
-        <v>-121.709947</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A355" t="s">
-        <v>89</v>
-      </c>
-      <c r="B355">
-        <v>315</v>
-      </c>
-      <c r="C355">
-        <v>48.512669000000002</v>
-      </c>
-      <c r="D355">
-        <v>-121.71006199999999</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A356" t="s">
-        <v>89</v>
-      </c>
-      <c r="B356">
-        <v>316</v>
-      </c>
-      <c r="C356">
-        <v>48.512484999999998</v>
-      </c>
-      <c r="D356">
-        <v>-121.710112</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.35">
@@ -5710,13 +5728,13 @@
         <v>89</v>
       </c>
       <c r="B357">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C357">
-        <v>48.512345000000003</v>
+        <v>48.513010999999999</v>
       </c>
       <c r="D357">
-        <v>-121.710182</v>
+        <v>-121.70989400000001</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.35">
@@ -5724,13 +5742,13 @@
         <v>89</v>
       </c>
       <c r="B358">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C358">
-        <v>48.512281000000002</v>
+        <v>48.512836</v>
       </c>
       <c r="D358">
-        <v>-121.71007299999999</v>
+        <v>-121.709947</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
@@ -5738,13 +5756,13 @@
         <v>89</v>
       </c>
       <c r="B359">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C359">
-        <v>48.512239000000001</v>
+        <v>48.512669000000002</v>
       </c>
       <c r="D359">
-        <v>-121.710258</v>
+        <v>-121.71006199999999</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.35">
@@ -5752,13 +5770,13 @@
         <v>89</v>
       </c>
       <c r="B360">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C360">
-        <v>48.513035000000002</v>
+        <v>48.512484999999998</v>
       </c>
       <c r="D360">
-        <v>-121.709914</v>
+        <v>-121.710112</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
@@ -5766,13 +5784,13 @@
         <v>89</v>
       </c>
       <c r="B361">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C361">
-        <v>48.486179</v>
+        <v>48.512345000000003</v>
       </c>
       <c r="D361">
-        <v>-121.59041000000001</v>
+        <v>-121.710182</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
@@ -5780,13 +5798,13 @@
         <v>89</v>
       </c>
       <c r="B362">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C362">
-        <v>48.486196</v>
+        <v>48.512281000000002</v>
       </c>
       <c r="D362">
-        <v>-121.59023999999999</v>
+        <v>-121.71007299999999</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.35">
@@ -5794,13 +5812,13 @@
         <v>89</v>
       </c>
       <c r="B363">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C363">
-        <v>48.486207</v>
+        <v>48.512239000000001</v>
       </c>
       <c r="D363">
-        <v>-121.590363</v>
+        <v>-121.710258</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.35">
@@ -5808,13 +5826,13 @@
         <v>89</v>
       </c>
       <c r="B364">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C364">
-        <v>48.486212999999999</v>
+        <v>48.513035000000002</v>
       </c>
       <c r="D364">
-        <v>-121.59026</v>
+        <v>-121.709914</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
@@ -5822,13 +5840,13 @@
         <v>89</v>
       </c>
       <c r="B365">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C365">
-        <v>48.486248000000003</v>
+        <v>48.486179</v>
       </c>
       <c r="D365">
-        <v>-121.59023000000001</v>
+        <v>-121.59041000000001</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.35">
@@ -5836,13 +5854,13 @@
         <v>89</v>
       </c>
       <c r="B366">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C366">
-        <v>48.486212999999999</v>
+        <v>48.486196</v>
       </c>
       <c r="D366">
-        <v>-121.59018500000001</v>
+        <v>-121.59023999999999</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.35">
@@ -5850,13 +5868,13 @@
         <v>89</v>
       </c>
       <c r="B367">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C367">
-        <v>48.486196</v>
+        <v>48.486207</v>
       </c>
       <c r="D367">
-        <v>-121.590107</v>
+        <v>-121.590363</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
@@ -5864,13 +5882,13 @@
         <v>89</v>
       </c>
       <c r="B368">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C368">
-        <v>48.486215999999999</v>
+        <v>48.486212999999999</v>
       </c>
       <c r="D368">
-        <v>-121.590074</v>
+        <v>-121.59026</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.35">
@@ -5878,13 +5896,13 @@
         <v>89</v>
       </c>
       <c r="B369">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C369">
-        <v>48.486221</v>
+        <v>48.486248000000003</v>
       </c>
       <c r="D369">
-        <v>-121.589996</v>
+        <v>-121.59023000000001</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.35">
@@ -5892,13 +5910,13 @@
         <v>89</v>
       </c>
       <c r="B370">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C370">
-        <v>48.486176</v>
+        <v>48.486212999999999</v>
       </c>
       <c r="D370">
-        <v>-121.589918</v>
+        <v>-121.59018500000001</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
@@ -5906,13 +5924,13 @@
         <v>89</v>
       </c>
       <c r="B371">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C371">
-        <v>48.486230999999997</v>
+        <v>48.486196</v>
       </c>
       <c r="D371">
-        <v>-121.589911</v>
+        <v>-121.590107</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.35">
@@ -5920,13 +5938,13 @@
         <v>89</v>
       </c>
       <c r="B372">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C372">
-        <v>48.486190999999998</v>
+        <v>48.486215999999999</v>
       </c>
       <c r="D372">
-        <v>-121.589794</v>
+        <v>-121.590074</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.35">
@@ -5934,13 +5952,13 @@
         <v>89</v>
       </c>
       <c r="B373">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C373">
-        <v>48.486119000000002</v>
+        <v>48.486221</v>
       </c>
       <c r="D373">
-        <v>-121.58977899999999</v>
+        <v>-121.589996</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
@@ -5948,13 +5966,13 @@
         <v>89</v>
       </c>
       <c r="B374">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C374">
-        <v>48.486105999999999</v>
+        <v>48.486176</v>
       </c>
       <c r="D374">
-        <v>-121.589733</v>
+        <v>-121.589918</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.35">
@@ -5962,13 +5980,13 @@
         <v>89</v>
       </c>
       <c r="B375">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C375">
-        <v>48.486192000000003</v>
+        <v>48.486230999999997</v>
       </c>
       <c r="D375">
-        <v>-121.589617</v>
+        <v>-121.589911</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.35">
@@ -5976,13 +5994,13 @@
         <v>89</v>
       </c>
       <c r="B376">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C376">
-        <v>48.486246999999999</v>
+        <v>48.486190999999998</v>
       </c>
       <c r="D376">
-        <v>-121.589564</v>
+        <v>-121.589794</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
@@ -5990,13 +6008,13 @@
         <v>89</v>
       </c>
       <c r="B377">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C377">
-        <v>48.486229000000002</v>
+        <v>48.486119000000002</v>
       </c>
       <c r="D377">
-        <v>-121.589558</v>
+        <v>-121.58977899999999</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.35">
@@ -6004,13 +6022,13 @@
         <v>89</v>
       </c>
       <c r="B378">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C378">
-        <v>48.486170999999999</v>
+        <v>48.486105999999999</v>
       </c>
       <c r="D378">
-        <v>-121.58953200000001</v>
+        <v>-121.589733</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
@@ -6018,13 +6036,13 @@
         <v>89</v>
       </c>
       <c r="B379">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C379">
-        <v>48.350872000000003</v>
+        <v>48.486192000000003</v>
       </c>
       <c r="D379">
-        <v>-121.55139200000001</v>
+        <v>-121.589617</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
@@ -6032,13 +6050,13 @@
         <v>89</v>
       </c>
       <c r="B380">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C380">
-        <v>48.350879999999997</v>
+        <v>48.486246999999999</v>
       </c>
       <c r="D380">
-        <v>-121.551591</v>
+        <v>-121.589564</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.35">
@@ -6046,13 +6064,13 @@
         <v>89</v>
       </c>
       <c r="B381">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C381">
-        <v>48.351145000000002</v>
+        <v>48.486229000000002</v>
       </c>
       <c r="D381">
-        <v>-121.551526</v>
+        <v>-121.589558</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
@@ -6060,27 +6078,27 @@
         <v>89</v>
       </c>
       <c r="B382">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C382">
-        <v>48.351019999999998</v>
+        <v>48.486170999999999</v>
       </c>
       <c r="D382">
-        <v>-121.55129100000001</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A383" t="s">
-        <v>89</v>
-      </c>
-      <c r="B383">
-        <v>343</v>
-      </c>
-      <c r="C383">
-        <v>48.351008999999998</v>
-      </c>
-      <c r="D383">
-        <v>-121.551604</v>
+        <v>-121.58953200000001</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A383" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B383" s="11">
+        <v>339</v>
+      </c>
+      <c r="C383" s="11">
+        <v>48.350872000000003</v>
+      </c>
+      <c r="D383" s="11">
+        <v>-121.55139200000001</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.35">
@@ -6088,13 +6106,13 @@
         <v>89</v>
       </c>
       <c r="B384">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C384">
-        <v>48.351562000000001</v>
+        <v>48.350879999999997</v>
       </c>
       <c r="D384">
-        <v>-121.551508</v>
+        <v>-121.551591</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.35">
@@ -6102,13 +6120,13 @@
         <v>89</v>
       </c>
       <c r="B385">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C385">
-        <v>48.351461</v>
+        <v>48.351145000000002</v>
       </c>
       <c r="D385">
-        <v>-121.55141399999999</v>
+        <v>-121.551526</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
@@ -6116,27 +6134,27 @@
         <v>89</v>
       </c>
       <c r="B386">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C386">
-        <v>48.351630999999998</v>
+        <v>48.351019999999998</v>
       </c>
       <c r="D386">
-        <v>-121.55165700000001</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A387" t="s">
-        <v>89</v>
-      </c>
-      <c r="B387">
-        <v>347</v>
-      </c>
-      <c r="C387">
-        <v>48.352632999999997</v>
-      </c>
-      <c r="D387">
-        <v>-121.552127</v>
+        <v>-121.55129100000001</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A387" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B387" s="11">
+        <v>343</v>
+      </c>
+      <c r="C387" s="11">
+        <v>48.351008999999998</v>
+      </c>
+      <c r="D387" s="11">
+        <v>-121.551604</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.35">
@@ -6144,13 +6162,13 @@
         <v>89</v>
       </c>
       <c r="B388">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C388">
-        <v>48.353017999999999</v>
+        <v>48.351562000000001</v>
       </c>
       <c r="D388">
-        <v>-121.55206099999999</v>
+        <v>-121.551508</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
@@ -6158,13 +6176,13 @@
         <v>89</v>
       </c>
       <c r="B389">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C389">
-        <v>48.353065999999998</v>
+        <v>48.351461</v>
       </c>
       <c r="D389">
-        <v>-121.552251</v>
+        <v>-121.55141399999999</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.35">
@@ -6172,13 +6190,13 @@
         <v>89</v>
       </c>
       <c r="B390">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C390">
-        <v>48.353065999999998</v>
+        <v>48.351630999999998</v>
       </c>
       <c r="D390">
-        <v>-121.55225299999999</v>
+        <v>-121.55165700000001</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.35">
@@ -6186,27 +6204,27 @@
         <v>89</v>
       </c>
       <c r="B391">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C391">
-        <v>48.353256999999999</v>
+        <v>48.352632999999997</v>
       </c>
       <c r="D391">
-        <v>-121.55217</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A392" t="s">
-        <v>89</v>
-      </c>
-      <c r="B392">
-        <v>352</v>
-      </c>
-      <c r="C392">
-        <v>48.353316</v>
-      </c>
-      <c r="D392">
-        <v>-121.552154</v>
+        <v>-121.552127</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A392" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B392" s="11">
+        <v>348</v>
+      </c>
+      <c r="C392" s="11">
+        <v>48.353017999999999</v>
+      </c>
+      <c r="D392" s="11">
+        <v>-121.55206099999999</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.35">
@@ -6214,13 +6232,13 @@
         <v>89</v>
       </c>
       <c r="B393">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C393">
-        <v>48.353304999999999</v>
+        <v>48.353065999999998</v>
       </c>
       <c r="D393">
-        <v>-121.552136</v>
+        <v>-121.552251</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.35">
@@ -6228,13 +6246,13 @@
         <v>89</v>
       </c>
       <c r="B394">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C394">
-        <v>48.353485999999997</v>
+        <v>48.353065999999998</v>
       </c>
       <c r="D394">
-        <v>-121.552497</v>
+        <v>-121.55225299999999</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
@@ -6242,13 +6260,13 @@
         <v>89</v>
       </c>
       <c r="B395">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C395">
-        <v>48.353411000000001</v>
+        <v>48.353256999999999</v>
       </c>
       <c r="D395">
-        <v>-121.552616</v>
+        <v>-121.55217</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.35">
@@ -6256,13 +6274,13 @@
         <v>89</v>
       </c>
       <c r="B396">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C396">
-        <v>48.353549000000001</v>
+        <v>48.353316</v>
       </c>
       <c r="D396">
-        <v>-121.552482</v>
+        <v>-121.552154</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
@@ -6270,13 +6288,13 @@
         <v>89</v>
       </c>
       <c r="B397">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C397">
-        <v>48.353551000000003</v>
+        <v>48.353304999999999</v>
       </c>
       <c r="D397">
-        <v>-121.55244</v>
+        <v>-121.552136</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
@@ -6284,13 +6302,13 @@
         <v>89</v>
       </c>
       <c r="B398">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C398">
-        <v>48.473525000000002</v>
+        <v>48.353485999999997</v>
       </c>
       <c r="D398">
-        <v>-121.557974</v>
+        <v>-121.552497</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.35">
@@ -6298,12 +6316,68 @@
         <v>89</v>
       </c>
       <c r="B399">
+        <v>355</v>
+      </c>
+      <c r="C399">
+        <v>48.353411000000001</v>
+      </c>
+      <c r="D399">
+        <v>-121.552616</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A400" t="s">
+        <v>89</v>
+      </c>
+      <c r="B400">
+        <v>356</v>
+      </c>
+      <c r="C400">
+        <v>48.353549000000001</v>
+      </c>
+      <c r="D400">
+        <v>-121.552482</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A401" t="s">
+        <v>89</v>
+      </c>
+      <c r="B401">
+        <v>357</v>
+      </c>
+      <c r="C401">
+        <v>48.353551000000003</v>
+      </c>
+      <c r="D401">
+        <v>-121.55244</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A402" t="s">
+        <v>89</v>
+      </c>
+      <c r="B402">
+        <v>358</v>
+      </c>
+      <c r="C402">
+        <v>48.473525000000002</v>
+      </c>
+      <c r="D402">
+        <v>-121.557974</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A403" t="s">
+        <v>89</v>
+      </c>
+      <c r="B403">
         <v>359</v>
       </c>
-      <c r="C399">
+      <c r="C403">
         <v>48.473289999999999</v>
       </c>
-      <c r="D399">
+      <c r="D403">
         <v>-121.558246</v>
       </c>
     </row>

--- a/Reports/Seasonal_Habitat_Landmark_Waypoints_2021_Final.xlsx
+++ b/Reports/Seasonal_Habitat_Landmark_Waypoints_2021_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Desktop\Box Sync\Thesis\Chinook Seasonal Floodplain Habitat\GitHub\seasonal-floodplains\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B060963-F401-4827-8D45-159BF3C0EB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93DE4BF-BAE5-4AE4-8730-EF9077DB4FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5F03E6B5-5464-43F8-AED9-513F851700B6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="95">
   <si>
     <t>Latitude</t>
   </si>
@@ -373,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -400,6 +400,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -716,11 +719,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF9064F-0344-4C21-823B-7B2564E6B2DB}">
-  <dimension ref="A1:G403"/>
+  <dimension ref="A1:G407"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F226" sqref="F226"/>
+      <pane ySplit="1" topLeftCell="A395" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A404" sqref="A404:XFD407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2433,17 +2436,17 @@
         <v>-121.575819</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B122" s="3">
+    <row r="122" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B122" s="10">
         <v>38</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122" s="9">
         <v>48.479380999999997</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122" s="9">
         <v>-121.57585</v>
       </c>
     </row>
@@ -4113,17 +4116,17 @@
         <v>-121.880021</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A242" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B242" s="2">
+    <row r="242" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A242" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B242" s="9">
         <v>195</v>
       </c>
-      <c r="C242" s="2">
+      <c r="C242" s="9">
         <v>48.515165000000003</v>
       </c>
-      <c r="D242" s="2">
+      <c r="D242" s="9">
         <v>-121.88000599999999</v>
       </c>
     </row>
@@ -5653,59 +5656,59 @@
         <v>-121.709778</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A352" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B352">
+    <row r="352" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A352" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B352" s="11">
         <v>306</v>
       </c>
-      <c r="C352">
+      <c r="C352" s="11">
         <v>48.493481000000003</v>
       </c>
-      <c r="D352">
+      <c r="D352" s="11">
         <v>-121.53885200000001</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A353" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B353">
+    <row r="353" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A353" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B353" s="11">
         <v>307</v>
       </c>
-      <c r="C353">
+      <c r="C353" s="11">
         <v>48.493257999999997</v>
       </c>
-      <c r="D353">
+      <c r="D353" s="11">
         <v>-121.53928500000001</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A354" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B354">
+    <row r="354" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B354" s="11">
         <v>308</v>
       </c>
-      <c r="C354">
+      <c r="C354" s="11">
         <v>48.493205000000003</v>
       </c>
-      <c r="D354">
+      <c r="D354" s="11">
         <v>-121.539917</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A355" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B355">
+    <row r="355" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A355" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B355" s="11">
         <v>309</v>
       </c>
-      <c r="C355">
+      <c r="C355" s="11">
         <v>48.492963000000003</v>
       </c>
-      <c r="D355">
+      <c r="D355" s="11">
         <v>-121.54064</v>
       </c>
     </row>
@@ -6379,6 +6382,62 @@
       </c>
       <c r="D403">
         <v>-121.558246</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A404" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B404" s="14">
+        <v>436</v>
+      </c>
+      <c r="C404" s="9">
+        <v>48.494250000000001</v>
+      </c>
+      <c r="D404" s="9">
+        <v>-121.53421</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A405" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B405" s="14">
+        <v>437</v>
+      </c>
+      <c r="C405" s="9">
+        <v>48.494239999999998</v>
+      </c>
+      <c r="D405" s="9">
+        <v>-121.53449000000001</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A406" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B406" s="14">
+        <v>438</v>
+      </c>
+      <c r="C406" s="9">
+        <v>48.494059999999998</v>
+      </c>
+      <c r="D406" s="9">
+        <v>-121.53514</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A407" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B407" s="14">
+        <v>439</v>
+      </c>
+      <c r="C407" s="9">
+        <v>48.493679999999998</v>
+      </c>
+      <c r="D407" s="9">
+        <v>-121.53740000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Seasonal_Habitat_Landmark_Waypoints_2021_Final.xlsx
+++ b/Reports/Seasonal_Habitat_Landmark_Waypoints_2021_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Desktop\Box Sync\Thesis\Chinook Seasonal Floodplain Habitat\GitHub\seasonal-floodplains\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93DE4BF-BAE5-4AE4-8730-EF9077DB4FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F63580-4916-46C9-B7BD-F254F9D57248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5F03E6B5-5464-43F8-AED9-513F851700B6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="95">
   <si>
     <t>Latitude</t>
   </si>
@@ -373,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -405,6 +405,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,11 +723,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF9064F-0344-4C21-823B-7B2564E6B2DB}">
-  <dimension ref="A1:G407"/>
+  <dimension ref="A1:G408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A395" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A404" sqref="A404:XFD407"/>
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A190" sqref="A190:XFD190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1876,17 +1880,17 @@
         <v>-121.46907</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B82" s="5" t="s">
+    <row r="82" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="16">
         <v>48.497661000000001</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="16">
         <v>-121.46907299999999</v>
       </c>
     </row>
@@ -1918,17 +1922,17 @@
         <v>-121.468504</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85" s="5" t="s">
+    <row r="85" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="16">
         <v>48.497036999999999</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="16">
         <v>-121.468013</v>
       </c>
     </row>
@@ -3388,18 +3392,18 @@
         <v>-121.546019</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A190" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B190" s="3">
-        <v>138</v>
-      </c>
-      <c r="C190" s="2">
-        <v>48.353960000000001</v>
-      </c>
-      <c r="D190" s="2">
-        <v>-121.55264</v>
+    <row r="190" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B190" s="10">
+        <v>135</v>
+      </c>
+      <c r="C190" s="9">
+        <v>48.384366999999997</v>
+      </c>
+      <c r="D190" s="9">
+        <v>-121.560486</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
@@ -3407,13 +3411,13 @@
         <v>89</v>
       </c>
       <c r="B191" s="3">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C191" s="2">
-        <v>48.353765000000003</v>
+        <v>48.353960000000001</v>
       </c>
       <c r="D191" s="2">
-        <v>-121.552618</v>
+        <v>-121.55264</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
@@ -3421,13 +3425,13 @@
         <v>89</v>
       </c>
       <c r="B192" s="3">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C192" s="2">
-        <v>48.353721</v>
+        <v>48.353765000000003</v>
       </c>
       <c r="D192" s="2">
-        <v>-121.55254499999999</v>
+        <v>-121.552618</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
@@ -3435,13 +3439,13 @@
         <v>89</v>
       </c>
       <c r="B193" s="3">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C193" s="2">
-        <v>48.353634</v>
+        <v>48.353721</v>
       </c>
       <c r="D193" s="2">
-        <v>-121.552571</v>
+        <v>-121.55254499999999</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
@@ -3449,13 +3453,13 @@
         <v>89</v>
       </c>
       <c r="B194" s="3">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C194" s="2">
-        <v>48.353524</v>
+        <v>48.353634</v>
       </c>
       <c r="D194" s="2">
-        <v>-121.552351</v>
+        <v>-121.552571</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
@@ -3463,13 +3467,13 @@
         <v>89</v>
       </c>
       <c r="B195" s="3">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C195" s="2">
-        <v>48.353259999999999</v>
+        <v>48.353524</v>
       </c>
       <c r="D195" s="2">
-        <v>-121.55230299999999</v>
+        <v>-121.552351</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
@@ -3477,27 +3481,27 @@
         <v>89</v>
       </c>
       <c r="B196" s="3">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C196" s="2">
-        <v>48.352997999999999</v>
+        <v>48.353259999999999</v>
       </c>
       <c r="D196" s="2">
-        <v>-121.552277</v>
+        <v>-121.55230299999999</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B197" s="2">
-        <v>145</v>
+      <c r="B197" s="3">
+        <v>144</v>
       </c>
       <c r="C197" s="2">
-        <v>48.497284999999998</v>
+        <v>48.352997999999999</v>
       </c>
       <c r="D197" s="2">
-        <v>-121.465881</v>
+        <v>-121.552277</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
@@ -3505,13 +3509,13 @@
         <v>89</v>
       </c>
       <c r="B198" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C198" s="2">
-        <v>48.497262999999997</v>
+        <v>48.497284999999998</v>
       </c>
       <c r="D198" s="2">
-        <v>-121.465891</v>
+        <v>-121.465881</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
@@ -3519,13 +3523,13 @@
         <v>89</v>
       </c>
       <c r="B199" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C199" s="2">
-        <v>48.497315</v>
+        <v>48.497262999999997</v>
       </c>
       <c r="D199" s="2">
-        <v>-121.46591600000001</v>
+        <v>-121.465891</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
@@ -3533,13 +3537,13 @@
         <v>89</v>
       </c>
       <c r="B200" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C200" s="2">
-        <v>48.497323000000002</v>
+        <v>48.497315</v>
       </c>
       <c r="D200" s="2">
-        <v>-121.465946</v>
+        <v>-121.46591600000001</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
@@ -3547,13 +3551,13 @@
         <v>89</v>
       </c>
       <c r="B201" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C201" s="2">
-        <v>48.497422</v>
+        <v>48.497323000000002</v>
       </c>
       <c r="D201" s="2">
-        <v>-121.465974</v>
+        <v>-121.465946</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
@@ -3561,13 +3565,13 @@
         <v>89</v>
       </c>
       <c r="B202" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C202" s="2">
-        <v>48.497408</v>
+        <v>48.497422</v>
       </c>
       <c r="D202" s="2">
-        <v>-121.465997</v>
+        <v>-121.465974</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
@@ -3575,27 +3579,27 @@
         <v>89</v>
       </c>
       <c r="B203" s="2">
+        <v>150</v>
+      </c>
+      <c r="C203" s="2">
+        <v>48.497408</v>
+      </c>
+      <c r="D203" s="2">
+        <v>-121.465997</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B204" s="9">
         <v>151</v>
       </c>
-      <c r="C203" s="2">
+      <c r="C204" s="9">
         <v>48.497349</v>
       </c>
-      <c r="D203" s="2">
+      <c r="D204" s="9">
         <v>-121.466137</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A204" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B204" s="2">
-        <v>152</v>
-      </c>
-      <c r="C204" s="2">
-        <v>48.497042999999998</v>
-      </c>
-      <c r="D204" s="2">
-        <v>-121.466696</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
@@ -3603,13 +3607,13 @@
         <v>89</v>
       </c>
       <c r="B205" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C205" s="2">
-        <v>48.497086000000003</v>
+        <v>48.497042999999998</v>
       </c>
       <c r="D205" s="2">
-        <v>-121.466723</v>
+        <v>-121.466696</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
@@ -3617,13 +3621,13 @@
         <v>89</v>
       </c>
       <c r="B206" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C206" s="2">
-        <v>48.364921000000002</v>
+        <v>48.497086000000003</v>
       </c>
       <c r="D206" s="2">
-        <v>-121.544873</v>
+        <v>-121.466723</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
@@ -3631,13 +3635,13 @@
         <v>89</v>
       </c>
       <c r="B207" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C207" s="2">
-        <v>48.366118999999998</v>
+        <v>48.364921000000002</v>
       </c>
       <c r="D207" s="2">
-        <v>-121.54662500000001</v>
+        <v>-121.544873</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
@@ -3645,13 +3649,13 @@
         <v>89</v>
       </c>
       <c r="B208" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C208" s="2">
-        <v>48.366050999999999</v>
+        <v>48.366118999999998</v>
       </c>
       <c r="D208" s="2">
-        <v>-121.546576</v>
+        <v>-121.54662500000001</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
@@ -3659,13 +3663,13 @@
         <v>89</v>
       </c>
       <c r="B209" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C209" s="2">
-        <v>48.366010000000003</v>
+        <v>48.366050999999999</v>
       </c>
       <c r="D209" s="2">
-        <v>-121.54649000000001</v>
+        <v>-121.546576</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
@@ -3673,13 +3677,13 @@
         <v>89</v>
       </c>
       <c r="B210" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C210" s="2">
-        <v>48.366061999999999</v>
+        <v>48.366010000000003</v>
       </c>
       <c r="D210" s="2">
-        <v>-121.54637</v>
+        <v>-121.54649000000001</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
@@ -3687,13 +3691,13 @@
         <v>89</v>
       </c>
       <c r="B211" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C211" s="2">
-        <v>48.366030000000002</v>
+        <v>48.366061999999999</v>
       </c>
       <c r="D211" s="2">
-        <v>-121.546297</v>
+        <v>-121.54637</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
@@ -3701,13 +3705,13 @@
         <v>89</v>
       </c>
       <c r="B212" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C212" s="2">
-        <v>48.365972999999997</v>
+        <v>48.366030000000002</v>
       </c>
       <c r="D212" s="2">
-        <v>-121.54628099999999</v>
+        <v>-121.546297</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
@@ -3715,27 +3719,27 @@
         <v>89</v>
       </c>
       <c r="B213" s="2">
+        <v>160</v>
+      </c>
+      <c r="C213" s="2">
+        <v>48.365972999999997</v>
+      </c>
+      <c r="D213" s="2">
+        <v>-121.54628099999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A214" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B214" s="2">
         <v>161</v>
       </c>
-      <c r="C213" s="2">
+      <c r="C214" s="2">
         <v>48.365713999999997</v>
       </c>
-      <c r="D213" s="2">
+      <c r="D214" s="2">
         <v>-121.54604399999999</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B214" s="9">
-        <v>162</v>
-      </c>
-      <c r="C214" s="9">
-        <v>48.365721999999998</v>
-      </c>
-      <c r="D214" s="9">
-        <v>-121.54598900000001</v>
       </c>
     </row>
     <row r="215" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -3743,27 +3747,27 @@
         <v>89</v>
       </c>
       <c r="B215" s="9">
+        <v>162</v>
+      </c>
+      <c r="C215" s="9">
+        <v>48.365721999999998</v>
+      </c>
+      <c r="D215" s="9">
+        <v>-121.54598900000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B216" s="9">
         <v>163</v>
       </c>
-      <c r="C215" s="9">
+      <c r="C216" s="9">
         <v>48.365634</v>
       </c>
-      <c r="D215" s="9">
+      <c r="D216" s="9">
         <v>-121.54576299999999</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A216" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B216" s="2">
-        <v>164</v>
-      </c>
-      <c r="C216" s="2">
-        <v>48.476799999999997</v>
-      </c>
-      <c r="D216" s="2">
-        <v>-121.64369499999999</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
@@ -3771,13 +3775,13 @@
         <v>89</v>
       </c>
       <c r="B217" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C217" s="2">
-        <v>48.476759999999999</v>
+        <v>48.476799999999997</v>
       </c>
       <c r="D217" s="2">
-        <v>-121.643377</v>
+        <v>-121.64369499999999</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
@@ -3785,13 +3789,13 @@
         <v>89</v>
       </c>
       <c r="B218" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C218" s="2">
-        <v>48.476756999999999</v>
+        <v>48.476759999999999</v>
       </c>
       <c r="D218" s="2">
-        <v>-121.643417</v>
+        <v>-121.643377</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
@@ -3799,13 +3803,13 @@
         <v>89</v>
       </c>
       <c r="B219" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C219" s="2">
-        <v>48.476734999999998</v>
+        <v>48.476756999999999</v>
       </c>
       <c r="D219" s="2">
-        <v>-121.643306</v>
+        <v>-121.643417</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
@@ -3813,13 +3817,13 @@
         <v>89</v>
       </c>
       <c r="B220" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C220" s="2">
-        <v>48.476529999999997</v>
+        <v>48.476734999999998</v>
       </c>
       <c r="D220" s="2">
-        <v>-121.642929</v>
+        <v>-121.643306</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
@@ -3827,13 +3831,13 @@
         <v>89</v>
       </c>
       <c r="B221" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C221" s="2">
-        <v>48.476560999999997</v>
+        <v>48.476529999999997</v>
       </c>
       <c r="D221" s="2">
-        <v>-121.643034</v>
+        <v>-121.642929</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
@@ -3841,13 +3845,13 @@
         <v>89</v>
       </c>
       <c r="B222" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C222" s="2">
-        <v>48.476542000000002</v>
+        <v>48.476560999999997</v>
       </c>
       <c r="D222" s="2">
-        <v>-121.642563</v>
+        <v>-121.643034</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
@@ -3855,13 +3859,13 @@
         <v>89</v>
       </c>
       <c r="B223" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C223" s="2">
-        <v>48.476292999999998</v>
+        <v>48.476542000000002</v>
       </c>
       <c r="D223" s="2">
-        <v>-121.642285</v>
+        <v>-121.642563</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
@@ -3869,13 +3873,13 @@
         <v>89</v>
       </c>
       <c r="B224" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C224" s="2">
-        <v>48.513111000000002</v>
+        <v>48.476292999999998</v>
       </c>
       <c r="D224" s="2">
-        <v>-121.709901</v>
+        <v>-121.642285</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
@@ -3883,13 +3887,13 @@
         <v>89</v>
       </c>
       <c r="B225" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C225" s="2">
-        <v>48.513106999999998</v>
+        <v>48.513111000000002</v>
       </c>
       <c r="D225" s="2">
-        <v>-121.70983200000001</v>
+        <v>-121.709901</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
@@ -3897,13 +3901,13 @@
         <v>89</v>
       </c>
       <c r="B226" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C226" s="2">
-        <v>48.513125000000002</v>
+        <v>48.513106999999998</v>
       </c>
       <c r="D226" s="2">
-        <v>-121.709757</v>
+        <v>-121.70983200000001</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
@@ -3911,13 +3915,13 @@
         <v>89</v>
       </c>
       <c r="B227" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C227" s="2">
-        <v>48.512858000000001</v>
+        <v>48.513125000000002</v>
       </c>
       <c r="D227" s="2">
-        <v>-121.710024</v>
+        <v>-121.709757</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
@@ -3925,13 +3929,13 @@
         <v>89</v>
       </c>
       <c r="B228" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C228" s="2">
-        <v>48.512909000000001</v>
+        <v>48.512858000000001</v>
       </c>
       <c r="D228" s="2">
-        <v>-121.709836</v>
+        <v>-121.710024</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
@@ -3939,13 +3943,13 @@
         <v>89</v>
       </c>
       <c r="B229" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C229" s="2">
-        <v>48.512644999999999</v>
+        <v>48.512909000000001</v>
       </c>
       <c r="D229" s="2">
-        <v>-121.70998400000001</v>
+        <v>-121.709836</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
@@ -3953,13 +3957,13 @@
         <v>89</v>
       </c>
       <c r="B230" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C230" s="2">
-        <v>48.512227000000003</v>
+        <v>48.512644999999999</v>
       </c>
       <c r="D230" s="2">
-        <v>-121.710189</v>
+        <v>-121.70998400000001</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
@@ -3967,13 +3971,13 @@
         <v>89</v>
       </c>
       <c r="B231" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C231" s="2">
-        <v>48.512248999999997</v>
+        <v>48.512227000000003</v>
       </c>
       <c r="D231" s="2">
-        <v>-121.71023099999999</v>
+        <v>-121.710189</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
@@ -3981,27 +3985,27 @@
         <v>89</v>
       </c>
       <c r="B232" s="2">
+        <v>179</v>
+      </c>
+      <c r="C232" s="2">
+        <v>48.512248999999997</v>
+      </c>
+      <c r="D232" s="2">
+        <v>-121.71023099999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A233" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B233" s="2">
         <v>181</v>
       </c>
-      <c r="C232" s="2">
+      <c r="C233" s="2">
         <v>48.485892</v>
       </c>
-      <c r="D232" s="2">
+      <c r="D233" s="2">
         <v>-121.59098899999999</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B233" s="9">
-        <v>182</v>
-      </c>
-      <c r="C233" s="9">
-        <v>48.48621</v>
-      </c>
-      <c r="D233" s="9">
-        <v>-121.59039900000001</v>
       </c>
     </row>
     <row r="234" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -4009,13 +4013,13 @@
         <v>89</v>
       </c>
       <c r="B234" s="9">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C234" s="9">
-        <v>48.486165999999997</v>
+        <v>48.48621</v>
       </c>
       <c r="D234" s="9">
-        <v>-121.589386</v>
+        <v>-121.59039900000001</v>
       </c>
     </row>
     <row r="235" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -4023,27 +4027,27 @@
         <v>89</v>
       </c>
       <c r="B235" s="9">
+        <v>183</v>
+      </c>
+      <c r="C235" s="9">
+        <v>48.486165999999997</v>
+      </c>
+      <c r="D235" s="9">
+        <v>-121.589386</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B236" s="9">
         <v>184</v>
       </c>
-      <c r="C235" s="9">
+      <c r="C236" s="9">
         <v>48.486001999999999</v>
       </c>
-      <c r="D235" s="9">
+      <c r="D236" s="9">
         <v>-121.58907000000001</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A236" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B236" s="2">
-        <v>189</v>
-      </c>
-      <c r="C236" s="2">
-        <v>48.515915999999997</v>
-      </c>
-      <c r="D236" s="2">
-        <v>-122.006714</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
@@ -4051,13 +4055,13 @@
         <v>89</v>
       </c>
       <c r="B237" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C237" s="2">
-        <v>48.515931999999999</v>
+        <v>48.515915999999997</v>
       </c>
       <c r="D237" s="2">
-        <v>-122.00670599999999</v>
+        <v>-122.006714</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
@@ -4065,13 +4069,13 @@
         <v>89</v>
       </c>
       <c r="B238" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C238" s="2">
-        <v>48.516241000000001</v>
+        <v>48.515931999999999</v>
       </c>
       <c r="D238" s="2">
-        <v>-122.006857</v>
+        <v>-122.00670599999999</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
@@ -4079,13 +4083,13 @@
         <v>89</v>
       </c>
       <c r="B239" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C239" s="2">
-        <v>48.516634000000003</v>
+        <v>48.516241000000001</v>
       </c>
       <c r="D239" s="2">
-        <v>-122.007296</v>
+        <v>-122.006857</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
@@ -4093,13 +4097,13 @@
         <v>89</v>
       </c>
       <c r="B240" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C240" s="2">
-        <v>48.515540999999999</v>
+        <v>48.516634000000003</v>
       </c>
       <c r="D240" s="2">
-        <v>-121.879868</v>
+        <v>-122.007296</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
@@ -4107,41 +4111,41 @@
         <v>89</v>
       </c>
       <c r="B241" s="2">
+        <v>193</v>
+      </c>
+      <c r="C241" s="2">
+        <v>48.515540999999999</v>
+      </c>
+      <c r="D241" s="2">
+        <v>-121.879868</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A242" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B242" s="2">
         <v>194</v>
       </c>
-      <c r="C241" s="2">
+      <c r="C242" s="2">
         <v>48.515208999999999</v>
       </c>
-      <c r="D241" s="2">
+      <c r="D242" s="2">
         <v>-121.880021</v>
       </c>
     </row>
-    <row r="242" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A242" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B242" s="9">
+    <row r="243" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B243" s="9">
         <v>195</v>
       </c>
-      <c r="C242" s="9">
+      <c r="C243" s="9">
         <v>48.515165000000003</v>
       </c>
-      <c r="D242" s="9">
+      <c r="D243" s="9">
         <v>-121.88000599999999</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A243" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B243" s="2">
-        <v>196</v>
-      </c>
-      <c r="C243" s="2">
-        <v>48.515180000000001</v>
-      </c>
-      <c r="D243" s="2">
-        <v>-121.880081</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
@@ -4149,13 +4153,13 @@
         <v>89</v>
       </c>
       <c r="B244" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C244" s="2">
-        <v>48.514980999999999</v>
+        <v>48.515180000000001</v>
       </c>
       <c r="D244" s="2">
-        <v>-121.88046199999999</v>
+        <v>-121.880081</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
@@ -4163,13 +4167,13 @@
         <v>89</v>
       </c>
       <c r="B245" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C245" s="2">
-        <v>48.515065</v>
+        <v>48.514980999999999</v>
       </c>
       <c r="D245" s="2">
-        <v>-121.88021500000001</v>
+        <v>-121.88046199999999</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
@@ -4177,13 +4181,13 @@
         <v>89</v>
       </c>
       <c r="B246" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C246" s="2">
-        <v>48.514797000000002</v>
+        <v>48.515065</v>
       </c>
       <c r="D246" s="2">
-        <v>-121.880172</v>
+        <v>-121.88021500000001</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
@@ -4191,13 +4195,13 @@
         <v>89</v>
       </c>
       <c r="B247" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C247" s="2">
-        <v>48.514800999999999</v>
+        <v>48.514797000000002</v>
       </c>
       <c r="D247" s="2">
-        <v>-121.88032699999999</v>
+        <v>-121.880172</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
@@ -4205,13 +4209,13 @@
         <v>89</v>
       </c>
       <c r="B248" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C248" s="2">
-        <v>48.514966999999999</v>
+        <v>48.514800999999999</v>
       </c>
       <c r="D248" s="2">
-        <v>-121.88042900000001</v>
+        <v>-121.88032699999999</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
@@ -4219,13 +4223,13 @@
         <v>89</v>
       </c>
       <c r="B249" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C249" s="2">
-        <v>48.514257999999998</v>
+        <v>48.514966999999999</v>
       </c>
       <c r="D249" s="2">
-        <v>-121.880703</v>
+        <v>-121.88042900000001</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
@@ -4233,13 +4237,13 @@
         <v>89</v>
       </c>
       <c r="B250" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C250" s="2">
-        <v>48.514259000000003</v>
+        <v>48.514257999999998</v>
       </c>
       <c r="D250" s="2">
-        <v>-121.880563</v>
+        <v>-121.880703</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
@@ -4247,13 +4251,13 @@
         <v>89</v>
       </c>
       <c r="B251" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C251" s="2">
-        <v>48.514232999999997</v>
+        <v>48.514259000000003</v>
       </c>
       <c r="D251" s="2">
-        <v>-121.88081699999999</v>
+        <v>-121.880563</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
@@ -4261,13 +4265,13 @@
         <v>89</v>
       </c>
       <c r="B252" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C252" s="2">
-        <v>48.514102999999999</v>
+        <v>48.514232999999997</v>
       </c>
       <c r="D252" s="2">
-        <v>-121.880892</v>
+        <v>-121.88081699999999</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
@@ -4275,13 +4279,13 @@
         <v>89</v>
       </c>
       <c r="B253" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C253" s="2">
-        <v>48.514028000000003</v>
+        <v>48.514102999999999</v>
       </c>
       <c r="D253" s="2">
-        <v>-121.880951</v>
+        <v>-121.880892</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
@@ -4289,13 +4293,13 @@
         <v>89</v>
       </c>
       <c r="B254" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C254" s="2">
-        <v>48.514114999999997</v>
+        <v>48.514028000000003</v>
       </c>
       <c r="D254" s="2">
-        <v>-121.881165</v>
+        <v>-121.880951</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
@@ -4303,13 +4307,13 @@
         <v>89</v>
       </c>
       <c r="B255" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C255" s="2">
-        <v>48.513893000000003</v>
+        <v>48.514114999999997</v>
       </c>
       <c r="D255" s="2">
-        <v>-121.881062</v>
+        <v>-121.881165</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
@@ -4317,13 +4321,13 @@
         <v>89</v>
       </c>
       <c r="B256" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C256" s="2">
-        <v>48.513719000000002</v>
+        <v>48.513893000000003</v>
       </c>
       <c r="D256" s="2">
-        <v>-121.88120600000001</v>
+        <v>-121.881062</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
@@ -4331,13 +4335,13 @@
         <v>89</v>
       </c>
       <c r="B257" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C257" s="2">
-        <v>48.486128000000001</v>
+        <v>48.513719000000002</v>
       </c>
       <c r="D257" s="2">
-        <v>-121.590261</v>
+        <v>-121.88120600000001</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
@@ -4345,13 +4349,13 @@
         <v>89</v>
       </c>
       <c r="B258" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C258" s="2">
-        <v>48.486133000000002</v>
+        <v>48.486128000000001</v>
       </c>
       <c r="D258" s="2">
-        <v>-121.59020700000001</v>
+        <v>-121.590261</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
@@ -4359,13 +4363,13 @@
         <v>89</v>
       </c>
       <c r="B259" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C259" s="2">
-        <v>48.486066999999998</v>
+        <v>48.486133000000002</v>
       </c>
       <c r="D259" s="2">
-        <v>-121.590165</v>
+        <v>-121.59020700000001</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
@@ -4373,13 +4377,13 @@
         <v>89</v>
       </c>
       <c r="B260" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C260" s="2">
-        <v>48.486044</v>
+        <v>48.486066999999998</v>
       </c>
       <c r="D260" s="2">
-        <v>-121.590158</v>
+        <v>-121.590165</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
@@ -4387,13 +4391,13 @@
         <v>89</v>
       </c>
       <c r="B261" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C261" s="2">
-        <v>48.486085000000003</v>
+        <v>48.486044</v>
       </c>
       <c r="D261" s="2">
-        <v>-121.590058</v>
+        <v>-121.590158</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
@@ -4401,13 +4405,13 @@
         <v>89</v>
       </c>
       <c r="B262" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C262" s="2">
-        <v>48.485993000000001</v>
+        <v>48.486085000000003</v>
       </c>
       <c r="D262" s="2">
-        <v>-121.590003</v>
+        <v>-121.590058</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
@@ -4415,13 +4419,13 @@
         <v>89</v>
       </c>
       <c r="B263" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C263" s="2">
-        <v>48.486044999999997</v>
+        <v>48.485993000000001</v>
       </c>
       <c r="D263" s="2">
-        <v>-121.589962</v>
+        <v>-121.590003</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
@@ -4429,13 +4433,13 @@
         <v>89</v>
       </c>
       <c r="B264" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C264" s="2">
-        <v>48.486066000000001</v>
+        <v>48.486044999999997</v>
       </c>
       <c r="D264" s="2">
-        <v>-121.58985699999999</v>
+        <v>-121.589962</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
@@ -4443,13 +4447,13 @@
         <v>89</v>
       </c>
       <c r="B265" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C265" s="2">
-        <v>48.486105999999999</v>
+        <v>48.486066000000001</v>
       </c>
       <c r="D265" s="2">
-        <v>-121.58991</v>
+        <v>-121.58985699999999</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
@@ -4457,13 +4461,13 @@
         <v>89</v>
       </c>
       <c r="B266" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C266" s="2">
-        <v>48.486038999999998</v>
+        <v>48.486105999999999</v>
       </c>
       <c r="D266" s="2">
-        <v>-121.589786</v>
+        <v>-121.58991</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
@@ -4471,13 +4475,13 @@
         <v>89</v>
       </c>
       <c r="B267" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C267" s="2">
-        <v>48.486089999999997</v>
+        <v>48.486038999999998</v>
       </c>
       <c r="D267" s="2">
-        <v>-121.58978399999999</v>
+        <v>-121.589786</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
@@ -4485,13 +4489,13 @@
         <v>89</v>
       </c>
       <c r="B268" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C268" s="2">
-        <v>48.486016999999997</v>
+        <v>48.486089999999997</v>
       </c>
       <c r="D268" s="2">
-        <v>-121.589708</v>
+        <v>-121.58978399999999</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
@@ -4499,13 +4503,13 @@
         <v>89</v>
       </c>
       <c r="B269" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C269" s="2">
-        <v>48.486198999999999</v>
+        <v>48.486016999999997</v>
       </c>
       <c r="D269" s="2">
-        <v>-121.58968</v>
+        <v>-121.589708</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
@@ -4513,13 +4517,13 @@
         <v>89</v>
       </c>
       <c r="B270" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C270" s="2">
-        <v>48.486094000000001</v>
+        <v>48.486198999999999</v>
       </c>
       <c r="D270" s="2">
-        <v>-121.589602</v>
+        <v>-121.58968</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
@@ -4527,13 +4531,13 @@
         <v>89</v>
       </c>
       <c r="B271" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C271" s="2">
-        <v>48.486072999999998</v>
+        <v>48.486094000000001</v>
       </c>
       <c r="D271" s="2">
-        <v>-121.58966100000001</v>
+        <v>-121.589602</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
@@ -4541,13 +4545,13 @@
         <v>89</v>
       </c>
       <c r="B272" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C272" s="2">
-        <v>48.486058</v>
+        <v>48.486072999999998</v>
       </c>
       <c r="D272" s="2">
-        <v>-121.58957100000001</v>
+        <v>-121.58966100000001</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
@@ -4555,13 +4559,13 @@
         <v>89</v>
       </c>
       <c r="B273" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C273" s="2">
-        <v>48.486109999999996</v>
+        <v>48.486058</v>
       </c>
       <c r="D273" s="2">
-        <v>-121.589422</v>
+        <v>-121.58957100000001</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
@@ -4569,13 +4573,13 @@
         <v>89</v>
       </c>
       <c r="B274" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C274" s="2">
-        <v>48.486055999999998</v>
+        <v>48.486109999999996</v>
       </c>
       <c r="D274" s="2">
-        <v>-121.58909</v>
+        <v>-121.589422</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
@@ -4583,13 +4587,13 @@
         <v>89</v>
       </c>
       <c r="B275" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C275" s="2">
-        <v>48.486040000000003</v>
+        <v>48.486055999999998</v>
       </c>
       <c r="D275" s="2">
-        <v>-121.58900199999999</v>
+        <v>-121.58909</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
@@ -4597,13 +4601,13 @@
         <v>89</v>
       </c>
       <c r="B276" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C276" s="2">
-        <v>48.485638000000002</v>
+        <v>48.486040000000003</v>
       </c>
       <c r="D276" s="2">
-        <v>-121.588987</v>
+        <v>-121.58900199999999</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
@@ -4611,13 +4615,13 @@
         <v>89</v>
       </c>
       <c r="B277" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C277" s="2">
-        <v>48.48556</v>
+        <v>48.485638000000002</v>
       </c>
       <c r="D277" s="2">
-        <v>-121.588855</v>
+        <v>-121.588987</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
@@ -4625,13 +4629,13 @@
         <v>89</v>
       </c>
       <c r="B278" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C278" s="2">
-        <v>48.485643000000003</v>
+        <v>48.48556</v>
       </c>
       <c r="D278" s="2">
-        <v>-121.58892299999999</v>
+        <v>-121.588855</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
@@ -4639,13 +4643,13 @@
         <v>89</v>
       </c>
       <c r="B279" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C279" s="2">
-        <v>48.485537999999998</v>
+        <v>48.485643000000003</v>
       </c>
       <c r="D279" s="2">
-        <v>-121.588887</v>
+        <v>-121.58892299999999</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
@@ -4653,13 +4657,13 @@
         <v>89</v>
       </c>
       <c r="B280" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C280" s="2">
-        <v>48.485568999999998</v>
+        <v>48.485537999999998</v>
       </c>
       <c r="D280" s="2">
-        <v>-121.58879899999999</v>
+        <v>-121.588887</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
@@ -4667,13 +4671,13 @@
         <v>89</v>
       </c>
       <c r="B281" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C281" s="2">
-        <v>48.486178000000002</v>
+        <v>48.485568999999998</v>
       </c>
       <c r="D281" s="2">
-        <v>-121.58985800000001</v>
+        <v>-121.58879899999999</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
@@ -4681,13 +4685,13 @@
         <v>89</v>
       </c>
       <c r="B282" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C282" s="2">
-        <v>48.538148999999997</v>
+        <v>48.486178000000002</v>
       </c>
       <c r="D282" s="2">
-        <v>-121.81778300000001</v>
+        <v>-121.58985800000001</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
@@ -4695,13 +4699,13 @@
         <v>89</v>
       </c>
       <c r="B283" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C283" s="2">
-        <v>48.537573999999999</v>
+        <v>48.538148999999997</v>
       </c>
       <c r="D283" s="2">
-        <v>-121.817784</v>
+        <v>-121.81778300000001</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
@@ -4709,13 +4713,13 @@
         <v>89</v>
       </c>
       <c r="B284" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C284" s="2">
-        <v>48.537056</v>
+        <v>48.537573999999999</v>
       </c>
       <c r="D284" s="2">
-        <v>-121.817975</v>
+        <v>-121.817784</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
@@ -4723,13 +4727,13 @@
         <v>89</v>
       </c>
       <c r="B285" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C285" s="2">
-        <v>48.537011</v>
+        <v>48.537056</v>
       </c>
       <c r="D285" s="2">
-        <v>-121.81749499999999</v>
+        <v>-121.817975</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
@@ -4737,13 +4741,13 @@
         <v>89</v>
       </c>
       <c r="B286" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C286" s="2">
-        <v>48.535997999999999</v>
+        <v>48.537011</v>
       </c>
       <c r="D286" s="2">
-        <v>-121.817279</v>
+        <v>-121.81749499999999</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
@@ -4751,13 +4755,13 @@
         <v>89</v>
       </c>
       <c r="B287" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C287" s="2">
-        <v>48.536290999999999</v>
+        <v>48.535997999999999</v>
       </c>
       <c r="D287" s="2">
-        <v>-121.81790700000001</v>
+        <v>-121.817279</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
@@ -4765,13 +4769,13 @@
         <v>89</v>
       </c>
       <c r="B288" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C288" s="2">
-        <v>48.535459000000003</v>
+        <v>48.536290999999999</v>
       </c>
       <c r="D288" s="2">
-        <v>-121.817443</v>
+        <v>-121.81790700000001</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
@@ -4779,13 +4783,13 @@
         <v>89</v>
       </c>
       <c r="B289" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C289" s="2">
-        <v>48.535274999999999</v>
+        <v>48.535459000000003</v>
       </c>
       <c r="D289" s="2">
-        <v>-121.81724</v>
+        <v>-121.817443</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
@@ -4793,13 +4797,13 @@
         <v>89</v>
       </c>
       <c r="B290" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C290" s="2">
-        <v>48.535026999999999</v>
+        <v>48.535274999999999</v>
       </c>
       <c r="D290" s="2">
-        <v>-121.817734</v>
+        <v>-121.81724</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
@@ -4807,13 +4811,13 @@
         <v>89</v>
       </c>
       <c r="B291" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C291" s="2">
-        <v>48.535001999999999</v>
+        <v>48.535026999999999</v>
       </c>
       <c r="D291" s="2">
-        <v>-121.81711</v>
+        <v>-121.817734</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
@@ -4821,13 +4825,13 @@
         <v>89</v>
       </c>
       <c r="B292" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C292" s="2">
-        <v>48.534528000000002</v>
+        <v>48.535001999999999</v>
       </c>
       <c r="D292" s="2">
-        <v>-121.817548</v>
+        <v>-121.81711</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
@@ -4835,13 +4839,13 @@
         <v>89</v>
       </c>
       <c r="B293" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C293" s="2">
-        <v>48.538569000000003</v>
+        <v>48.534528000000002</v>
       </c>
       <c r="D293" s="2">
-        <v>-121.81769799999999</v>
+        <v>-121.817548</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
@@ -4849,13 +4853,13 @@
         <v>89</v>
       </c>
       <c r="B294" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C294" s="2">
-        <v>48.538549000000003</v>
+        <v>48.538569000000003</v>
       </c>
       <c r="D294" s="2">
-        <v>-121.81756</v>
+        <v>-121.81769799999999</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
@@ -4863,27 +4867,27 @@
         <v>89</v>
       </c>
       <c r="B295" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C295" s="2">
-        <v>48.540405</v>
+        <v>48.538549000000003</v>
       </c>
       <c r="D295" s="2">
-        <v>-121.818438</v>
+        <v>-121.81756</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B296">
-        <v>250</v>
-      </c>
-      <c r="C296">
-        <v>48.515582000000002</v>
-      </c>
-      <c r="D296">
-        <v>-122.137444</v>
+      <c r="B296" s="2">
+        <v>249</v>
+      </c>
+      <c r="C296" s="2">
+        <v>48.540405</v>
+      </c>
+      <c r="D296" s="2">
+        <v>-121.818438</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.35">
@@ -4891,13 +4895,13 @@
         <v>89</v>
       </c>
       <c r="B297">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C297">
-        <v>48.515664000000001</v>
+        <v>48.515582000000002</v>
       </c>
       <c r="D297">
-        <v>-122.13708099999999</v>
+        <v>-122.137444</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
@@ -4905,13 +4909,13 @@
         <v>89</v>
       </c>
       <c r="B298">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C298">
-        <v>48.515645999999997</v>
+        <v>48.515664000000001</v>
       </c>
       <c r="D298">
-        <v>-122.136931</v>
+        <v>-122.13708099999999</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
@@ -4919,13 +4923,13 @@
         <v>89</v>
       </c>
       <c r="B299">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C299">
-        <v>48.515706000000002</v>
+        <v>48.515645999999997</v>
       </c>
       <c r="D299">
-        <v>-122.136735</v>
+        <v>-122.136931</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.35">
@@ -4933,13 +4937,13 @@
         <v>89</v>
       </c>
       <c r="B300">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C300">
-        <v>48.523027999999996</v>
+        <v>48.515706000000002</v>
       </c>
       <c r="D300">
-        <v>-122.09708500000001</v>
+        <v>-122.136735</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
@@ -4947,13 +4951,13 @@
         <v>89</v>
       </c>
       <c r="B301">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C301">
-        <v>48.522559000000001</v>
+        <v>48.523027999999996</v>
       </c>
       <c r="D301">
-        <v>-122.104742</v>
+        <v>-122.09708500000001</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
@@ -4961,13 +4965,13 @@
         <v>89</v>
       </c>
       <c r="B302">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C302">
-        <v>48.522629000000002</v>
+        <v>48.522559000000001</v>
       </c>
       <c r="D302">
-        <v>-122.10482500000001</v>
+        <v>-122.104742</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.35">
@@ -4975,13 +4979,13 @@
         <v>89</v>
       </c>
       <c r="B303">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C303">
-        <v>48.527442999999998</v>
+        <v>48.522629000000002</v>
       </c>
       <c r="D303">
-        <v>-121.75259</v>
+        <v>-122.10482500000001</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.35">
@@ -4989,13 +4993,13 @@
         <v>89</v>
       </c>
       <c r="B304">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C304">
-        <v>48.527816000000001</v>
+        <v>48.527442999999998</v>
       </c>
       <c r="D304">
-        <v>-121.75205800000001</v>
+        <v>-121.75259</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
@@ -5003,13 +5007,13 @@
         <v>89</v>
       </c>
       <c r="B305">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C305">
-        <v>48.527971000000001</v>
+        <v>48.527816000000001</v>
       </c>
       <c r="D305">
-        <v>-121.751892</v>
+        <v>-121.75205800000001</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.35">
@@ -5017,13 +5021,13 @@
         <v>89</v>
       </c>
       <c r="B306">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C306">
-        <v>48.533273000000001</v>
+        <v>48.527971000000001</v>
       </c>
       <c r="D306">
-        <v>-121.818251</v>
+        <v>-121.751892</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
@@ -5031,13 +5035,13 @@
         <v>89</v>
       </c>
       <c r="B307">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C307">
-        <v>48.533605000000001</v>
+        <v>48.533273000000001</v>
       </c>
       <c r="D307">
-        <v>-121.818124</v>
+        <v>-121.818251</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
@@ -5045,13 +5049,13 @@
         <v>89</v>
       </c>
       <c r="B308">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C308">
-        <v>48.484695000000002</v>
+        <v>48.533605000000001</v>
       </c>
       <c r="D308">
-        <v>-121.61359899999999</v>
+        <v>-121.818124</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.35">
@@ -5059,13 +5063,13 @@
         <v>89</v>
       </c>
       <c r="B309">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C309">
-        <v>48.484690999999998</v>
+        <v>48.484695000000002</v>
       </c>
       <c r="D309">
-        <v>-121.613738</v>
+        <v>-121.61359899999999</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
@@ -5073,13 +5077,13 @@
         <v>89</v>
       </c>
       <c r="B310">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C310">
-        <v>48.484602000000002</v>
+        <v>48.484690999999998</v>
       </c>
       <c r="D310">
-        <v>-121.614114</v>
+        <v>-121.613738</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
@@ -5087,13 +5091,13 @@
         <v>89</v>
       </c>
       <c r="B311">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C311">
-        <v>48.484623999999997</v>
+        <v>48.484602000000002</v>
       </c>
       <c r="D311">
-        <v>-121.614339</v>
+        <v>-121.614114</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.35">
@@ -5101,13 +5105,13 @@
         <v>89</v>
       </c>
       <c r="B312">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C312">
-        <v>48.480823000000001</v>
+        <v>48.484623999999997</v>
       </c>
       <c r="D312">
-        <v>-121.587673</v>
+        <v>-121.614339</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.35">
@@ -5115,69 +5119,69 @@
         <v>89</v>
       </c>
       <c r="B313">
+        <v>266</v>
+      </c>
+      <c r="C313">
+        <v>48.480823000000001</v>
+      </c>
+      <c r="D313">
+        <v>-121.587673</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A314" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B314">
         <v>267</v>
       </c>
-      <c r="C313">
+      <c r="C314">
         <v>48.481059999999999</v>
       </c>
-      <c r="D313">
+      <c r="D314">
         <v>-121.587757</v>
       </c>
     </row>
-    <row r="314" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A314" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B314" s="11">
+    <row r="315" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A315" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B315" s="11">
         <v>268</v>
       </c>
-      <c r="C314" s="11">
+      <c r="C315" s="11">
         <v>48.481234999999998</v>
       </c>
-      <c r="D314" s="11">
+      <c r="D315" s="11">
         <v>-121.58769599999999</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A315" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B315">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A316" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B316">
         <v>269</v>
       </c>
-      <c r="C315">
+      <c r="C316">
         <v>48.481409999999997</v>
       </c>
-      <c r="D315">
+      <c r="D316">
         <v>-121.587661</v>
       </c>
     </row>
-    <row r="316" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A316" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B316" s="11">
+    <row r="317" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A317" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B317" s="11">
         <v>270</v>
       </c>
-      <c r="C316" s="11">
+      <c r="C317" s="11">
         <v>48.481679</v>
       </c>
-      <c r="D316" s="11">
+      <c r="D317" s="11">
         <v>-121.58765200000001</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A317" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B317">
-        <v>271</v>
-      </c>
-      <c r="C317">
-        <v>48.481814999999997</v>
-      </c>
-      <c r="D317">
-        <v>-121.587641</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.35">
@@ -5185,13 +5189,13 @@
         <v>89</v>
       </c>
       <c r="B318">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C318">
-        <v>48.503050999999999</v>
+        <v>48.481814999999997</v>
       </c>
       <c r="D318">
-        <v>-121.718833</v>
+        <v>-121.587641</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
@@ -5199,13 +5203,13 @@
         <v>89</v>
       </c>
       <c r="B319">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C319">
-        <v>48.503205000000001</v>
+        <v>48.503050999999999</v>
       </c>
       <c r="D319">
-        <v>-121.718977</v>
+        <v>-121.718833</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
@@ -5213,13 +5217,13 @@
         <v>89</v>
       </c>
       <c r="B320">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C320">
-        <v>48.487403999999998</v>
+        <v>48.503205000000001</v>
       </c>
       <c r="D320">
-        <v>-121.64868800000001</v>
+        <v>-121.718977</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.35">
@@ -5227,13 +5231,13 @@
         <v>89</v>
       </c>
       <c r="B321">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C321">
-        <v>48.48762</v>
+        <v>48.487403999999998</v>
       </c>
       <c r="D321">
-        <v>-121.649019</v>
+        <v>-121.64868800000001</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.35">
@@ -5241,13 +5245,13 @@
         <v>89</v>
       </c>
       <c r="B322">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C322">
-        <v>48.487774000000002</v>
+        <v>48.48762</v>
       </c>
       <c r="D322">
-        <v>-121.64917800000001</v>
+        <v>-121.649019</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
@@ -5255,13 +5259,13 @@
         <v>89</v>
       </c>
       <c r="B323">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C323">
-        <v>48.487994</v>
+        <v>48.487774000000002</v>
       </c>
       <c r="D323">
-        <v>-121.649433</v>
+        <v>-121.64917800000001</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.35">
@@ -5269,13 +5273,13 @@
         <v>89</v>
       </c>
       <c r="B324">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C324">
-        <v>48.488106999999999</v>
+        <v>48.487994</v>
       </c>
       <c r="D324">
-        <v>-121.649393</v>
+        <v>-121.649433</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.35">
@@ -5283,13 +5287,13 @@
         <v>89</v>
       </c>
       <c r="B325">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C325">
-        <v>48.488177</v>
+        <v>48.488106999999999</v>
       </c>
       <c r="D325">
-        <v>-121.649573</v>
+        <v>-121.649393</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
@@ -5297,13 +5301,13 @@
         <v>89</v>
       </c>
       <c r="B326">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C326">
-        <v>48.488235000000003</v>
+        <v>48.488177</v>
       </c>
       <c r="D326">
-        <v>-121.649624</v>
+        <v>-121.649573</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.35">
@@ -5311,13 +5315,13 @@
         <v>89</v>
       </c>
       <c r="B327">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C327">
-        <v>48.488337000000001</v>
+        <v>48.488235000000003</v>
       </c>
       <c r="D327">
-        <v>-121.64959</v>
+        <v>-121.649624</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.35">
@@ -5325,13 +5329,13 @@
         <v>89</v>
       </c>
       <c r="B328">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C328">
-        <v>48.488163999999998</v>
+        <v>48.488337000000001</v>
       </c>
       <c r="D328">
-        <v>-121.649608</v>
+        <v>-121.64959</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
@@ -5339,13 +5343,13 @@
         <v>89</v>
       </c>
       <c r="B329">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C329">
-        <v>48.488348000000002</v>
+        <v>48.488163999999998</v>
       </c>
       <c r="D329">
-        <v>-121.64962199999999</v>
+        <v>-121.649608</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.35">
@@ -5353,13 +5357,13 @@
         <v>89</v>
       </c>
       <c r="B330">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C330">
-        <v>48.488539000000003</v>
+        <v>48.488348000000002</v>
       </c>
       <c r="D330">
-        <v>-121.649877</v>
+        <v>-121.64962199999999</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.35">
@@ -5367,13 +5371,13 @@
         <v>89</v>
       </c>
       <c r="B331">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C331">
-        <v>48.488624999999999</v>
+        <v>48.488539000000003</v>
       </c>
       <c r="D331">
-        <v>-121.65013500000001</v>
+        <v>-121.649877</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
@@ -5381,13 +5385,13 @@
         <v>89</v>
       </c>
       <c r="B332">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C332">
-        <v>48.503030000000003</v>
+        <v>48.488624999999999</v>
       </c>
       <c r="D332">
-        <v>-121.718829</v>
+        <v>-121.65013500000001</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.35">
@@ -5395,13 +5399,13 @@
         <v>89</v>
       </c>
       <c r="B333">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C333">
-        <v>48.527329000000002</v>
+        <v>48.503030000000003</v>
       </c>
       <c r="D333">
-        <v>-121.749999</v>
+        <v>-121.718829</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.35">
@@ -5409,13 +5413,13 @@
         <v>89</v>
       </c>
       <c r="B334">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C334">
-        <v>48.527717000000003</v>
+        <v>48.527329000000002</v>
       </c>
       <c r="D334">
-        <v>-121.749509</v>
+        <v>-121.749999</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
@@ -5423,13 +5427,13 @@
         <v>89</v>
       </c>
       <c r="B335">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C335">
-        <v>48.527937000000001</v>
+        <v>48.527717000000003</v>
       </c>
       <c r="D335">
-        <v>-121.74912399999999</v>
+        <v>-121.749509</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.35">
@@ -5437,13 +5441,13 @@
         <v>89</v>
       </c>
       <c r="B336">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C336">
-        <v>48.528343999999997</v>
+        <v>48.527937000000001</v>
       </c>
       <c r="D336">
-        <v>-121.74866299999999</v>
+        <v>-121.74912399999999</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.35">
@@ -5451,41 +5455,41 @@
         <v>89</v>
       </c>
       <c r="B337">
+        <v>290</v>
+      </c>
+      <c r="C337">
+        <v>48.528343999999997</v>
+      </c>
+      <c r="D337">
+        <v>-121.74866299999999</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A338" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B338">
         <v>291</v>
       </c>
-      <c r="C337">
+      <c r="C338">
         <v>48.528528999999999</v>
       </c>
-      <c r="D337">
+      <c r="D338">
         <v>-121.74753200000001</v>
       </c>
     </row>
-    <row r="338" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A338" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B338" s="11">
+    <row r="339" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A339" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B339" s="11">
         <v>292</v>
       </c>
-      <c r="C338" s="11">
+      <c r="C339" s="11">
         <v>48.472003999999998</v>
       </c>
-      <c r="D338" s="11">
+      <c r="D339" s="11">
         <v>-122.285893</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A339" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B339">
-        <v>293</v>
-      </c>
-      <c r="C339">
-        <v>48.478256999999999</v>
-      </c>
-      <c r="D339">
-        <v>-122.275356</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.35">
@@ -5493,13 +5497,13 @@
         <v>89</v>
       </c>
       <c r="B340">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C340">
-        <v>48.493402000000003</v>
+        <v>48.478256999999999</v>
       </c>
       <c r="D340">
-        <v>-122.19202799999999</v>
+        <v>-122.275356</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
@@ -5507,13 +5511,13 @@
         <v>89</v>
       </c>
       <c r="B341">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C341">
-        <v>48.488377</v>
+        <v>48.493402000000003</v>
       </c>
       <c r="D341">
-        <v>-122.16024299999999</v>
+        <v>-122.19202799999999</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.35">
@@ -5521,13 +5525,13 @@
         <v>89</v>
       </c>
       <c r="B342">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C342">
-        <v>48.488450999999998</v>
+        <v>48.488377</v>
       </c>
       <c r="D342">
-        <v>-122.159278</v>
+        <v>-122.16024299999999</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
@@ -5535,13 +5539,13 @@
         <v>89</v>
       </c>
       <c r="B343">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C343">
-        <v>48.512653</v>
+        <v>48.488450999999998</v>
       </c>
       <c r="D343">
-        <v>-122.080733</v>
+        <v>-122.159278</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
@@ -5549,13 +5553,13 @@
         <v>89</v>
       </c>
       <c r="B344">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C344">
-        <v>48.527771999999999</v>
+        <v>48.512653</v>
       </c>
       <c r="D344">
-        <v>-121.74947899999999</v>
+        <v>-122.080733</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
@@ -5563,13 +5567,13 @@
         <v>89</v>
       </c>
       <c r="B345">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C345">
-        <v>48.528429000000003</v>
+        <v>48.527771999999999</v>
       </c>
       <c r="D345">
-        <v>-121.747694</v>
+        <v>-121.74947899999999</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
@@ -5577,13 +5581,13 @@
         <v>89</v>
       </c>
       <c r="B346">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C346">
-        <v>48.528016000000001</v>
+        <v>48.528429000000003</v>
       </c>
       <c r="D346">
-        <v>-121.749303</v>
+        <v>-121.747694</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
@@ -5591,13 +5595,13 @@
         <v>89</v>
       </c>
       <c r="B347">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C347">
-        <v>48.528185000000001</v>
+        <v>48.528016000000001</v>
       </c>
       <c r="D347">
-        <v>-121.74846100000001</v>
+        <v>-121.749303</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
@@ -5605,13 +5609,13 @@
         <v>89</v>
       </c>
       <c r="B348">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C348">
-        <v>48.528381000000003</v>
+        <v>48.528185000000001</v>
       </c>
       <c r="D348">
-        <v>-121.748192</v>
+        <v>-121.74846100000001</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.35">
@@ -5619,13 +5623,13 @@
         <v>89</v>
       </c>
       <c r="B349">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C349">
-        <v>48.528146999999997</v>
+        <v>48.528381000000003</v>
       </c>
       <c r="D349">
-        <v>-121.748824</v>
+        <v>-121.748192</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
@@ -5633,13 +5637,13 @@
         <v>89</v>
       </c>
       <c r="B350">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C350">
-        <v>48.513182</v>
+        <v>48.528146999999997</v>
       </c>
       <c r="D350">
-        <v>-121.710078</v>
+        <v>-121.748824</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.35">
@@ -5647,27 +5651,27 @@
         <v>89</v>
       </c>
       <c r="B351">
+        <v>304</v>
+      </c>
+      <c r="C351">
+        <v>48.513182</v>
+      </c>
+      <c r="D351">
+        <v>-121.710078</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A352" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B352">
         <v>305</v>
       </c>
-      <c r="C351">
+      <c r="C352">
         <v>48.513052000000002</v>
       </c>
-      <c r="D351">
+      <c r="D352">
         <v>-121.709778</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A352" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B352" s="11">
-        <v>306</v>
-      </c>
-      <c r="C352" s="11">
-        <v>48.493481000000003</v>
-      </c>
-      <c r="D352" s="11">
-        <v>-121.53885200000001</v>
       </c>
     </row>
     <row r="353" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5675,13 +5679,13 @@
         <v>89</v>
       </c>
       <c r="B353" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C353" s="11">
-        <v>48.493257999999997</v>
+        <v>48.493481000000003</v>
       </c>
       <c r="D353" s="11">
-        <v>-121.53928500000001</v>
+        <v>-121.53885200000001</v>
       </c>
     </row>
     <row r="354" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5689,13 +5693,13 @@
         <v>89</v>
       </c>
       <c r="B354" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C354" s="11">
-        <v>48.493205000000003</v>
+        <v>48.493257999999997</v>
       </c>
       <c r="D354" s="11">
-        <v>-121.539917</v>
+        <v>-121.53928500000001</v>
       </c>
     </row>
     <row r="355" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5703,41 +5707,41 @@
         <v>89</v>
       </c>
       <c r="B355" s="11">
+        <v>308</v>
+      </c>
+      <c r="C355" s="11">
+        <v>48.493205000000003</v>
+      </c>
+      <c r="D355" s="11">
+        <v>-121.539917</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A356" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B356" s="11">
         <v>309</v>
       </c>
-      <c r="C355" s="11">
+      <c r="C356" s="11">
         <v>48.492963000000003</v>
       </c>
-      <c r="D355" s="11">
+      <c r="D356" s="11">
         <v>-121.54064</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A356" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B356">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A357" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B357">
         <v>310</v>
       </c>
-      <c r="C356">
+      <c r="C357">
         <v>48.493471999999997</v>
       </c>
-      <c r="D356">
+      <c r="D357">
         <v>-121.53907599999999</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A357" t="s">
-        <v>89</v>
-      </c>
-      <c r="B357">
-        <v>313</v>
-      </c>
-      <c r="C357">
-        <v>48.513010999999999</v>
-      </c>
-      <c r="D357">
-        <v>-121.70989400000001</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.35">
@@ -5745,13 +5749,13 @@
         <v>89</v>
       </c>
       <c r="B358">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C358">
-        <v>48.512836</v>
+        <v>48.513010999999999</v>
       </c>
       <c r="D358">
-        <v>-121.709947</v>
+        <v>-121.70989400000001</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
@@ -5759,13 +5763,13 @@
         <v>89</v>
       </c>
       <c r="B359">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C359">
-        <v>48.512669000000002</v>
+        <v>48.512836</v>
       </c>
       <c r="D359">
-        <v>-121.71006199999999</v>
+        <v>-121.709947</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.35">
@@ -5773,13 +5777,13 @@
         <v>89</v>
       </c>
       <c r="B360">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C360">
-        <v>48.512484999999998</v>
+        <v>48.512669000000002</v>
       </c>
       <c r="D360">
-        <v>-121.710112</v>
+        <v>-121.71006199999999</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
@@ -5787,13 +5791,13 @@
         <v>89</v>
       </c>
       <c r="B361">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C361">
-        <v>48.512345000000003</v>
+        <v>48.512484999999998</v>
       </c>
       <c r="D361">
-        <v>-121.710182</v>
+        <v>-121.710112</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
@@ -5801,13 +5805,13 @@
         <v>89</v>
       </c>
       <c r="B362">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C362">
-        <v>48.512281000000002</v>
+        <v>48.512345000000003</v>
       </c>
       <c r="D362">
-        <v>-121.71007299999999</v>
+        <v>-121.710182</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.35">
@@ -5815,13 +5819,13 @@
         <v>89</v>
       </c>
       <c r="B363">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C363">
-        <v>48.512239000000001</v>
+        <v>48.512281000000002</v>
       </c>
       <c r="D363">
-        <v>-121.710258</v>
+        <v>-121.71007299999999</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.35">
@@ -5829,13 +5833,13 @@
         <v>89</v>
       </c>
       <c r="B364">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C364">
-        <v>48.513035000000002</v>
+        <v>48.512239000000001</v>
       </c>
       <c r="D364">
-        <v>-121.709914</v>
+        <v>-121.710258</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
@@ -5843,13 +5847,13 @@
         <v>89</v>
       </c>
       <c r="B365">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C365">
-        <v>48.486179</v>
+        <v>48.513035000000002</v>
       </c>
       <c r="D365">
-        <v>-121.59041000000001</v>
+        <v>-121.709914</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.35">
@@ -5857,13 +5861,13 @@
         <v>89</v>
       </c>
       <c r="B366">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C366">
-        <v>48.486196</v>
+        <v>48.486179</v>
       </c>
       <c r="D366">
-        <v>-121.59023999999999</v>
+        <v>-121.59041000000001</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.35">
@@ -5871,13 +5875,13 @@
         <v>89</v>
       </c>
       <c r="B367">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C367">
-        <v>48.486207</v>
+        <v>48.486196</v>
       </c>
       <c r="D367">
-        <v>-121.590363</v>
+        <v>-121.59023999999999</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
@@ -5885,13 +5889,13 @@
         <v>89</v>
       </c>
       <c r="B368">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C368">
-        <v>48.486212999999999</v>
+        <v>48.486207</v>
       </c>
       <c r="D368">
-        <v>-121.59026</v>
+        <v>-121.590363</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.35">
@@ -5899,13 +5903,13 @@
         <v>89</v>
       </c>
       <c r="B369">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C369">
-        <v>48.486248000000003</v>
+        <v>48.486212999999999</v>
       </c>
       <c r="D369">
-        <v>-121.59023000000001</v>
+        <v>-121.59026</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.35">
@@ -5913,13 +5917,13 @@
         <v>89</v>
       </c>
       <c r="B370">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C370">
-        <v>48.486212999999999</v>
+        <v>48.486248000000003</v>
       </c>
       <c r="D370">
-        <v>-121.59018500000001</v>
+        <v>-121.59023000000001</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
@@ -5927,13 +5931,13 @@
         <v>89</v>
       </c>
       <c r="B371">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C371">
-        <v>48.486196</v>
+        <v>48.486212999999999</v>
       </c>
       <c r="D371">
-        <v>-121.590107</v>
+        <v>-121.59018500000001</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.35">
@@ -5941,13 +5945,13 @@
         <v>89</v>
       </c>
       <c r="B372">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C372">
-        <v>48.486215999999999</v>
+        <v>48.486196</v>
       </c>
       <c r="D372">
-        <v>-121.590074</v>
+        <v>-121.590107</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.35">
@@ -5955,13 +5959,13 @@
         <v>89</v>
       </c>
       <c r="B373">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C373">
-        <v>48.486221</v>
+        <v>48.486215999999999</v>
       </c>
       <c r="D373">
-        <v>-121.589996</v>
+        <v>-121.590074</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
@@ -5969,13 +5973,13 @@
         <v>89</v>
       </c>
       <c r="B374">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C374">
-        <v>48.486176</v>
+        <v>48.486221</v>
       </c>
       <c r="D374">
-        <v>-121.589918</v>
+        <v>-121.589996</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.35">
@@ -5983,13 +5987,13 @@
         <v>89</v>
       </c>
       <c r="B375">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C375">
-        <v>48.486230999999997</v>
+        <v>48.486176</v>
       </c>
       <c r="D375">
-        <v>-121.589911</v>
+        <v>-121.589918</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.35">
@@ -5997,13 +6001,13 @@
         <v>89</v>
       </c>
       <c r="B376">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C376">
-        <v>48.486190999999998</v>
+        <v>48.486230999999997</v>
       </c>
       <c r="D376">
-        <v>-121.589794</v>
+        <v>-121.589911</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
@@ -6011,13 +6015,13 @@
         <v>89</v>
       </c>
       <c r="B377">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C377">
-        <v>48.486119000000002</v>
+        <v>48.486190999999998</v>
       </c>
       <c r="D377">
-        <v>-121.58977899999999</v>
+        <v>-121.589794</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.35">
@@ -6025,13 +6029,13 @@
         <v>89</v>
       </c>
       <c r="B378">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C378">
-        <v>48.486105999999999</v>
+        <v>48.486119000000002</v>
       </c>
       <c r="D378">
-        <v>-121.589733</v>
+        <v>-121.58977899999999</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
@@ -6039,13 +6043,13 @@
         <v>89</v>
       </c>
       <c r="B379">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C379">
-        <v>48.486192000000003</v>
+        <v>48.486105999999999</v>
       </c>
       <c r="D379">
-        <v>-121.589617</v>
+        <v>-121.589733</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
@@ -6053,13 +6057,13 @@
         <v>89</v>
       </c>
       <c r="B380">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C380">
-        <v>48.486246999999999</v>
+        <v>48.486192000000003</v>
       </c>
       <c r="D380">
-        <v>-121.589564</v>
+        <v>-121.589617</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.35">
@@ -6067,13 +6071,13 @@
         <v>89</v>
       </c>
       <c r="B381">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C381">
-        <v>48.486229000000002</v>
+        <v>48.486246999999999</v>
       </c>
       <c r="D381">
-        <v>-121.589558</v>
+        <v>-121.589564</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
@@ -6081,41 +6085,41 @@
         <v>89</v>
       </c>
       <c r="B382">
+        <v>337</v>
+      </c>
+      <c r="C382">
+        <v>48.486229000000002</v>
+      </c>
+      <c r="D382">
+        <v>-121.589558</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
+        <v>89</v>
+      </c>
+      <c r="B383">
         <v>338</v>
       </c>
-      <c r="C382">
+      <c r="C383">
         <v>48.486170999999999</v>
       </c>
-      <c r="D382">
+      <c r="D383">
         <v>-121.58953200000001</v>
       </c>
     </row>
-    <row r="383" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A383" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B383" s="11">
+    <row r="384" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A384" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B384" s="11">
         <v>339</v>
       </c>
-      <c r="C383" s="11">
+      <c r="C384" s="11">
         <v>48.350872000000003</v>
       </c>
-      <c r="D383" s="11">
+      <c r="D384" s="11">
         <v>-121.55139200000001</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A384" t="s">
-        <v>89</v>
-      </c>
-      <c r="B384">
-        <v>340</v>
-      </c>
-      <c r="C384">
-        <v>48.350879999999997</v>
-      </c>
-      <c r="D384">
-        <v>-121.551591</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.35">
@@ -6123,13 +6127,13 @@
         <v>89</v>
       </c>
       <c r="B385">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C385">
-        <v>48.351145000000002</v>
+        <v>48.350879999999997</v>
       </c>
       <c r="D385">
-        <v>-121.551526</v>
+        <v>-121.551591</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
@@ -6137,41 +6141,41 @@
         <v>89</v>
       </c>
       <c r="B386">
+        <v>341</v>
+      </c>
+      <c r="C386">
+        <v>48.351145000000002</v>
+      </c>
+      <c r="D386">
+        <v>-121.551526</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A387" t="s">
+        <v>89</v>
+      </c>
+      <c r="B387">
         <v>342</v>
       </c>
-      <c r="C386">
+      <c r="C387">
         <v>48.351019999999998</v>
       </c>
-      <c r="D386">
+      <c r="D387">
         <v>-121.55129100000001</v>
       </c>
     </row>
-    <row r="387" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A387" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B387" s="11">
+    <row r="388" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A388" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B388" s="11">
         <v>343</v>
       </c>
-      <c r="C387" s="11">
+      <c r="C388" s="11">
         <v>48.351008999999998</v>
       </c>
-      <c r="D387" s="11">
+      <c r="D388" s="11">
         <v>-121.551604</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A388" t="s">
-        <v>89</v>
-      </c>
-      <c r="B388">
-        <v>344</v>
-      </c>
-      <c r="C388">
-        <v>48.351562000000001</v>
-      </c>
-      <c r="D388">
-        <v>-121.551508</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
@@ -6179,13 +6183,13 @@
         <v>89</v>
       </c>
       <c r="B389">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C389">
-        <v>48.351461</v>
+        <v>48.351562000000001</v>
       </c>
       <c r="D389">
-        <v>-121.55141399999999</v>
+        <v>-121.551508</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.35">
@@ -6193,13 +6197,13 @@
         <v>89</v>
       </c>
       <c r="B390">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C390">
-        <v>48.351630999999998</v>
+        <v>48.351461</v>
       </c>
       <c r="D390">
-        <v>-121.55165700000001</v>
+        <v>-121.55141399999999</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.35">
@@ -6207,41 +6211,41 @@
         <v>89</v>
       </c>
       <c r="B391">
+        <v>346</v>
+      </c>
+      <c r="C391">
+        <v>48.351630999999998</v>
+      </c>
+      <c r="D391">
+        <v>-121.55165700000001</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
+        <v>89</v>
+      </c>
+      <c r="B392">
         <v>347</v>
       </c>
-      <c r="C391">
+      <c r="C392">
         <v>48.352632999999997</v>
       </c>
-      <c r="D391">
+      <c r="D392">
         <v>-121.552127</v>
       </c>
     </row>
-    <row r="392" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A392" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B392" s="11">
+    <row r="393" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A393" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B393" s="11">
         <v>348</v>
       </c>
-      <c r="C392" s="11">
+      <c r="C393" s="11">
         <v>48.353017999999999</v>
       </c>
-      <c r="D392" s="11">
+      <c r="D393" s="11">
         <v>-121.55206099999999</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A393" t="s">
-        <v>89</v>
-      </c>
-      <c r="B393">
-        <v>349</v>
-      </c>
-      <c r="C393">
-        <v>48.353065999999998</v>
-      </c>
-      <c r="D393">
-        <v>-121.552251</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.35">
@@ -6249,13 +6253,13 @@
         <v>89</v>
       </c>
       <c r="B394">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C394">
         <v>48.353065999999998</v>
       </c>
       <c r="D394">
-        <v>-121.55225299999999</v>
+        <v>-121.552251</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
@@ -6263,13 +6267,13 @@
         <v>89</v>
       </c>
       <c r="B395">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C395">
-        <v>48.353256999999999</v>
+        <v>48.353065999999998</v>
       </c>
       <c r="D395">
-        <v>-121.55217</v>
+        <v>-121.55225299999999</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.35">
@@ -6277,13 +6281,13 @@
         <v>89</v>
       </c>
       <c r="B396">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C396">
-        <v>48.353316</v>
+        <v>48.353256999999999</v>
       </c>
       <c r="D396">
-        <v>-121.552154</v>
+        <v>-121.55217</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
@@ -6291,13 +6295,13 @@
         <v>89</v>
       </c>
       <c r="B397">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C397">
-        <v>48.353304999999999</v>
+        <v>48.353316</v>
       </c>
       <c r="D397">
-        <v>-121.552136</v>
+        <v>-121.552154</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
@@ -6305,13 +6309,13 @@
         <v>89</v>
       </c>
       <c r="B398">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C398">
-        <v>48.353485999999997</v>
+        <v>48.353304999999999</v>
       </c>
       <c r="D398">
-        <v>-121.552497</v>
+        <v>-121.552136</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.35">
@@ -6319,13 +6323,13 @@
         <v>89</v>
       </c>
       <c r="B399">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C399">
-        <v>48.353411000000001</v>
+        <v>48.353485999999997</v>
       </c>
       <c r="D399">
-        <v>-121.552616</v>
+        <v>-121.552497</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.35">
@@ -6333,13 +6337,13 @@
         <v>89</v>
       </c>
       <c r="B400">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C400">
-        <v>48.353549000000001</v>
+        <v>48.353411000000001</v>
       </c>
       <c r="D400">
-        <v>-121.552482</v>
+        <v>-121.552616</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
@@ -6347,13 +6351,13 @@
         <v>89</v>
       </c>
       <c r="B401">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C401">
-        <v>48.353551000000003</v>
+        <v>48.353549000000001</v>
       </c>
       <c r="D401">
-        <v>-121.55244</v>
+        <v>-121.552482</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.35">
@@ -6361,13 +6365,13 @@
         <v>89</v>
       </c>
       <c r="B402">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C402">
-        <v>48.473525000000002</v>
+        <v>48.353551000000003</v>
       </c>
       <c r="D402">
-        <v>-121.557974</v>
+        <v>-121.55244</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.35">
@@ -6375,27 +6379,27 @@
         <v>89</v>
       </c>
       <c r="B403">
+        <v>358</v>
+      </c>
+      <c r="C403">
+        <v>48.473525000000002</v>
+      </c>
+      <c r="D403">
+        <v>-121.557974</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A404" t="s">
+        <v>89</v>
+      </c>
+      <c r="B404">
         <v>359</v>
       </c>
-      <c r="C403">
+      <c r="C404">
         <v>48.473289999999999</v>
       </c>
-      <c r="D403">
+      <c r="D404">
         <v>-121.558246</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A404" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B404" s="14">
-        <v>436</v>
-      </c>
-      <c r="C404" s="9">
-        <v>48.494250000000001</v>
-      </c>
-      <c r="D404" s="9">
-        <v>-121.53421</v>
       </c>
     </row>
     <row r="405" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -6403,13 +6407,13 @@
         <v>89</v>
       </c>
       <c r="B405" s="14">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C405" s="9">
-        <v>48.494239999999998</v>
+        <v>48.494250000000001</v>
       </c>
       <c r="D405" s="9">
-        <v>-121.53449000000001</v>
+        <v>-121.53421</v>
       </c>
     </row>
     <row r="406" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -6417,13 +6421,13 @@
         <v>89</v>
       </c>
       <c r="B406" s="14">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C406" s="9">
-        <v>48.494059999999998</v>
+        <v>48.494239999999998</v>
       </c>
       <c r="D406" s="9">
-        <v>-121.53514</v>
+        <v>-121.53449000000001</v>
       </c>
     </row>
     <row r="407" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -6431,12 +6435,26 @@
         <v>89</v>
       </c>
       <c r="B407" s="14">
+        <v>438</v>
+      </c>
+      <c r="C407" s="9">
+        <v>48.494059999999998</v>
+      </c>
+      <c r="D407" s="9">
+        <v>-121.53514</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A408" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B408" s="14">
         <v>439</v>
       </c>
-      <c r="C407" s="9">
+      <c r="C408" s="9">
         <v>48.493679999999998</v>
       </c>
-      <c r="D407" s="9">
+      <c r="D408" s="9">
         <v>-121.53740000000001</v>
       </c>
     </row>

--- a/Reports/Seasonal_Habitat_Landmark_Waypoints_2021_Final.xlsx
+++ b/Reports/Seasonal_Habitat_Landmark_Waypoints_2021_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Desktop\Box Sync\Thesis\Chinook Seasonal Floodplain Habitat\GitHub\seasonal-floodplains\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F63580-4916-46C9-B7BD-F254F9D57248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A9FA97-5CED-461B-A192-9C1A7803B428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5F03E6B5-5464-43F8-AED9-513F851700B6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="95">
   <si>
     <t>Latitude</t>
   </si>
@@ -723,11 +723,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF9064F-0344-4C21-823B-7B2564E6B2DB}">
-  <dimension ref="A1:G408"/>
+  <dimension ref="A1:G410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A190" sqref="A190:XFD190"/>
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2692,17 +2692,17 @@
         <v>-122.271598</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B140" s="3">
+    <row r="140" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B140" s="10">
         <v>58</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140" s="9">
         <v>48.480485999999999</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140" s="9">
         <v>-122.27196600000001</v>
       </c>
     </row>
@@ -3355,69 +3355,69 @@
         <v>89</v>
       </c>
       <c r="B187" s="13">
+        <v>116</v>
+      </c>
+      <c r="C187" s="12">
+        <v>48.497632000000003</v>
+      </c>
+      <c r="D187" s="12">
+        <v>-122.15154800000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B188" s="13">
         <v>125</v>
       </c>
-      <c r="C187" s="2">
+      <c r="C188" s="2">
         <v>48.366309000000001</v>
       </c>
-      <c r="D187" s="2">
+      <c r="D188" s="2">
         <v>-121.547241</v>
       </c>
     </row>
-    <row r="188" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B188" s="10">
+    <row r="189" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B189" s="10">
         <v>126</v>
       </c>
-      <c r="C188" s="9">
+      <c r="C189" s="9">
         <v>48.366123000000002</v>
       </c>
-      <c r="D188" s="9">
+      <c r="D189" s="9">
         <v>-121.546778</v>
       </c>
     </row>
-    <row r="189" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B189" s="13">
+    <row r="190" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B190" s="13">
         <v>128</v>
       </c>
-      <c r="C189" s="12">
+      <c r="C190" s="12">
         <v>48.365602000000003</v>
       </c>
-      <c r="D189" s="12">
+      <c r="D190" s="12">
         <v>-121.546019</v>
       </c>
     </row>
-    <row r="190" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B190" s="10">
+    <row r="191" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B191" s="10">
         <v>135</v>
       </c>
-      <c r="C190" s="9">
+      <c r="C191" s="9">
         <v>48.384366999999997</v>
       </c>
-      <c r="D190" s="9">
+      <c r="D191" s="9">
         <v>-121.560486</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A191" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B191" s="3">
-        <v>138</v>
-      </c>
-      <c r="C191" s="2">
-        <v>48.353960000000001</v>
-      </c>
-      <c r="D191" s="2">
-        <v>-121.55264</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
@@ -3425,13 +3425,13 @@
         <v>89</v>
       </c>
       <c r="B192" s="3">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C192" s="2">
-        <v>48.353765000000003</v>
+        <v>48.353960000000001</v>
       </c>
       <c r="D192" s="2">
-        <v>-121.552618</v>
+        <v>-121.55264</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
@@ -3439,13 +3439,13 @@
         <v>89</v>
       </c>
       <c r="B193" s="3">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C193" s="2">
-        <v>48.353721</v>
+        <v>48.353765000000003</v>
       </c>
       <c r="D193" s="2">
-        <v>-121.55254499999999</v>
+        <v>-121.552618</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
@@ -3453,13 +3453,13 @@
         <v>89</v>
       </c>
       <c r="B194" s="3">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C194" s="2">
-        <v>48.353634</v>
+        <v>48.353721</v>
       </c>
       <c r="D194" s="2">
-        <v>-121.552571</v>
+        <v>-121.55254499999999</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
@@ -3467,13 +3467,13 @@
         <v>89</v>
       </c>
       <c r="B195" s="3">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C195" s="2">
-        <v>48.353524</v>
+        <v>48.353634</v>
       </c>
       <c r="D195" s="2">
-        <v>-121.552351</v>
+        <v>-121.552571</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
@@ -3481,13 +3481,13 @@
         <v>89</v>
       </c>
       <c r="B196" s="3">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C196" s="2">
-        <v>48.353259999999999</v>
+        <v>48.353524</v>
       </c>
       <c r="D196" s="2">
-        <v>-121.55230299999999</v>
+        <v>-121.552351</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
@@ -3495,27 +3495,27 @@
         <v>89</v>
       </c>
       <c r="B197" s="3">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C197" s="2">
-        <v>48.352997999999999</v>
+        <v>48.353259999999999</v>
       </c>
       <c r="D197" s="2">
-        <v>-121.552277</v>
+        <v>-121.55230299999999</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B198" s="2">
-        <v>145</v>
+      <c r="B198" s="3">
+        <v>144</v>
       </c>
       <c r="C198" s="2">
-        <v>48.497284999999998</v>
+        <v>48.352997999999999</v>
       </c>
       <c r="D198" s="2">
-        <v>-121.465881</v>
+        <v>-121.552277</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
@@ -3523,13 +3523,13 @@
         <v>89</v>
       </c>
       <c r="B199" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C199" s="2">
-        <v>48.497262999999997</v>
+        <v>48.497284999999998</v>
       </c>
       <c r="D199" s="2">
-        <v>-121.465891</v>
+        <v>-121.465881</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
@@ -3537,13 +3537,13 @@
         <v>89</v>
       </c>
       <c r="B200" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C200" s="2">
-        <v>48.497315</v>
+        <v>48.497262999999997</v>
       </c>
       <c r="D200" s="2">
-        <v>-121.46591600000001</v>
+        <v>-121.465891</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
@@ -3551,13 +3551,13 @@
         <v>89</v>
       </c>
       <c r="B201" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C201" s="2">
-        <v>48.497323000000002</v>
+        <v>48.497315</v>
       </c>
       <c r="D201" s="2">
-        <v>-121.465946</v>
+        <v>-121.46591600000001</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
@@ -3565,13 +3565,13 @@
         <v>89</v>
       </c>
       <c r="B202" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C202" s="2">
-        <v>48.497422</v>
+        <v>48.497323000000002</v>
       </c>
       <c r="D202" s="2">
-        <v>-121.465974</v>
+        <v>-121.465946</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
@@ -3579,41 +3579,41 @@
         <v>89</v>
       </c>
       <c r="B203" s="2">
+        <v>149</v>
+      </c>
+      <c r="C203" s="2">
+        <v>48.497422</v>
+      </c>
+      <c r="D203" s="2">
+        <v>-121.465974</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A204" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B204" s="2">
         <v>150</v>
       </c>
-      <c r="C203" s="2">
+      <c r="C204" s="2">
         <v>48.497408</v>
       </c>
-      <c r="D203" s="2">
+      <c r="D204" s="2">
         <v>-121.465997</v>
       </c>
     </row>
-    <row r="204" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B204" s="9">
+    <row r="205" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B205" s="9">
         <v>151</v>
       </c>
-      <c r="C204" s="9">
+      <c r="C205" s="9">
         <v>48.497349</v>
       </c>
-      <c r="D204" s="9">
+      <c r="D205" s="9">
         <v>-121.466137</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A205" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B205" s="2">
-        <v>152</v>
-      </c>
-      <c r="C205" s="2">
-        <v>48.497042999999998</v>
-      </c>
-      <c r="D205" s="2">
-        <v>-121.466696</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
@@ -3621,13 +3621,13 @@
         <v>89</v>
       </c>
       <c r="B206" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C206" s="2">
-        <v>48.497086000000003</v>
+        <v>48.497042999999998</v>
       </c>
       <c r="D206" s="2">
-        <v>-121.466723</v>
+        <v>-121.466696</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
@@ -3635,13 +3635,13 @@
         <v>89</v>
       </c>
       <c r="B207" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C207" s="2">
-        <v>48.364921000000002</v>
+        <v>48.497086000000003</v>
       </c>
       <c r="D207" s="2">
-        <v>-121.544873</v>
+        <v>-121.466723</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
@@ -3649,13 +3649,13 @@
         <v>89</v>
       </c>
       <c r="B208" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C208" s="2">
-        <v>48.366118999999998</v>
+        <v>48.364921000000002</v>
       </c>
       <c r="D208" s="2">
-        <v>-121.54662500000001</v>
+        <v>-121.544873</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
@@ -3663,13 +3663,13 @@
         <v>89</v>
       </c>
       <c r="B209" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C209" s="2">
-        <v>48.366050999999999</v>
+        <v>48.366118999999998</v>
       </c>
       <c r="D209" s="2">
-        <v>-121.546576</v>
+        <v>-121.54662500000001</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
@@ -3677,13 +3677,13 @@
         <v>89</v>
       </c>
       <c r="B210" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C210" s="2">
-        <v>48.366010000000003</v>
+        <v>48.366050999999999</v>
       </c>
       <c r="D210" s="2">
-        <v>-121.54649000000001</v>
+        <v>-121.546576</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
@@ -3691,13 +3691,13 @@
         <v>89</v>
       </c>
       <c r="B211" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C211" s="2">
-        <v>48.366061999999999</v>
+        <v>48.366010000000003</v>
       </c>
       <c r="D211" s="2">
-        <v>-121.54637</v>
+        <v>-121.54649000000001</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
@@ -3705,13 +3705,13 @@
         <v>89</v>
       </c>
       <c r="B212" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C212" s="2">
-        <v>48.366030000000002</v>
+        <v>48.366061999999999</v>
       </c>
       <c r="D212" s="2">
-        <v>-121.546297</v>
+        <v>-121.54637</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
@@ -3719,13 +3719,13 @@
         <v>89</v>
       </c>
       <c r="B213" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C213" s="2">
-        <v>48.365972999999997</v>
+        <v>48.366030000000002</v>
       </c>
       <c r="D213" s="2">
-        <v>-121.54628099999999</v>
+        <v>-121.546297</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
@@ -3733,27 +3733,27 @@
         <v>89</v>
       </c>
       <c r="B214" s="2">
+        <v>160</v>
+      </c>
+      <c r="C214" s="2">
+        <v>48.365972999999997</v>
+      </c>
+      <c r="D214" s="2">
+        <v>-121.54628099999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A215" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B215" s="2">
         <v>161</v>
       </c>
-      <c r="C214" s="2">
+      <c r="C215" s="2">
         <v>48.365713999999997</v>
       </c>
-      <c r="D214" s="2">
+      <c r="D215" s="2">
         <v>-121.54604399999999</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B215" s="9">
-        <v>162</v>
-      </c>
-      <c r="C215" s="9">
-        <v>48.365721999999998</v>
-      </c>
-      <c r="D215" s="9">
-        <v>-121.54598900000001</v>
       </c>
     </row>
     <row r="216" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -3761,27 +3761,27 @@
         <v>89</v>
       </c>
       <c r="B216" s="9">
+        <v>162</v>
+      </c>
+      <c r="C216" s="9">
+        <v>48.365721999999998</v>
+      </c>
+      <c r="D216" s="9">
+        <v>-121.54598900000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B217" s="9">
         <v>163</v>
       </c>
-      <c r="C216" s="9">
+      <c r="C217" s="9">
         <v>48.365634</v>
       </c>
-      <c r="D216" s="9">
+      <c r="D217" s="9">
         <v>-121.54576299999999</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A217" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B217" s="2">
-        <v>164</v>
-      </c>
-      <c r="C217" s="2">
-        <v>48.476799999999997</v>
-      </c>
-      <c r="D217" s="2">
-        <v>-121.64369499999999</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
@@ -3789,13 +3789,13 @@
         <v>89</v>
       </c>
       <c r="B218" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C218" s="2">
-        <v>48.476759999999999</v>
+        <v>48.476799999999997</v>
       </c>
       <c r="D218" s="2">
-        <v>-121.643377</v>
+        <v>-121.64369499999999</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
@@ -3803,13 +3803,13 @@
         <v>89</v>
       </c>
       <c r="B219" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C219" s="2">
-        <v>48.476756999999999</v>
+        <v>48.476759999999999</v>
       </c>
       <c r="D219" s="2">
-        <v>-121.643417</v>
+        <v>-121.643377</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
@@ -3817,13 +3817,13 @@
         <v>89</v>
       </c>
       <c r="B220" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C220" s="2">
-        <v>48.476734999999998</v>
+        <v>48.476756999999999</v>
       </c>
       <c r="D220" s="2">
-        <v>-121.643306</v>
+        <v>-121.643417</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
@@ -3831,13 +3831,13 @@
         <v>89</v>
       </c>
       <c r="B221" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C221" s="2">
-        <v>48.476529999999997</v>
+        <v>48.476734999999998</v>
       </c>
       <c r="D221" s="2">
-        <v>-121.642929</v>
+        <v>-121.643306</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
@@ -3845,13 +3845,13 @@
         <v>89</v>
       </c>
       <c r="B222" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C222" s="2">
-        <v>48.476560999999997</v>
+        <v>48.476529999999997</v>
       </c>
       <c r="D222" s="2">
-        <v>-121.643034</v>
+        <v>-121.642929</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
@@ -3859,13 +3859,13 @@
         <v>89</v>
       </c>
       <c r="B223" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C223" s="2">
-        <v>48.476542000000002</v>
+        <v>48.476560999999997</v>
       </c>
       <c r="D223" s="2">
-        <v>-121.642563</v>
+        <v>-121.643034</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
@@ -3873,13 +3873,13 @@
         <v>89</v>
       </c>
       <c r="B224" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C224" s="2">
-        <v>48.476292999999998</v>
+        <v>48.476542000000002</v>
       </c>
       <c r="D224" s="2">
-        <v>-121.642285</v>
+        <v>-121.642563</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
@@ -3887,13 +3887,13 @@
         <v>89</v>
       </c>
       <c r="B225" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C225" s="2">
-        <v>48.513111000000002</v>
+        <v>48.476292999999998</v>
       </c>
       <c r="D225" s="2">
-        <v>-121.709901</v>
+        <v>-121.642285</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
@@ -3901,13 +3901,13 @@
         <v>89</v>
       </c>
       <c r="B226" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C226" s="2">
-        <v>48.513106999999998</v>
+        <v>48.513111000000002</v>
       </c>
       <c r="D226" s="2">
-        <v>-121.70983200000001</v>
+        <v>-121.709901</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
@@ -3915,13 +3915,13 @@
         <v>89</v>
       </c>
       <c r="B227" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C227" s="2">
-        <v>48.513125000000002</v>
+        <v>48.513106999999998</v>
       </c>
       <c r="D227" s="2">
-        <v>-121.709757</v>
+        <v>-121.70983200000001</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
@@ -3929,13 +3929,13 @@
         <v>89</v>
       </c>
       <c r="B228" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C228" s="2">
-        <v>48.512858000000001</v>
+        <v>48.513125000000002</v>
       </c>
       <c r="D228" s="2">
-        <v>-121.710024</v>
+        <v>-121.709757</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
@@ -3943,13 +3943,13 @@
         <v>89</v>
       </c>
       <c r="B229" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C229" s="2">
-        <v>48.512909000000001</v>
+        <v>48.512858000000001</v>
       </c>
       <c r="D229" s="2">
-        <v>-121.709836</v>
+        <v>-121.710024</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
@@ -3957,13 +3957,13 @@
         <v>89</v>
       </c>
       <c r="B230" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C230" s="2">
-        <v>48.512644999999999</v>
+        <v>48.512909000000001</v>
       </c>
       <c r="D230" s="2">
-        <v>-121.70998400000001</v>
+        <v>-121.709836</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
@@ -3971,13 +3971,13 @@
         <v>89</v>
       </c>
       <c r="B231" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C231" s="2">
-        <v>48.512227000000003</v>
+        <v>48.512644999999999</v>
       </c>
       <c r="D231" s="2">
-        <v>-121.710189</v>
+        <v>-121.70998400000001</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
@@ -3985,13 +3985,13 @@
         <v>89</v>
       </c>
       <c r="B232" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C232" s="2">
-        <v>48.512248999999997</v>
+        <v>48.512227000000003</v>
       </c>
       <c r="D232" s="2">
-        <v>-121.71023099999999</v>
+        <v>-121.710189</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
@@ -3999,27 +3999,27 @@
         <v>89</v>
       </c>
       <c r="B233" s="2">
+        <v>179</v>
+      </c>
+      <c r="C233" s="2">
+        <v>48.512248999999997</v>
+      </c>
+      <c r="D233" s="2">
+        <v>-121.71023099999999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A234" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B234" s="2">
         <v>181</v>
       </c>
-      <c r="C233" s="2">
+      <c r="C234" s="2">
         <v>48.485892</v>
       </c>
-      <c r="D233" s="2">
+      <c r="D234" s="2">
         <v>-121.59098899999999</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B234" s="9">
-        <v>182</v>
-      </c>
-      <c r="C234" s="9">
-        <v>48.48621</v>
-      </c>
-      <c r="D234" s="9">
-        <v>-121.59039900000001</v>
       </c>
     </row>
     <row r="235" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -4027,13 +4027,13 @@
         <v>89</v>
       </c>
       <c r="B235" s="9">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C235" s="9">
-        <v>48.486165999999997</v>
+        <v>48.48621</v>
       </c>
       <c r="D235" s="9">
-        <v>-121.589386</v>
+        <v>-121.59039900000001</v>
       </c>
     </row>
     <row r="236" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -4041,27 +4041,27 @@
         <v>89</v>
       </c>
       <c r="B236" s="9">
+        <v>183</v>
+      </c>
+      <c r="C236" s="9">
+        <v>48.486165999999997</v>
+      </c>
+      <c r="D236" s="9">
+        <v>-121.589386</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B237" s="9">
         <v>184</v>
       </c>
-      <c r="C236" s="9">
+      <c r="C237" s="9">
         <v>48.486001999999999</v>
       </c>
-      <c r="D236" s="9">
+      <c r="D237" s="9">
         <v>-121.58907000000001</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A237" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B237" s="2">
-        <v>189</v>
-      </c>
-      <c r="C237" s="2">
-        <v>48.515915999999997</v>
-      </c>
-      <c r="D237" s="2">
-        <v>-122.006714</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
@@ -4069,13 +4069,13 @@
         <v>89</v>
       </c>
       <c r="B238" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C238" s="2">
-        <v>48.515931999999999</v>
+        <v>48.515915999999997</v>
       </c>
       <c r="D238" s="2">
-        <v>-122.00670599999999</v>
+        <v>-122.006714</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
@@ -4083,13 +4083,13 @@
         <v>89</v>
       </c>
       <c r="B239" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C239" s="2">
-        <v>48.516241000000001</v>
+        <v>48.515931999999999</v>
       </c>
       <c r="D239" s="2">
-        <v>-122.006857</v>
+        <v>-122.00670599999999</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
@@ -4097,13 +4097,13 @@
         <v>89</v>
       </c>
       <c r="B240" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C240" s="2">
-        <v>48.516634000000003</v>
+        <v>48.516241000000001</v>
       </c>
       <c r="D240" s="2">
-        <v>-122.007296</v>
+        <v>-122.006857</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
@@ -4111,13 +4111,13 @@
         <v>89</v>
       </c>
       <c r="B241" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C241" s="2">
-        <v>48.515540999999999</v>
+        <v>48.516634000000003</v>
       </c>
       <c r="D241" s="2">
-        <v>-121.879868</v>
+        <v>-122.007296</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
@@ -4125,41 +4125,41 @@
         <v>89</v>
       </c>
       <c r="B242" s="2">
+        <v>193</v>
+      </c>
+      <c r="C242" s="2">
+        <v>48.515540999999999</v>
+      </c>
+      <c r="D242" s="2">
+        <v>-121.879868</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A243" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B243" s="2">
         <v>194</v>
       </c>
-      <c r="C242" s="2">
+      <c r="C243" s="2">
         <v>48.515208999999999</v>
       </c>
-      <c r="D242" s="2">
+      <c r="D243" s="2">
         <v>-121.880021</v>
       </c>
     </row>
-    <row r="243" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A243" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B243" s="9">
+    <row r="244" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B244" s="9">
         <v>195</v>
       </c>
-      <c r="C243" s="9">
+      <c r="C244" s="9">
         <v>48.515165000000003</v>
       </c>
-      <c r="D243" s="9">
+      <c r="D244" s="9">
         <v>-121.88000599999999</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A244" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B244" s="2">
-        <v>196</v>
-      </c>
-      <c r="C244" s="2">
-        <v>48.515180000000001</v>
-      </c>
-      <c r="D244" s="2">
-        <v>-121.880081</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
@@ -4167,13 +4167,13 @@
         <v>89</v>
       </c>
       <c r="B245" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C245" s="2">
-        <v>48.514980999999999</v>
+        <v>48.515180000000001</v>
       </c>
       <c r="D245" s="2">
-        <v>-121.88046199999999</v>
+        <v>-121.880081</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
@@ -4181,13 +4181,13 @@
         <v>89</v>
       </c>
       <c r="B246" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C246" s="2">
-        <v>48.515065</v>
+        <v>48.514980999999999</v>
       </c>
       <c r="D246" s="2">
-        <v>-121.88021500000001</v>
+        <v>-121.88046199999999</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
@@ -4195,13 +4195,13 @@
         <v>89</v>
       </c>
       <c r="B247" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C247" s="2">
-        <v>48.514797000000002</v>
+        <v>48.515065</v>
       </c>
       <c r="D247" s="2">
-        <v>-121.880172</v>
+        <v>-121.88021500000001</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
@@ -4209,13 +4209,13 @@
         <v>89</v>
       </c>
       <c r="B248" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C248" s="2">
-        <v>48.514800999999999</v>
+        <v>48.514797000000002</v>
       </c>
       <c r="D248" s="2">
-        <v>-121.88032699999999</v>
+        <v>-121.880172</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
@@ -4223,13 +4223,13 @@
         <v>89</v>
       </c>
       <c r="B249" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C249" s="2">
-        <v>48.514966999999999</v>
+        <v>48.514800999999999</v>
       </c>
       <c r="D249" s="2">
-        <v>-121.88042900000001</v>
+        <v>-121.88032699999999</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
@@ -4237,13 +4237,13 @@
         <v>89</v>
       </c>
       <c r="B250" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C250" s="2">
-        <v>48.514257999999998</v>
+        <v>48.514966999999999</v>
       </c>
       <c r="D250" s="2">
-        <v>-121.880703</v>
+        <v>-121.88042900000001</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
@@ -4251,13 +4251,13 @@
         <v>89</v>
       </c>
       <c r="B251" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C251" s="2">
-        <v>48.514259000000003</v>
+        <v>48.514257999999998</v>
       </c>
       <c r="D251" s="2">
-        <v>-121.880563</v>
+        <v>-121.880703</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
@@ -4265,13 +4265,13 @@
         <v>89</v>
       </c>
       <c r="B252" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C252" s="2">
-        <v>48.514232999999997</v>
+        <v>48.514259000000003</v>
       </c>
       <c r="D252" s="2">
-        <v>-121.88081699999999</v>
+        <v>-121.880563</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
@@ -4279,13 +4279,13 @@
         <v>89</v>
       </c>
       <c r="B253" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C253" s="2">
-        <v>48.514102999999999</v>
+        <v>48.514232999999997</v>
       </c>
       <c r="D253" s="2">
-        <v>-121.880892</v>
+        <v>-121.88081699999999</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
@@ -4293,13 +4293,13 @@
         <v>89</v>
       </c>
       <c r="B254" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C254" s="2">
-        <v>48.514028000000003</v>
+        <v>48.514102999999999</v>
       </c>
       <c r="D254" s="2">
-        <v>-121.880951</v>
+        <v>-121.880892</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
@@ -4307,13 +4307,13 @@
         <v>89</v>
       </c>
       <c r="B255" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C255" s="2">
-        <v>48.514114999999997</v>
+        <v>48.514028000000003</v>
       </c>
       <c r="D255" s="2">
-        <v>-121.881165</v>
+        <v>-121.880951</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
@@ -4321,13 +4321,13 @@
         <v>89</v>
       </c>
       <c r="B256" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C256" s="2">
-        <v>48.513893000000003</v>
+        <v>48.514114999999997</v>
       </c>
       <c r="D256" s="2">
-        <v>-121.881062</v>
+        <v>-121.881165</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
@@ -4335,13 +4335,13 @@
         <v>89</v>
       </c>
       <c r="B257" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C257" s="2">
-        <v>48.513719000000002</v>
+        <v>48.513893000000003</v>
       </c>
       <c r="D257" s="2">
-        <v>-121.88120600000001</v>
+        <v>-121.881062</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
@@ -4349,13 +4349,13 @@
         <v>89</v>
       </c>
       <c r="B258" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C258" s="2">
-        <v>48.486128000000001</v>
+        <v>48.513719000000002</v>
       </c>
       <c r="D258" s="2">
-        <v>-121.590261</v>
+        <v>-121.88120600000001</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
@@ -4363,13 +4363,13 @@
         <v>89</v>
       </c>
       <c r="B259" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C259" s="2">
-        <v>48.486133000000002</v>
+        <v>48.486128000000001</v>
       </c>
       <c r="D259" s="2">
-        <v>-121.59020700000001</v>
+        <v>-121.590261</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
@@ -4377,13 +4377,13 @@
         <v>89</v>
       </c>
       <c r="B260" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C260" s="2">
-        <v>48.486066999999998</v>
+        <v>48.486133000000002</v>
       </c>
       <c r="D260" s="2">
-        <v>-121.590165</v>
+        <v>-121.59020700000001</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
@@ -4391,13 +4391,13 @@
         <v>89</v>
       </c>
       <c r="B261" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C261" s="2">
-        <v>48.486044</v>
+        <v>48.486066999999998</v>
       </c>
       <c r="D261" s="2">
-        <v>-121.590158</v>
+        <v>-121.590165</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
@@ -4405,13 +4405,13 @@
         <v>89</v>
       </c>
       <c r="B262" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C262" s="2">
-        <v>48.486085000000003</v>
+        <v>48.486044</v>
       </c>
       <c r="D262" s="2">
-        <v>-121.590058</v>
+        <v>-121.590158</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
@@ -4419,13 +4419,13 @@
         <v>89</v>
       </c>
       <c r="B263" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C263" s="2">
-        <v>48.485993000000001</v>
+        <v>48.486085000000003</v>
       </c>
       <c r="D263" s="2">
-        <v>-121.590003</v>
+        <v>-121.590058</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
@@ -4433,13 +4433,13 @@
         <v>89</v>
       </c>
       <c r="B264" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C264" s="2">
-        <v>48.486044999999997</v>
+        <v>48.485993000000001</v>
       </c>
       <c r="D264" s="2">
-        <v>-121.589962</v>
+        <v>-121.590003</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
@@ -4447,13 +4447,13 @@
         <v>89</v>
       </c>
       <c r="B265" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C265" s="2">
-        <v>48.486066000000001</v>
+        <v>48.486044999999997</v>
       </c>
       <c r="D265" s="2">
-        <v>-121.58985699999999</v>
+        <v>-121.589962</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
@@ -4461,13 +4461,13 @@
         <v>89</v>
       </c>
       <c r="B266" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C266" s="2">
-        <v>48.486105999999999</v>
+        <v>48.486066000000001</v>
       </c>
       <c r="D266" s="2">
-        <v>-121.58991</v>
+        <v>-121.58985699999999</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
@@ -4475,13 +4475,13 @@
         <v>89</v>
       </c>
       <c r="B267" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C267" s="2">
-        <v>48.486038999999998</v>
+        <v>48.486105999999999</v>
       </c>
       <c r="D267" s="2">
-        <v>-121.589786</v>
+        <v>-121.58991</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
@@ -4489,13 +4489,13 @@
         <v>89</v>
       </c>
       <c r="B268" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C268" s="2">
-        <v>48.486089999999997</v>
+        <v>48.486038999999998</v>
       </c>
       <c r="D268" s="2">
-        <v>-121.58978399999999</v>
+        <v>-121.589786</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
@@ -4503,13 +4503,13 @@
         <v>89</v>
       </c>
       <c r="B269" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C269" s="2">
-        <v>48.486016999999997</v>
+        <v>48.486089999999997</v>
       </c>
       <c r="D269" s="2">
-        <v>-121.589708</v>
+        <v>-121.58978399999999</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
@@ -4517,13 +4517,13 @@
         <v>89</v>
       </c>
       <c r="B270" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C270" s="2">
-        <v>48.486198999999999</v>
+        <v>48.486016999999997</v>
       </c>
       <c r="D270" s="2">
-        <v>-121.58968</v>
+        <v>-121.589708</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
@@ -4531,13 +4531,13 @@
         <v>89</v>
       </c>
       <c r="B271" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C271" s="2">
-        <v>48.486094000000001</v>
+        <v>48.486198999999999</v>
       </c>
       <c r="D271" s="2">
-        <v>-121.589602</v>
+        <v>-121.58968</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
@@ -4545,13 +4545,13 @@
         <v>89</v>
       </c>
       <c r="B272" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C272" s="2">
-        <v>48.486072999999998</v>
+        <v>48.486094000000001</v>
       </c>
       <c r="D272" s="2">
-        <v>-121.58966100000001</v>
+        <v>-121.589602</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
@@ -4559,13 +4559,13 @@
         <v>89</v>
       </c>
       <c r="B273" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C273" s="2">
-        <v>48.486058</v>
+        <v>48.486072999999998</v>
       </c>
       <c r="D273" s="2">
-        <v>-121.58957100000001</v>
+        <v>-121.58966100000001</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
@@ -4573,13 +4573,13 @@
         <v>89</v>
       </c>
       <c r="B274" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C274" s="2">
-        <v>48.486109999999996</v>
+        <v>48.486058</v>
       </c>
       <c r="D274" s="2">
-        <v>-121.589422</v>
+        <v>-121.58957100000001</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
@@ -4587,13 +4587,13 @@
         <v>89</v>
       </c>
       <c r="B275" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C275" s="2">
-        <v>48.486055999999998</v>
+        <v>48.486109999999996</v>
       </c>
       <c r="D275" s="2">
-        <v>-121.58909</v>
+        <v>-121.589422</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
@@ -4601,13 +4601,13 @@
         <v>89</v>
       </c>
       <c r="B276" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C276" s="2">
-        <v>48.486040000000003</v>
+        <v>48.486055999999998</v>
       </c>
       <c r="D276" s="2">
-        <v>-121.58900199999999</v>
+        <v>-121.58909</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
@@ -4615,13 +4615,13 @@
         <v>89</v>
       </c>
       <c r="B277" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C277" s="2">
-        <v>48.485638000000002</v>
+        <v>48.486040000000003</v>
       </c>
       <c r="D277" s="2">
-        <v>-121.588987</v>
+        <v>-121.58900199999999</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
@@ -4629,13 +4629,13 @@
         <v>89</v>
       </c>
       <c r="B278" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C278" s="2">
-        <v>48.48556</v>
+        <v>48.485638000000002</v>
       </c>
       <c r="D278" s="2">
-        <v>-121.588855</v>
+        <v>-121.588987</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
@@ -4643,13 +4643,13 @@
         <v>89</v>
       </c>
       <c r="B279" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C279" s="2">
-        <v>48.485643000000003</v>
+        <v>48.48556</v>
       </c>
       <c r="D279" s="2">
-        <v>-121.58892299999999</v>
+        <v>-121.588855</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
@@ -4657,13 +4657,13 @@
         <v>89</v>
       </c>
       <c r="B280" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C280" s="2">
-        <v>48.485537999999998</v>
+        <v>48.485643000000003</v>
       </c>
       <c r="D280" s="2">
-        <v>-121.588887</v>
+        <v>-121.58892299999999</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
@@ -4671,13 +4671,13 @@
         <v>89</v>
       </c>
       <c r="B281" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C281" s="2">
-        <v>48.485568999999998</v>
+        <v>48.485537999999998</v>
       </c>
       <c r="D281" s="2">
-        <v>-121.58879899999999</v>
+        <v>-121.588887</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
@@ -4685,13 +4685,13 @@
         <v>89</v>
       </c>
       <c r="B282" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C282" s="2">
-        <v>48.486178000000002</v>
+        <v>48.485568999999998</v>
       </c>
       <c r="D282" s="2">
-        <v>-121.58985800000001</v>
+        <v>-121.58879899999999</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
@@ -4699,13 +4699,13 @@
         <v>89</v>
       </c>
       <c r="B283" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C283" s="2">
-        <v>48.538148999999997</v>
+        <v>48.486178000000002</v>
       </c>
       <c r="D283" s="2">
-        <v>-121.81778300000001</v>
+        <v>-121.58985800000001</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
@@ -4713,13 +4713,13 @@
         <v>89</v>
       </c>
       <c r="B284" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C284" s="2">
-        <v>48.537573999999999</v>
+        <v>48.538148999999997</v>
       </c>
       <c r="D284" s="2">
-        <v>-121.817784</v>
+        <v>-121.81778300000001</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
@@ -4727,13 +4727,13 @@
         <v>89</v>
       </c>
       <c r="B285" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C285" s="2">
-        <v>48.537056</v>
+        <v>48.537573999999999</v>
       </c>
       <c r="D285" s="2">
-        <v>-121.817975</v>
+        <v>-121.817784</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
@@ -4741,13 +4741,13 @@
         <v>89</v>
       </c>
       <c r="B286" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C286" s="2">
-        <v>48.537011</v>
+        <v>48.537056</v>
       </c>
       <c r="D286" s="2">
-        <v>-121.81749499999999</v>
+        <v>-121.817975</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
@@ -4755,13 +4755,13 @@
         <v>89</v>
       </c>
       <c r="B287" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C287" s="2">
-        <v>48.535997999999999</v>
+        <v>48.537011</v>
       </c>
       <c r="D287" s="2">
-        <v>-121.817279</v>
+        <v>-121.81749499999999</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
@@ -4769,13 +4769,13 @@
         <v>89</v>
       </c>
       <c r="B288" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C288" s="2">
-        <v>48.536290999999999</v>
+        <v>48.535997999999999</v>
       </c>
       <c r="D288" s="2">
-        <v>-121.81790700000001</v>
+        <v>-121.817279</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
@@ -4783,13 +4783,13 @@
         <v>89</v>
       </c>
       <c r="B289" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C289" s="2">
-        <v>48.535459000000003</v>
+        <v>48.536290999999999</v>
       </c>
       <c r="D289" s="2">
-        <v>-121.817443</v>
+        <v>-121.81790700000001</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
@@ -4797,13 +4797,13 @@
         <v>89</v>
       </c>
       <c r="B290" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C290" s="2">
-        <v>48.535274999999999</v>
+        <v>48.535459000000003</v>
       </c>
       <c r="D290" s="2">
-        <v>-121.81724</v>
+        <v>-121.817443</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
@@ -4811,13 +4811,13 @@
         <v>89</v>
       </c>
       <c r="B291" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C291" s="2">
-        <v>48.535026999999999</v>
+        <v>48.535274999999999</v>
       </c>
       <c r="D291" s="2">
-        <v>-121.817734</v>
+        <v>-121.81724</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
@@ -4825,13 +4825,13 @@
         <v>89</v>
       </c>
       <c r="B292" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C292" s="2">
-        <v>48.535001999999999</v>
+        <v>48.535026999999999</v>
       </c>
       <c r="D292" s="2">
-        <v>-121.81711</v>
+        <v>-121.817734</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
@@ -4839,13 +4839,13 @@
         <v>89</v>
       </c>
       <c r="B293" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C293" s="2">
-        <v>48.534528000000002</v>
+        <v>48.535001999999999</v>
       </c>
       <c r="D293" s="2">
-        <v>-121.817548</v>
+        <v>-121.81711</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
@@ -4853,13 +4853,13 @@
         <v>89</v>
       </c>
       <c r="B294" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C294" s="2">
-        <v>48.538569000000003</v>
+        <v>48.534528000000002</v>
       </c>
       <c r="D294" s="2">
-        <v>-121.81769799999999</v>
+        <v>-121.817548</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
@@ -4867,13 +4867,13 @@
         <v>89</v>
       </c>
       <c r="B295" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C295" s="2">
-        <v>48.538549000000003</v>
+        <v>48.538569000000003</v>
       </c>
       <c r="D295" s="2">
-        <v>-121.81756</v>
+        <v>-121.81769799999999</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
@@ -4881,27 +4881,27 @@
         <v>89</v>
       </c>
       <c r="B296" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C296" s="2">
-        <v>48.540405</v>
+        <v>48.538549000000003</v>
       </c>
       <c r="D296" s="2">
-        <v>-121.818438</v>
+        <v>-121.81756</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B297">
-        <v>250</v>
-      </c>
-      <c r="C297">
-        <v>48.515582000000002</v>
-      </c>
-      <c r="D297">
-        <v>-122.137444</v>
+      <c r="B297" s="2">
+        <v>249</v>
+      </c>
+      <c r="C297" s="2">
+        <v>48.540405</v>
+      </c>
+      <c r="D297" s="2">
+        <v>-121.818438</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
@@ -4909,13 +4909,13 @@
         <v>89</v>
       </c>
       <c r="B298">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C298">
-        <v>48.515664000000001</v>
+        <v>48.515582000000002</v>
       </c>
       <c r="D298">
-        <v>-122.13708099999999</v>
+        <v>-122.137444</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
@@ -4923,13 +4923,13 @@
         <v>89</v>
       </c>
       <c r="B299">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C299">
-        <v>48.515645999999997</v>
+        <v>48.515664000000001</v>
       </c>
       <c r="D299">
-        <v>-122.136931</v>
+        <v>-122.13708099999999</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.35">
@@ -4937,13 +4937,13 @@
         <v>89</v>
       </c>
       <c r="B300">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C300">
-        <v>48.515706000000002</v>
+        <v>48.515645999999997</v>
       </c>
       <c r="D300">
-        <v>-122.136735</v>
+        <v>-122.136931</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
@@ -4951,13 +4951,13 @@
         <v>89</v>
       </c>
       <c r="B301">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C301">
-        <v>48.523027999999996</v>
+        <v>48.515706000000002</v>
       </c>
       <c r="D301">
-        <v>-122.09708500000001</v>
+        <v>-122.136735</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
@@ -4965,13 +4965,13 @@
         <v>89</v>
       </c>
       <c r="B302">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C302">
-        <v>48.522559000000001</v>
+        <v>48.523027999999996</v>
       </c>
       <c r="D302">
-        <v>-122.104742</v>
+        <v>-122.09708500000001</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.35">
@@ -4979,13 +4979,13 @@
         <v>89</v>
       </c>
       <c r="B303">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C303">
-        <v>48.522629000000002</v>
+        <v>48.522559000000001</v>
       </c>
       <c r="D303">
-        <v>-122.10482500000001</v>
+        <v>-122.104742</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.35">
@@ -4993,13 +4993,13 @@
         <v>89</v>
       </c>
       <c r="B304">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C304">
-        <v>48.527442999999998</v>
+        <v>48.522629000000002</v>
       </c>
       <c r="D304">
-        <v>-121.75259</v>
+        <v>-122.10482500000001</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
@@ -5007,13 +5007,13 @@
         <v>89</v>
       </c>
       <c r="B305">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C305">
-        <v>48.527816000000001</v>
+        <v>48.527442999999998</v>
       </c>
       <c r="D305">
-        <v>-121.75205800000001</v>
+        <v>-121.75259</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.35">
@@ -5021,13 +5021,13 @@
         <v>89</v>
       </c>
       <c r="B306">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C306">
-        <v>48.527971000000001</v>
+        <v>48.527816000000001</v>
       </c>
       <c r="D306">
-        <v>-121.751892</v>
+        <v>-121.75205800000001</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
@@ -5035,13 +5035,13 @@
         <v>89</v>
       </c>
       <c r="B307">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C307">
-        <v>48.533273000000001</v>
+        <v>48.527971000000001</v>
       </c>
       <c r="D307">
-        <v>-121.818251</v>
+        <v>-121.751892</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
@@ -5049,13 +5049,13 @@
         <v>89</v>
       </c>
       <c r="B308">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C308">
-        <v>48.533605000000001</v>
+        <v>48.533273000000001</v>
       </c>
       <c r="D308">
-        <v>-121.818124</v>
+        <v>-121.818251</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.35">
@@ -5063,13 +5063,13 @@
         <v>89</v>
       </c>
       <c r="B309">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C309">
-        <v>48.484695000000002</v>
+        <v>48.533605000000001</v>
       </c>
       <c r="D309">
-        <v>-121.61359899999999</v>
+        <v>-121.818124</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
@@ -5077,13 +5077,13 @@
         <v>89</v>
       </c>
       <c r="B310">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C310">
-        <v>48.484690999999998</v>
+        <v>48.484695000000002</v>
       </c>
       <c r="D310">
-        <v>-121.613738</v>
+        <v>-121.61359899999999</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
@@ -5091,13 +5091,13 @@
         <v>89</v>
       </c>
       <c r="B311">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C311">
-        <v>48.484602000000002</v>
+        <v>48.484690999999998</v>
       </c>
       <c r="D311">
-        <v>-121.614114</v>
+        <v>-121.613738</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.35">
@@ -5105,13 +5105,13 @@
         <v>89</v>
       </c>
       <c r="B312">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C312">
-        <v>48.484623999999997</v>
+        <v>48.484602000000002</v>
       </c>
       <c r="D312">
-        <v>-121.614339</v>
+        <v>-121.614114</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.35">
@@ -5119,13 +5119,13 @@
         <v>89</v>
       </c>
       <c r="B313">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C313">
-        <v>48.480823000000001</v>
+        <v>48.484623999999997</v>
       </c>
       <c r="D313">
-        <v>-121.587673</v>
+        <v>-121.614339</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
@@ -5133,69 +5133,69 @@
         <v>89</v>
       </c>
       <c r="B314">
+        <v>266</v>
+      </c>
+      <c r="C314">
+        <v>48.480823000000001</v>
+      </c>
+      <c r="D314">
+        <v>-121.587673</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A315" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B315">
         <v>267</v>
       </c>
-      <c r="C314">
+      <c r="C315">
         <v>48.481059999999999</v>
       </c>
-      <c r="D314">
+      <c r="D315">
         <v>-121.587757</v>
       </c>
     </row>
-    <row r="315" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A315" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B315" s="11">
+    <row r="316" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B316" s="11">
         <v>268</v>
       </c>
-      <c r="C315" s="11">
+      <c r="C316" s="11">
         <v>48.481234999999998</v>
       </c>
-      <c r="D315" s="11">
+      <c r="D316" s="11">
         <v>-121.58769599999999</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A316" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B316">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A317" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B317">
         <v>269</v>
       </c>
-      <c r="C316">
+      <c r="C317">
         <v>48.481409999999997</v>
       </c>
-      <c r="D316">
+      <c r="D317">
         <v>-121.587661</v>
       </c>
     </row>
-    <row r="317" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A317" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B317" s="11">
+    <row r="318" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A318" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B318" s="11">
         <v>270</v>
       </c>
-      <c r="C317" s="11">
+      <c r="C318" s="11">
         <v>48.481679</v>
       </c>
-      <c r="D317" s="11">
+      <c r="D318" s="11">
         <v>-121.58765200000001</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A318" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B318">
-        <v>271</v>
-      </c>
-      <c r="C318">
-        <v>48.481814999999997</v>
-      </c>
-      <c r="D318">
-        <v>-121.587641</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
@@ -5203,13 +5203,13 @@
         <v>89</v>
       </c>
       <c r="B319">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C319">
-        <v>48.503050999999999</v>
+        <v>48.481814999999997</v>
       </c>
       <c r="D319">
-        <v>-121.718833</v>
+        <v>-121.587641</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
@@ -5217,13 +5217,13 @@
         <v>89</v>
       </c>
       <c r="B320">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C320">
-        <v>48.503205000000001</v>
+        <v>48.503050999999999</v>
       </c>
       <c r="D320">
-        <v>-121.718977</v>
+        <v>-121.718833</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.35">
@@ -5231,13 +5231,13 @@
         <v>89</v>
       </c>
       <c r="B321">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C321">
-        <v>48.487403999999998</v>
+        <v>48.503205000000001</v>
       </c>
       <c r="D321">
-        <v>-121.64868800000001</v>
+        <v>-121.718977</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.35">
@@ -5245,13 +5245,13 @@
         <v>89</v>
       </c>
       <c r="B322">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C322">
-        <v>48.48762</v>
+        <v>48.487403999999998</v>
       </c>
       <c r="D322">
-        <v>-121.649019</v>
+        <v>-121.64868800000001</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
@@ -5259,13 +5259,13 @@
         <v>89</v>
       </c>
       <c r="B323">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C323">
-        <v>48.487774000000002</v>
+        <v>48.48762</v>
       </c>
       <c r="D323">
-        <v>-121.64917800000001</v>
+        <v>-121.649019</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.35">
@@ -5273,13 +5273,13 @@
         <v>89</v>
       </c>
       <c r="B324">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C324">
-        <v>48.487994</v>
+        <v>48.487774000000002</v>
       </c>
       <c r="D324">
-        <v>-121.649433</v>
+        <v>-121.64917800000001</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.35">
@@ -5287,13 +5287,13 @@
         <v>89</v>
       </c>
       <c r="B325">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C325">
-        <v>48.488106999999999</v>
+        <v>48.487994</v>
       </c>
       <c r="D325">
-        <v>-121.649393</v>
+        <v>-121.649433</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
@@ -5301,13 +5301,13 @@
         <v>89</v>
       </c>
       <c r="B326">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C326">
-        <v>48.488177</v>
+        <v>48.488106999999999</v>
       </c>
       <c r="D326">
-        <v>-121.649573</v>
+        <v>-121.649393</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.35">
@@ -5315,13 +5315,13 @@
         <v>89</v>
       </c>
       <c r="B327">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C327">
-        <v>48.488235000000003</v>
+        <v>48.488177</v>
       </c>
       <c r="D327">
-        <v>-121.649624</v>
+        <v>-121.649573</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.35">
@@ -5329,13 +5329,13 @@
         <v>89</v>
       </c>
       <c r="B328">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C328">
-        <v>48.488337000000001</v>
+        <v>48.488235000000003</v>
       </c>
       <c r="D328">
-        <v>-121.64959</v>
+        <v>-121.649624</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
@@ -5343,13 +5343,13 @@
         <v>89</v>
       </c>
       <c r="B329">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C329">
-        <v>48.488163999999998</v>
+        <v>48.488337000000001</v>
       </c>
       <c r="D329">
-        <v>-121.649608</v>
+        <v>-121.64959</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.35">
@@ -5357,13 +5357,13 @@
         <v>89</v>
       </c>
       <c r="B330">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C330">
-        <v>48.488348000000002</v>
+        <v>48.488163999999998</v>
       </c>
       <c r="D330">
-        <v>-121.64962199999999</v>
+        <v>-121.649608</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.35">
@@ -5371,13 +5371,13 @@
         <v>89</v>
       </c>
       <c r="B331">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C331">
-        <v>48.488539000000003</v>
+        <v>48.488348000000002</v>
       </c>
       <c r="D331">
-        <v>-121.649877</v>
+        <v>-121.64962199999999</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
@@ -5385,13 +5385,13 @@
         <v>89</v>
       </c>
       <c r="B332">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C332">
-        <v>48.488624999999999</v>
+        <v>48.488539000000003</v>
       </c>
       <c r="D332">
-        <v>-121.65013500000001</v>
+        <v>-121.649877</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.35">
@@ -5399,13 +5399,13 @@
         <v>89</v>
       </c>
       <c r="B333">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C333">
-        <v>48.503030000000003</v>
+        <v>48.488624999999999</v>
       </c>
       <c r="D333">
-        <v>-121.718829</v>
+        <v>-121.65013500000001</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.35">
@@ -5413,13 +5413,13 @@
         <v>89</v>
       </c>
       <c r="B334">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C334">
-        <v>48.527329000000002</v>
+        <v>48.503030000000003</v>
       </c>
       <c r="D334">
-        <v>-121.749999</v>
+        <v>-121.718829</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
@@ -5427,13 +5427,13 @@
         <v>89</v>
       </c>
       <c r="B335">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C335">
-        <v>48.527717000000003</v>
+        <v>48.527329000000002</v>
       </c>
       <c r="D335">
-        <v>-121.749509</v>
+        <v>-121.749999</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.35">
@@ -5441,13 +5441,13 @@
         <v>89</v>
       </c>
       <c r="B336">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C336">
-        <v>48.527937000000001</v>
+        <v>48.527717000000003</v>
       </c>
       <c r="D336">
-        <v>-121.74912399999999</v>
+        <v>-121.749509</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.35">
@@ -5455,13 +5455,13 @@
         <v>89</v>
       </c>
       <c r="B337">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C337">
-        <v>48.528343999999997</v>
+        <v>48.527937000000001</v>
       </c>
       <c r="D337">
-        <v>-121.74866299999999</v>
+        <v>-121.74912399999999</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
@@ -5469,41 +5469,41 @@
         <v>89</v>
       </c>
       <c r="B338">
+        <v>290</v>
+      </c>
+      <c r="C338">
+        <v>48.528343999999997</v>
+      </c>
+      <c r="D338">
+        <v>-121.74866299999999</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A339" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B339">
         <v>291</v>
       </c>
-      <c r="C338">
+      <c r="C339">
         <v>48.528528999999999</v>
       </c>
-      <c r="D338">
+      <c r="D339">
         <v>-121.74753200000001</v>
       </c>
     </row>
-    <row r="339" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A339" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B339" s="11">
+    <row r="340" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A340" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B340" s="11">
         <v>292</v>
       </c>
-      <c r="C339" s="11">
+      <c r="C340" s="11">
         <v>48.472003999999998</v>
       </c>
-      <c r="D339" s="11">
+      <c r="D340" s="11">
         <v>-122.285893</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A340" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B340">
-        <v>293</v>
-      </c>
-      <c r="C340">
-        <v>48.478256999999999</v>
-      </c>
-      <c r="D340">
-        <v>-122.275356</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
@@ -5511,55 +5511,55 @@
         <v>89</v>
       </c>
       <c r="B341">
+        <v>293</v>
+      </c>
+      <c r="C341">
+        <v>48.478256999999999</v>
+      </c>
+      <c r="D341">
+        <v>-122.275356</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A342" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B342" s="11">
         <v>294</v>
       </c>
-      <c r="C341">
+      <c r="C342" s="11">
         <v>48.493402000000003</v>
       </c>
-      <c r="D341">
+      <c r="D342" s="11">
         <v>-122.19202799999999</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A342" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B342">
+    <row r="343" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A343" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B343" s="11">
         <v>295</v>
       </c>
-      <c r="C342">
+      <c r="C343" s="11">
         <v>48.488377</v>
       </c>
-      <c r="D342">
+      <c r="D343" s="11">
         <v>-122.16024299999999</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A343" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B343">
+    <row r="344" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B344" s="11">
         <v>296</v>
       </c>
-      <c r="C343">
+      <c r="C344" s="11">
         <v>48.488450999999998</v>
       </c>
-      <c r="D343">
+      <c r="D344" s="11">
         <v>-122.159278</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A344" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B344">
-        <v>297</v>
-      </c>
-      <c r="C344">
-        <v>48.512653</v>
-      </c>
-      <c r="D344">
-        <v>-122.080733</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
@@ -5567,13 +5567,13 @@
         <v>89</v>
       </c>
       <c r="B345">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C345">
-        <v>48.527771999999999</v>
+        <v>48.512653</v>
       </c>
       <c r="D345">
-        <v>-121.74947899999999</v>
+        <v>-122.080733</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
@@ -5581,13 +5581,13 @@
         <v>89</v>
       </c>
       <c r="B346">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C346">
-        <v>48.528429000000003</v>
+        <v>48.527771999999999</v>
       </c>
       <c r="D346">
-        <v>-121.747694</v>
+        <v>-121.74947899999999</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
@@ -5595,13 +5595,13 @@
         <v>89</v>
       </c>
       <c r="B347">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C347">
-        <v>48.528016000000001</v>
+        <v>48.528429000000003</v>
       </c>
       <c r="D347">
-        <v>-121.749303</v>
+        <v>-121.747694</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
@@ -5609,13 +5609,13 @@
         <v>89</v>
       </c>
       <c r="B348">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C348">
-        <v>48.528185000000001</v>
+        <v>48.528016000000001</v>
       </c>
       <c r="D348">
-        <v>-121.74846100000001</v>
+        <v>-121.749303</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.35">
@@ -5623,13 +5623,13 @@
         <v>89</v>
       </c>
       <c r="B349">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C349">
-        <v>48.528381000000003</v>
+        <v>48.528185000000001</v>
       </c>
       <c r="D349">
-        <v>-121.748192</v>
+        <v>-121.74846100000001</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
@@ -5637,13 +5637,13 @@
         <v>89</v>
       </c>
       <c r="B350">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C350">
-        <v>48.528146999999997</v>
+        <v>48.528381000000003</v>
       </c>
       <c r="D350">
-        <v>-121.748824</v>
+        <v>-121.748192</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.35">
@@ -5651,13 +5651,13 @@
         <v>89</v>
       </c>
       <c r="B351">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C351">
-        <v>48.513182</v>
+        <v>48.528146999999997</v>
       </c>
       <c r="D351">
-        <v>-121.710078</v>
+        <v>-121.748824</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
@@ -5665,27 +5665,27 @@
         <v>89</v>
       </c>
       <c r="B352">
+        <v>304</v>
+      </c>
+      <c r="C352">
+        <v>48.513182</v>
+      </c>
+      <c r="D352">
+        <v>-121.710078</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A353" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B353">
         <v>305</v>
       </c>
-      <c r="C352">
+      <c r="C353">
         <v>48.513052000000002</v>
       </c>
-      <c r="D352">
+      <c r="D353">
         <v>-121.709778</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A353" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B353" s="11">
-        <v>306</v>
-      </c>
-      <c r="C353" s="11">
-        <v>48.493481000000003</v>
-      </c>
-      <c r="D353" s="11">
-        <v>-121.53885200000001</v>
       </c>
     </row>
     <row r="354" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5693,13 +5693,13 @@
         <v>89</v>
       </c>
       <c r="B354" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C354" s="11">
-        <v>48.493257999999997</v>
+        <v>48.493481000000003</v>
       </c>
       <c r="D354" s="11">
-        <v>-121.53928500000001</v>
+        <v>-121.53885200000001</v>
       </c>
     </row>
     <row r="355" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5707,13 +5707,13 @@
         <v>89</v>
       </c>
       <c r="B355" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C355" s="11">
-        <v>48.493205000000003</v>
+        <v>48.493257999999997</v>
       </c>
       <c r="D355" s="11">
-        <v>-121.539917</v>
+        <v>-121.53928500000001</v>
       </c>
     </row>
     <row r="356" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5721,41 +5721,41 @@
         <v>89</v>
       </c>
       <c r="B356" s="11">
+        <v>308</v>
+      </c>
+      <c r="C356" s="11">
+        <v>48.493205000000003</v>
+      </c>
+      <c r="D356" s="11">
+        <v>-121.539917</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A357" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B357" s="11">
         <v>309</v>
       </c>
-      <c r="C356" s="11">
+      <c r="C357" s="11">
         <v>48.492963000000003</v>
       </c>
-      <c r="D356" s="11">
+      <c r="D357" s="11">
         <v>-121.54064</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A357" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B357">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A358" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B358">
         <v>310</v>
       </c>
-      <c r="C357">
+      <c r="C358">
         <v>48.493471999999997</v>
       </c>
-      <c r="D357">
+      <c r="D358">
         <v>-121.53907599999999</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A358" t="s">
-        <v>89</v>
-      </c>
-      <c r="B358">
-        <v>313</v>
-      </c>
-      <c r="C358">
-        <v>48.513010999999999</v>
-      </c>
-      <c r="D358">
-        <v>-121.70989400000001</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
@@ -5763,13 +5763,13 @@
         <v>89</v>
       </c>
       <c r="B359">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C359">
-        <v>48.512836</v>
+        <v>48.513010999999999</v>
       </c>
       <c r="D359">
-        <v>-121.709947</v>
+        <v>-121.70989400000001</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.35">
@@ -5777,13 +5777,13 @@
         <v>89</v>
       </c>
       <c r="B360">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C360">
-        <v>48.512669000000002</v>
+        <v>48.512836</v>
       </c>
       <c r="D360">
-        <v>-121.71006199999999</v>
+        <v>-121.709947</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
@@ -5791,13 +5791,13 @@
         <v>89</v>
       </c>
       <c r="B361">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C361">
-        <v>48.512484999999998</v>
+        <v>48.512669000000002</v>
       </c>
       <c r="D361">
-        <v>-121.710112</v>
+        <v>-121.71006199999999</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
@@ -5805,13 +5805,13 @@
         <v>89</v>
       </c>
       <c r="B362">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C362">
-        <v>48.512345000000003</v>
+        <v>48.512484999999998</v>
       </c>
       <c r="D362">
-        <v>-121.710182</v>
+        <v>-121.710112</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.35">
@@ -5819,13 +5819,13 @@
         <v>89</v>
       </c>
       <c r="B363">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C363">
-        <v>48.512281000000002</v>
+        <v>48.512345000000003</v>
       </c>
       <c r="D363">
-        <v>-121.71007299999999</v>
+        <v>-121.710182</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.35">
@@ -5833,13 +5833,13 @@
         <v>89</v>
       </c>
       <c r="B364">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C364">
-        <v>48.512239000000001</v>
+        <v>48.512281000000002</v>
       </c>
       <c r="D364">
-        <v>-121.710258</v>
+        <v>-121.71007299999999</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
@@ -5847,13 +5847,13 @@
         <v>89</v>
       </c>
       <c r="B365">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C365">
-        <v>48.513035000000002</v>
+        <v>48.512239000000001</v>
       </c>
       <c r="D365">
-        <v>-121.709914</v>
+        <v>-121.710258</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.35">
@@ -5861,13 +5861,13 @@
         <v>89</v>
       </c>
       <c r="B366">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C366">
-        <v>48.486179</v>
+        <v>48.513035000000002</v>
       </c>
       <c r="D366">
-        <v>-121.59041000000001</v>
+        <v>-121.709914</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.35">
@@ -5875,13 +5875,13 @@
         <v>89</v>
       </c>
       <c r="B367">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C367">
-        <v>48.486196</v>
+        <v>48.486179</v>
       </c>
       <c r="D367">
-        <v>-121.59023999999999</v>
+        <v>-121.59041000000001</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
@@ -5889,13 +5889,13 @@
         <v>89</v>
       </c>
       <c r="B368">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C368">
-        <v>48.486207</v>
+        <v>48.486196</v>
       </c>
       <c r="D368">
-        <v>-121.590363</v>
+        <v>-121.59023999999999</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.35">
@@ -5903,13 +5903,13 @@
         <v>89</v>
       </c>
       <c r="B369">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C369">
-        <v>48.486212999999999</v>
+        <v>48.486207</v>
       </c>
       <c r="D369">
-        <v>-121.59026</v>
+        <v>-121.590363</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.35">
@@ -5917,13 +5917,13 @@
         <v>89</v>
       </c>
       <c r="B370">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C370">
-        <v>48.486248000000003</v>
+        <v>48.486212999999999</v>
       </c>
       <c r="D370">
-        <v>-121.59023000000001</v>
+        <v>-121.59026</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
@@ -5931,13 +5931,13 @@
         <v>89</v>
       </c>
       <c r="B371">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C371">
-        <v>48.486212999999999</v>
+        <v>48.486248000000003</v>
       </c>
       <c r="D371">
-        <v>-121.59018500000001</v>
+        <v>-121.59023000000001</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.35">
@@ -5945,13 +5945,13 @@
         <v>89</v>
       </c>
       <c r="B372">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C372">
-        <v>48.486196</v>
+        <v>48.486212999999999</v>
       </c>
       <c r="D372">
-        <v>-121.590107</v>
+        <v>-121.59018500000001</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.35">
@@ -5959,13 +5959,13 @@
         <v>89</v>
       </c>
       <c r="B373">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C373">
-        <v>48.486215999999999</v>
+        <v>48.486196</v>
       </c>
       <c r="D373">
-        <v>-121.590074</v>
+        <v>-121.590107</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
@@ -5973,13 +5973,13 @@
         <v>89</v>
       </c>
       <c r="B374">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C374">
-        <v>48.486221</v>
+        <v>48.486215999999999</v>
       </c>
       <c r="D374">
-        <v>-121.589996</v>
+        <v>-121.590074</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.35">
@@ -5987,13 +5987,13 @@
         <v>89</v>
       </c>
       <c r="B375">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C375">
-        <v>48.486176</v>
+        <v>48.486221</v>
       </c>
       <c r="D375">
-        <v>-121.589918</v>
+        <v>-121.589996</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.35">
@@ -6001,13 +6001,13 @@
         <v>89</v>
       </c>
       <c r="B376">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C376">
-        <v>48.486230999999997</v>
+        <v>48.486176</v>
       </c>
       <c r="D376">
-        <v>-121.589911</v>
+        <v>-121.589918</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
@@ -6015,13 +6015,13 @@
         <v>89</v>
       </c>
       <c r="B377">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C377">
-        <v>48.486190999999998</v>
+        <v>48.486230999999997</v>
       </c>
       <c r="D377">
-        <v>-121.589794</v>
+        <v>-121.589911</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.35">
@@ -6029,13 +6029,13 @@
         <v>89</v>
       </c>
       <c r="B378">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C378">
-        <v>48.486119000000002</v>
+        <v>48.486190999999998</v>
       </c>
       <c r="D378">
-        <v>-121.58977899999999</v>
+        <v>-121.589794</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
@@ -6043,13 +6043,13 @@
         <v>89</v>
       </c>
       <c r="B379">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C379">
-        <v>48.486105999999999</v>
+        <v>48.486119000000002</v>
       </c>
       <c r="D379">
-        <v>-121.589733</v>
+        <v>-121.58977899999999</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
@@ -6057,13 +6057,13 @@
         <v>89</v>
       </c>
       <c r="B380">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C380">
-        <v>48.486192000000003</v>
+        <v>48.486105999999999</v>
       </c>
       <c r="D380">
-        <v>-121.589617</v>
+        <v>-121.589733</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.35">
@@ -6071,13 +6071,13 @@
         <v>89</v>
       </c>
       <c r="B381">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C381">
-        <v>48.486246999999999</v>
+        <v>48.486192000000003</v>
       </c>
       <c r="D381">
-        <v>-121.589564</v>
+        <v>-121.589617</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
@@ -6085,13 +6085,13 @@
         <v>89</v>
       </c>
       <c r="B382">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C382">
-        <v>48.486229000000002</v>
+        <v>48.486246999999999</v>
       </c>
       <c r="D382">
-        <v>-121.589558</v>
+        <v>-121.589564</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
@@ -6099,41 +6099,41 @@
         <v>89</v>
       </c>
       <c r="B383">
+        <v>337</v>
+      </c>
+      <c r="C383">
+        <v>48.486229000000002</v>
+      </c>
+      <c r="D383">
+        <v>-121.589558</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A384" t="s">
+        <v>89</v>
+      </c>
+      <c r="B384">
         <v>338</v>
       </c>
-      <c r="C383">
+      <c r="C384">
         <v>48.486170999999999</v>
       </c>
-      <c r="D383">
+      <c r="D384">
         <v>-121.58953200000001</v>
       </c>
     </row>
-    <row r="384" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A384" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B384" s="11">
+    <row r="385" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A385" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B385" s="11">
         <v>339</v>
       </c>
-      <c r="C384" s="11">
+      <c r="C385" s="11">
         <v>48.350872000000003</v>
       </c>
-      <c r="D384" s="11">
+      <c r="D385" s="11">
         <v>-121.55139200000001</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A385" t="s">
-        <v>89</v>
-      </c>
-      <c r="B385">
-        <v>340</v>
-      </c>
-      <c r="C385">
-        <v>48.350879999999997</v>
-      </c>
-      <c r="D385">
-        <v>-121.551591</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
@@ -6141,13 +6141,13 @@
         <v>89</v>
       </c>
       <c r="B386">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C386">
-        <v>48.351145000000002</v>
+        <v>48.350879999999997</v>
       </c>
       <c r="D386">
-        <v>-121.551526</v>
+        <v>-121.551591</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.35">
@@ -6155,41 +6155,41 @@
         <v>89</v>
       </c>
       <c r="B387">
+        <v>341</v>
+      </c>
+      <c r="C387">
+        <v>48.351145000000002</v>
+      </c>
+      <c r="D387">
+        <v>-121.551526</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A388" t="s">
+        <v>89</v>
+      </c>
+      <c r="B388">
         <v>342</v>
       </c>
-      <c r="C387">
+      <c r="C388">
         <v>48.351019999999998</v>
       </c>
-      <c r="D387">
+      <c r="D388">
         <v>-121.55129100000001</v>
       </c>
     </row>
-    <row r="388" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A388" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B388" s="11">
+    <row r="389" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A389" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B389" s="11">
         <v>343</v>
       </c>
-      <c r="C388" s="11">
+      <c r="C389" s="11">
         <v>48.351008999999998</v>
       </c>
-      <c r="D388" s="11">
+      <c r="D389" s="11">
         <v>-121.551604</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A389" t="s">
-        <v>89</v>
-      </c>
-      <c r="B389">
-        <v>344</v>
-      </c>
-      <c r="C389">
-        <v>48.351562000000001</v>
-      </c>
-      <c r="D389">
-        <v>-121.551508</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.35">
@@ -6197,13 +6197,13 @@
         <v>89</v>
       </c>
       <c r="B390">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C390">
-        <v>48.351461</v>
+        <v>48.351562000000001</v>
       </c>
       <c r="D390">
-        <v>-121.55141399999999</v>
+        <v>-121.551508</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.35">
@@ -6211,13 +6211,13 @@
         <v>89</v>
       </c>
       <c r="B391">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C391">
-        <v>48.351630999999998</v>
+        <v>48.351461</v>
       </c>
       <c r="D391">
-        <v>-121.55165700000001</v>
+        <v>-121.55141399999999</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
@@ -6225,41 +6225,41 @@
         <v>89</v>
       </c>
       <c r="B392">
+        <v>346</v>
+      </c>
+      <c r="C392">
+        <v>48.351630999999998</v>
+      </c>
+      <c r="D392">
+        <v>-121.55165700000001</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
+        <v>89</v>
+      </c>
+      <c r="B393">
         <v>347</v>
       </c>
-      <c r="C392">
+      <c r="C393">
         <v>48.352632999999997</v>
       </c>
-      <c r="D392">
+      <c r="D393">
         <v>-121.552127</v>
       </c>
     </row>
-    <row r="393" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A393" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B393" s="11">
+    <row r="394" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A394" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B394" s="11">
         <v>348</v>
       </c>
-      <c r="C393" s="11">
+      <c r="C394" s="11">
         <v>48.353017999999999</v>
       </c>
-      <c r="D393" s="11">
+      <c r="D394" s="11">
         <v>-121.55206099999999</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A394" t="s">
-        <v>89</v>
-      </c>
-      <c r="B394">
-        <v>349</v>
-      </c>
-      <c r="C394">
-        <v>48.353065999999998</v>
-      </c>
-      <c r="D394">
-        <v>-121.552251</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
@@ -6267,13 +6267,13 @@
         <v>89</v>
       </c>
       <c r="B395">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C395">
         <v>48.353065999999998</v>
       </c>
       <c r="D395">
-        <v>-121.55225299999999</v>
+        <v>-121.552251</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.35">
@@ -6281,13 +6281,13 @@
         <v>89</v>
       </c>
       <c r="B396">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C396">
-        <v>48.353256999999999</v>
+        <v>48.353065999999998</v>
       </c>
       <c r="D396">
-        <v>-121.55217</v>
+        <v>-121.55225299999999</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
@@ -6295,13 +6295,13 @@
         <v>89</v>
       </c>
       <c r="B397">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C397">
-        <v>48.353316</v>
+        <v>48.353256999999999</v>
       </c>
       <c r="D397">
-        <v>-121.552154</v>
+        <v>-121.55217</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
@@ -6309,13 +6309,13 @@
         <v>89</v>
       </c>
       <c r="B398">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C398">
-        <v>48.353304999999999</v>
+        <v>48.353316</v>
       </c>
       <c r="D398">
-        <v>-121.552136</v>
+        <v>-121.552154</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.35">
@@ -6323,13 +6323,13 @@
         <v>89</v>
       </c>
       <c r="B399">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C399">
-        <v>48.353485999999997</v>
+        <v>48.353304999999999</v>
       </c>
       <c r="D399">
-        <v>-121.552497</v>
+        <v>-121.552136</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.35">
@@ -6337,13 +6337,13 @@
         <v>89</v>
       </c>
       <c r="B400">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C400">
-        <v>48.353411000000001</v>
+        <v>48.353485999999997</v>
       </c>
       <c r="D400">
-        <v>-121.552616</v>
+        <v>-121.552497</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
@@ -6351,13 +6351,13 @@
         <v>89</v>
       </c>
       <c r="B401">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C401">
-        <v>48.353549000000001</v>
+        <v>48.353411000000001</v>
       </c>
       <c r="D401">
-        <v>-121.552482</v>
+        <v>-121.552616</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.35">
@@ -6365,13 +6365,13 @@
         <v>89</v>
       </c>
       <c r="B402">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C402">
-        <v>48.353551000000003</v>
+        <v>48.353549000000001</v>
       </c>
       <c r="D402">
-        <v>-121.55244</v>
+        <v>-121.552482</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.35">
@@ -6379,13 +6379,13 @@
         <v>89</v>
       </c>
       <c r="B403">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C403">
-        <v>48.473525000000002</v>
+        <v>48.353551000000003</v>
       </c>
       <c r="D403">
-        <v>-121.557974</v>
+        <v>-121.55244</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
@@ -6393,27 +6393,27 @@
         <v>89</v>
       </c>
       <c r="B404">
+        <v>358</v>
+      </c>
+      <c r="C404">
+        <v>48.473525000000002</v>
+      </c>
+      <c r="D404">
+        <v>-121.557974</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A405" t="s">
+        <v>89</v>
+      </c>
+      <c r="B405">
         <v>359</v>
       </c>
-      <c r="C404">
+      <c r="C405">
         <v>48.473289999999999</v>
       </c>
-      <c r="D404">
+      <c r="D405">
         <v>-121.558246</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A405" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B405" s="14">
-        <v>436</v>
-      </c>
-      <c r="C405" s="9">
-        <v>48.494250000000001</v>
-      </c>
-      <c r="D405" s="9">
-        <v>-121.53421</v>
       </c>
     </row>
     <row r="406" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -6421,13 +6421,13 @@
         <v>89</v>
       </c>
       <c r="B406" s="14">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C406" s="9">
-        <v>48.494239999999998</v>
+        <v>48.494250000000001</v>
       </c>
       <c r="D406" s="9">
-        <v>-121.53449000000001</v>
+        <v>-121.53421</v>
       </c>
     </row>
     <row r="407" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -6435,13 +6435,13 @@
         <v>89</v>
       </c>
       <c r="B407" s="14">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C407" s="9">
-        <v>48.494059999999998</v>
+        <v>48.494239999999998</v>
       </c>
       <c r="D407" s="9">
-        <v>-121.53514</v>
+        <v>-121.53449000000001</v>
       </c>
     </row>
     <row r="408" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -6449,13 +6449,41 @@
         <v>89</v>
       </c>
       <c r="B408" s="14">
+        <v>438</v>
+      </c>
+      <c r="C408" s="9">
+        <v>48.494059999999998</v>
+      </c>
+      <c r="D408" s="9">
+        <v>-121.53514</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A409" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B409" s="14">
         <v>439</v>
       </c>
-      <c r="C408" s="9">
+      <c r="C409" s="9">
         <v>48.493679999999998</v>
       </c>
-      <c r="D408" s="9">
+      <c r="D409" s="9">
         <v>-121.53740000000001</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A410" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B410" s="14">
+        <v>440</v>
+      </c>
+      <c r="C410" s="9">
+        <v>48.493439000000002</v>
+      </c>
+      <c r="D410" s="9">
+        <v>-122.191467</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Seasonal_Habitat_Landmark_Waypoints_2021_Final.xlsx
+++ b/Reports/Seasonal_Habitat_Landmark_Waypoints_2021_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Desktop\Box Sync\Thesis\Chinook Seasonal Floodplain Habitat\GitHub\seasonal-floodplains\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A9FA97-5CED-461B-A192-9C1A7803B428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AE150F-AFA2-4A2B-9F62-7AA693F3406C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5F03E6B5-5464-43F8-AED9-513F851700B6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="95">
   <si>
     <t>Latitude</t>
   </si>
@@ -325,7 +325,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +342,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -373,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -409,6 +416,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,11 +733,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF9064F-0344-4C21-823B-7B2564E6B2DB}">
-  <dimension ref="A1:G410"/>
+  <dimension ref="A1:G414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D187" sqref="D187"/>
+      <pane ySplit="1" topLeftCell="A410" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C414" sqref="C414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1096,17 +1106,17 @@
         <v>-121.49390200000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="5" t="s">
+    <row r="26" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="16">
         <v>48.512604000000003</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="16">
         <v>-121.88041200000001</v>
       </c>
     </row>
@@ -1180,17 +1190,17 @@
         <v>-121.877431</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="5" t="s">
+    <row r="32" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="16">
         <v>48.512684999999998</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="16">
         <v>-121.87742299999999</v>
       </c>
     </row>
@@ -1222,31 +1232,31 @@
         <v>-121.87608400000001</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" s="5" t="s">
+    <row r="35" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="16">
         <v>48.513381000000003</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="16">
         <v>-121.878229</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" s="5" t="s">
+    <row r="36" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="16">
         <v>48.512594999999997</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="16">
         <v>-121.88074</v>
       </c>
     </row>
@@ -1418,17 +1428,17 @@
         <v>-121.873385</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49" s="5" t="s">
+    <row r="49" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="16">
         <v>48.515383</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="16">
         <v>-121.871781</v>
       </c>
     </row>
@@ -4218,17 +4228,17 @@
         <v>-121.880172</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A249" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B249" s="2">
+    <row r="249" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B249" s="9">
         <v>200</v>
       </c>
-      <c r="C249" s="2">
+      <c r="C249" s="9">
         <v>48.514800999999999</v>
       </c>
-      <c r="D249" s="2">
+      <c r="D249" s="9">
         <v>-121.88032699999999</v>
       </c>
     </row>
@@ -4246,17 +4256,17 @@
         <v>-121.88042900000001</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A251" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B251" s="2">
+    <row r="251" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B251" s="9">
         <v>202</v>
       </c>
-      <c r="C251" s="2">
+      <c r="C251" s="9">
         <v>48.514257999999998</v>
       </c>
-      <c r="D251" s="2">
+      <c r="D251" s="9">
         <v>-121.880703</v>
       </c>
     </row>
@@ -4960,31 +4970,31 @@
         <v>-122.136735</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A302" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B302">
+    <row r="302" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B302" s="11">
         <v>254</v>
       </c>
-      <c r="C302">
+      <c r="C302" s="11">
         <v>48.523027999999996</v>
       </c>
-      <c r="D302">
+      <c r="D302" s="11">
         <v>-122.09708500000001</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A303" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B303">
+    <row r="303" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B303" s="11">
         <v>255</v>
       </c>
-      <c r="C303">
+      <c r="C303" s="11">
         <v>48.522559000000001</v>
       </c>
-      <c r="D303">
+      <c r="D303" s="11">
         <v>-122.104742</v>
       </c>
     </row>
@@ -6484,6 +6494,56 @@
       </c>
       <c r="D410" s="9">
         <v>-122.191467</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A411" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B411" s="14">
+        <v>441</v>
+      </c>
+      <c r="C411" s="17">
+        <v>48.52704</v>
+      </c>
+      <c r="D411" s="17">
+        <v>-122.006179</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A412" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B412" s="14">
+        <v>442</v>
+      </c>
+      <c r="C412" s="17">
+        <v>48.526088000000001</v>
+      </c>
+      <c r="D412" s="17">
+        <v>-122.005256</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A413" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B413" s="14">
+        <v>443</v>
+      </c>
+      <c r="C413" s="17">
+        <v>48.523373999999997</v>
+      </c>
+      <c r="D413" s="17">
+        <v>-121.99828599999999</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A414" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B414" s="1">
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Seasonal_Habitat_Landmark_Waypoints_2021_Final.xlsx
+++ b/Reports/Seasonal_Habitat_Landmark_Waypoints_2021_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Desktop\Box Sync\Thesis\Chinook Seasonal Floodplain Habitat\GitHub\seasonal-floodplains\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AE150F-AFA2-4A2B-9F62-7AA693F3406C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D69677C-4826-4693-AC45-1C71D93CC299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5F03E6B5-5464-43F8-AED9-513F851700B6}"/>
   </bookViews>
@@ -736,8 +736,8 @@
   <dimension ref="A1:G414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A410" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C414" sqref="C414"/>
+      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O297" sqref="O297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4900,17 +4900,17 @@
         <v>-121.81756</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A297" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B297" s="2">
+    <row r="297" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B297" s="9">
         <v>249</v>
       </c>
-      <c r="C297" s="2">
+      <c r="C297" s="9">
         <v>48.540405</v>
       </c>
-      <c r="D297" s="2">
+      <c r="D297" s="9">
         <v>-121.818438</v>
       </c>
     </row>
@@ -5054,31 +5054,31 @@
         <v>-121.751892</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A308" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B308">
+    <row r="308" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B308" s="11">
         <v>260</v>
       </c>
-      <c r="C308">
+      <c r="C308" s="11">
         <v>48.533273000000001</v>
       </c>
-      <c r="D308">
+      <c r="D308" s="11">
         <v>-121.818251</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A309" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B309">
+    <row r="309" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A309" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B309" s="11">
         <v>261</v>
       </c>
-      <c r="C309">
+      <c r="C309" s="11">
         <v>48.533605000000001</v>
       </c>
-      <c r="D309">
+      <c r="D309" s="11">
         <v>-121.818124</v>
       </c>
     </row>
@@ -6538,12 +6538,18 @@
         <v>-121.99828599999999</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A414" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B414" s="1">
+      <c r="B414" s="14">
         <v>444</v>
+      </c>
+      <c r="C414" s="17">
+        <v>48.515411</v>
+      </c>
+      <c r="D414" s="17">
+        <v>-121.87087200000001</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Seasonal_Habitat_Landmark_Waypoints_2021_Final.xlsx
+++ b/Reports/Seasonal_Habitat_Landmark_Waypoints_2021_Final.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Desktop\Box Sync\Thesis\Chinook Seasonal Floodplain Habitat\GitHub\seasonal-floodplains\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D69677C-4826-4693-AC45-1C71D93CC299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448A26A2-4B95-4116-90C0-D109608AFA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5F03E6B5-5464-43F8-AED9-513F851700B6}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{5F03E6B5-5464-43F8-AED9-513F851700B6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="All" sheetId="1" r:id="rId1"/>
+    <sheet name="Selected" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="141">
   <si>
     <t>Latitude</t>
   </si>
@@ -319,6 +320,144 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>DeBay's Slough</t>
+  </si>
+  <si>
+    <t>AAB</t>
+  </si>
+  <si>
+    <t>Sauk RBK Slough Complex</t>
+  </si>
+  <si>
+    <t>AAC</t>
+  </si>
+  <si>
+    <t>Sauk Boat Launch Slough</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>Howard Miller Steelhead Park Slough</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>Martin Slough</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>LBK Skagit Side Channel</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>False Lucas Slough</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>Backwater LBK Skagit</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>Large Backwater RBK Skagit</t>
+  </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>Floral Lane Oxbow</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>Sauk LBK Slough</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Hart Island Slough</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Deadman/Skiyou Slough</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>West of Stevens Creek</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Duffy Road Slough</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Minkler Lake</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Davis Slough</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Carey's Slough</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Savage Slough</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Hurn Field Slough</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Little Baker Slough</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Thunderbird Lane Slough</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Off-channel LBK Skagit</t>
   </si>
 </sst>
 </file>
@@ -380,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -417,6 +556,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -733,11 +882,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF9064F-0344-4C21-823B-7B2564E6B2DB}">
-  <dimension ref="A1:G414"/>
+  <dimension ref="A1:G416"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O297" sqref="O297"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E279" sqref="E279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3360,17 +3509,17 @@
         <v>-122.286027</v>
       </c>
     </row>
-    <row r="187" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B187" s="13">
+    <row r="187" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B187" s="10">
         <v>116</v>
       </c>
-      <c r="C187" s="12">
+      <c r="C187" s="9">
         <v>48.497632000000003</v>
       </c>
-      <c r="D187" s="12">
+      <c r="D187" s="9">
         <v>-122.15154800000001</v>
       </c>
     </row>
@@ -4074,32 +4223,32 @@
         <v>-121.58907000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A238" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B238" s="2">
-        <v>189</v>
-      </c>
-      <c r="C238" s="2">
-        <v>48.515915999999997</v>
-      </c>
-      <c r="D238" s="2">
-        <v>-122.006714</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A239" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B239" s="2">
-        <v>190</v>
-      </c>
-      <c r="C239" s="2">
-        <v>48.515931999999999</v>
-      </c>
-      <c r="D239" s="2">
-        <v>-122.00670599999999</v>
+    <row r="238" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B238" s="9">
+        <v>187</v>
+      </c>
+      <c r="C238" s="9">
+        <v>48.50141</v>
+      </c>
+      <c r="D238" s="9">
+        <v>-121.503771</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B239" s="9">
+        <v>188</v>
+      </c>
+      <c r="C239" s="9">
+        <v>48.501323999999997</v>
+      </c>
+      <c r="D239" s="9">
+        <v>-121.503259</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
@@ -4107,13 +4256,13 @@
         <v>89</v>
       </c>
       <c r="B240" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C240" s="2">
-        <v>48.516241000000001</v>
+        <v>48.515915999999997</v>
       </c>
       <c r="D240" s="2">
-        <v>-122.006857</v>
+        <v>-122.006714</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
@@ -4121,13 +4270,13 @@
         <v>89</v>
       </c>
       <c r="B241" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C241" s="2">
-        <v>48.516634000000003</v>
+        <v>48.515931999999999</v>
       </c>
       <c r="D241" s="2">
-        <v>-122.007296</v>
+        <v>-122.00670599999999</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
@@ -4135,13 +4284,13 @@
         <v>89</v>
       </c>
       <c r="B242" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C242" s="2">
-        <v>48.515540999999999</v>
+        <v>48.516241000000001</v>
       </c>
       <c r="D242" s="2">
-        <v>-121.879868</v>
+        <v>-122.006857</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
@@ -4149,27 +4298,27 @@
         <v>89</v>
       </c>
       <c r="B243" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C243" s="2">
-        <v>48.515208999999999</v>
+        <v>48.516634000000003</v>
       </c>
       <c r="D243" s="2">
-        <v>-121.880021</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A244" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B244" s="9">
-        <v>195</v>
-      </c>
-      <c r="C244" s="9">
-        <v>48.515165000000003</v>
-      </c>
-      <c r="D244" s="9">
-        <v>-121.88000599999999</v>
+        <v>-122.007296</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A244" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B244" s="2">
+        <v>193</v>
+      </c>
+      <c r="C244" s="2">
+        <v>48.515540999999999</v>
+      </c>
+      <c r="D244" s="2">
+        <v>-121.879868</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
@@ -4177,27 +4326,27 @@
         <v>89</v>
       </c>
       <c r="B245" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C245" s="2">
-        <v>48.515180000000001</v>
+        <v>48.515208999999999</v>
       </c>
       <c r="D245" s="2">
-        <v>-121.880081</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A246" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B246" s="2">
-        <v>197</v>
-      </c>
-      <c r="C246" s="2">
-        <v>48.514980999999999</v>
-      </c>
-      <c r="D246" s="2">
-        <v>-121.88046199999999</v>
+        <v>-121.880021</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B246" s="9">
+        <v>195</v>
+      </c>
+      <c r="C246" s="9">
+        <v>48.515165000000003</v>
+      </c>
+      <c r="D246" s="9">
+        <v>-121.88000599999999</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
@@ -4205,13 +4354,13 @@
         <v>89</v>
       </c>
       <c r="B247" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C247" s="2">
-        <v>48.515065</v>
+        <v>48.515180000000001</v>
       </c>
       <c r="D247" s="2">
-        <v>-121.88021500000001</v>
+        <v>-121.880081</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
@@ -4219,27 +4368,27 @@
         <v>89</v>
       </c>
       <c r="B248" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C248" s="2">
-        <v>48.514797000000002</v>
+        <v>48.514980999999999</v>
       </c>
       <c r="D248" s="2">
-        <v>-121.880172</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B249" s="9">
-        <v>200</v>
-      </c>
-      <c r="C249" s="9">
-        <v>48.514800999999999</v>
-      </c>
-      <c r="D249" s="9">
-        <v>-121.88032699999999</v>
+        <v>-121.88046199999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A249" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B249" s="2">
+        <v>198</v>
+      </c>
+      <c r="C249" s="2">
+        <v>48.515065</v>
+      </c>
+      <c r="D249" s="2">
+        <v>-121.88021500000001</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
@@ -4247,13 +4396,13 @@
         <v>89</v>
       </c>
       <c r="B250" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C250" s="2">
-        <v>48.514966999999999</v>
+        <v>48.514797000000002</v>
       </c>
       <c r="D250" s="2">
-        <v>-121.88042900000001</v>
+        <v>-121.880172</v>
       </c>
     </row>
     <row r="251" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -4261,13 +4410,13 @@
         <v>89</v>
       </c>
       <c r="B251" s="9">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C251" s="9">
-        <v>48.514257999999998</v>
+        <v>48.514800999999999</v>
       </c>
       <c r="D251" s="9">
-        <v>-121.880703</v>
+        <v>-121.88032699999999</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
@@ -4275,27 +4424,27 @@
         <v>89</v>
       </c>
       <c r="B252" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C252" s="2">
-        <v>48.514259000000003</v>
+        <v>48.514966999999999</v>
       </c>
       <c r="D252" s="2">
-        <v>-121.880563</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A253" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B253" s="2">
-        <v>204</v>
-      </c>
-      <c r="C253" s="2">
-        <v>48.514232999999997</v>
-      </c>
-      <c r="D253" s="2">
-        <v>-121.88081699999999</v>
+        <v>-121.88042900000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B253" s="9">
+        <v>202</v>
+      </c>
+      <c r="C253" s="9">
+        <v>48.514257999999998</v>
+      </c>
+      <c r="D253" s="9">
+        <v>-121.880703</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
@@ -4303,13 +4452,13 @@
         <v>89</v>
       </c>
       <c r="B254" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C254" s="2">
-        <v>48.514102999999999</v>
+        <v>48.514259000000003</v>
       </c>
       <c r="D254" s="2">
-        <v>-121.880892</v>
+        <v>-121.880563</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
@@ -4317,13 +4466,13 @@
         <v>89</v>
       </c>
       <c r="B255" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C255" s="2">
-        <v>48.514028000000003</v>
+        <v>48.514232999999997</v>
       </c>
       <c r="D255" s="2">
-        <v>-121.880951</v>
+        <v>-121.88081699999999</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
@@ -4331,13 +4480,13 @@
         <v>89</v>
       </c>
       <c r="B256" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C256" s="2">
-        <v>48.514114999999997</v>
+        <v>48.514102999999999</v>
       </c>
       <c r="D256" s="2">
-        <v>-121.881165</v>
+        <v>-121.880892</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
@@ -4345,13 +4494,13 @@
         <v>89</v>
       </c>
       <c r="B257" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C257" s="2">
-        <v>48.513893000000003</v>
+        <v>48.514028000000003</v>
       </c>
       <c r="D257" s="2">
-        <v>-121.881062</v>
+        <v>-121.880951</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
@@ -4359,27 +4508,27 @@
         <v>89</v>
       </c>
       <c r="B258" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C258" s="2">
-        <v>48.513719000000002</v>
+        <v>48.514114999999997</v>
       </c>
       <c r="D258" s="2">
-        <v>-121.88120600000001</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A259" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B259" s="2">
-        <v>210</v>
-      </c>
-      <c r="C259" s="2">
-        <v>48.486128000000001</v>
-      </c>
-      <c r="D259" s="2">
-        <v>-121.590261</v>
+        <v>-121.881165</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A259" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B259" s="12">
+        <v>208</v>
+      </c>
+      <c r="C259" s="12">
+        <v>48.513893000000003</v>
+      </c>
+      <c r="D259" s="12">
+        <v>-121.881062</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
@@ -4387,13 +4536,13 @@
         <v>89</v>
       </c>
       <c r="B260" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C260" s="2">
-        <v>48.486133000000002</v>
+        <v>48.513719000000002</v>
       </c>
       <c r="D260" s="2">
-        <v>-121.59020700000001</v>
+        <v>-121.88120600000001</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
@@ -4401,13 +4550,13 @@
         <v>89</v>
       </c>
       <c r="B261" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C261" s="2">
-        <v>48.486066999999998</v>
+        <v>48.486128000000001</v>
       </c>
       <c r="D261" s="2">
-        <v>-121.590165</v>
+        <v>-121.590261</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
@@ -4415,13 +4564,13 @@
         <v>89</v>
       </c>
       <c r="B262" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C262" s="2">
-        <v>48.486044</v>
+        <v>48.486133000000002</v>
       </c>
       <c r="D262" s="2">
-        <v>-121.590158</v>
+        <v>-121.59020700000001</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
@@ -4429,13 +4578,13 @@
         <v>89</v>
       </c>
       <c r="B263" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C263" s="2">
-        <v>48.486085000000003</v>
+        <v>48.486066999999998</v>
       </c>
       <c r="D263" s="2">
-        <v>-121.590058</v>
+        <v>-121.590165</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
@@ -4443,27 +4592,27 @@
         <v>89</v>
       </c>
       <c r="B264" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C264" s="2">
-        <v>48.485993000000001</v>
+        <v>48.486044</v>
       </c>
       <c r="D264" s="2">
-        <v>-121.590003</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A265" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B265" s="2">
-        <v>216</v>
-      </c>
-      <c r="C265" s="2">
-        <v>48.486044999999997</v>
-      </c>
-      <c r="D265" s="2">
-        <v>-121.589962</v>
+        <v>-121.590158</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B265" s="12">
+        <v>214</v>
+      </c>
+      <c r="C265" s="12">
+        <v>48.486085000000003</v>
+      </c>
+      <c r="D265" s="12">
+        <v>-121.590058</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
@@ -4471,13 +4620,13 @@
         <v>89</v>
       </c>
       <c r="B266" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C266" s="2">
-        <v>48.486066000000001</v>
+        <v>48.485993000000001</v>
       </c>
       <c r="D266" s="2">
-        <v>-121.58985699999999</v>
+        <v>-121.590003</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
@@ -4485,41 +4634,41 @@
         <v>89</v>
       </c>
       <c r="B267" s="2">
+        <v>216</v>
+      </c>
+      <c r="C267" s="2">
+        <v>48.486044999999997</v>
+      </c>
+      <c r="D267" s="2">
+        <v>-121.589962</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B268" s="12">
+        <v>217</v>
+      </c>
+      <c r="C268" s="12">
+        <v>48.486066000000001</v>
+      </c>
+      <c r="D268" s="12">
+        <v>-121.58985699999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B269" s="12">
         <v>218</v>
       </c>
-      <c r="C267" s="2">
+      <c r="C269" s="12">
         <v>48.486105999999999</v>
       </c>
-      <c r="D267" s="2">
+      <c r="D269" s="12">
         <v>-121.58991</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A268" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B268" s="2">
-        <v>219</v>
-      </c>
-      <c r="C268" s="2">
-        <v>48.486038999999998</v>
-      </c>
-      <c r="D268" s="2">
-        <v>-121.589786</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A269" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B269" s="2">
-        <v>220</v>
-      </c>
-      <c r="C269" s="2">
-        <v>48.486089999999997</v>
-      </c>
-      <c r="D269" s="2">
-        <v>-121.58978399999999</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
@@ -4527,13 +4676,13 @@
         <v>89</v>
       </c>
       <c r="B270" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C270" s="2">
-        <v>48.486016999999997</v>
+        <v>48.486038999999998</v>
       </c>
       <c r="D270" s="2">
-        <v>-121.589708</v>
+        <v>-121.589786</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
@@ -4541,13 +4690,13 @@
         <v>89</v>
       </c>
       <c r="B271" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C271" s="2">
-        <v>48.486198999999999</v>
+        <v>48.486089999999997</v>
       </c>
       <c r="D271" s="2">
-        <v>-121.58968</v>
+        <v>-121.58978399999999</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
@@ -4555,13 +4704,13 @@
         <v>89</v>
       </c>
       <c r="B272" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C272" s="2">
-        <v>48.486094000000001</v>
+        <v>48.486016999999997</v>
       </c>
       <c r="D272" s="2">
-        <v>-121.589602</v>
+        <v>-121.589708</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
@@ -4569,13 +4718,13 @@
         <v>89</v>
       </c>
       <c r="B273" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C273" s="2">
-        <v>48.486072999999998</v>
+        <v>48.486198999999999</v>
       </c>
       <c r="D273" s="2">
-        <v>-121.58966100000001</v>
+        <v>-121.58968</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
@@ -4583,13 +4732,13 @@
         <v>89</v>
       </c>
       <c r="B274" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C274" s="2">
-        <v>48.486058</v>
+        <v>48.486094000000001</v>
       </c>
       <c r="D274" s="2">
-        <v>-121.58957100000001</v>
+        <v>-121.589602</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
@@ -4597,13 +4746,13 @@
         <v>89</v>
       </c>
       <c r="B275" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C275" s="2">
-        <v>48.486109999999996</v>
+        <v>48.486072999999998</v>
       </c>
       <c r="D275" s="2">
-        <v>-121.589422</v>
+        <v>-121.58966100000001</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
@@ -4611,13 +4760,13 @@
         <v>89</v>
       </c>
       <c r="B276" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C276" s="2">
-        <v>48.486055999999998</v>
+        <v>48.486058</v>
       </c>
       <c r="D276" s="2">
-        <v>-121.58909</v>
+        <v>-121.58957100000001</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
@@ -4625,13 +4774,13 @@
         <v>89</v>
       </c>
       <c r="B277" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C277" s="2">
-        <v>48.486040000000003</v>
+        <v>48.486109999999996</v>
       </c>
       <c r="D277" s="2">
-        <v>-121.58900199999999</v>
+        <v>-121.589422</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
@@ -4639,13 +4788,13 @@
         <v>89</v>
       </c>
       <c r="B278" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C278" s="2">
-        <v>48.485638000000002</v>
+        <v>48.486055999999998</v>
       </c>
       <c r="D278" s="2">
-        <v>-121.588987</v>
+        <v>-121.58909</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
@@ -4653,13 +4802,13 @@
         <v>89</v>
       </c>
       <c r="B279" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C279" s="2">
-        <v>48.48556</v>
+        <v>48.486040000000003</v>
       </c>
       <c r="D279" s="2">
-        <v>-121.588855</v>
+        <v>-121.58900199999999</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
@@ -4667,13 +4816,13 @@
         <v>89</v>
       </c>
       <c r="B280" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C280" s="2">
-        <v>48.485643000000003</v>
+        <v>48.485638000000002</v>
       </c>
       <c r="D280" s="2">
-        <v>-121.58892299999999</v>
+        <v>-121.588987</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
@@ -4681,27 +4830,27 @@
         <v>89</v>
       </c>
       <c r="B281" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C281" s="2">
-        <v>48.485537999999998</v>
+        <v>48.48556</v>
       </c>
       <c r="D281" s="2">
-        <v>-121.588887</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A282" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B282" s="2">
-        <v>233</v>
-      </c>
-      <c r="C282" s="2">
-        <v>48.485568999999998</v>
-      </c>
-      <c r="D282" s="2">
-        <v>-121.58879899999999</v>
+        <v>-121.588855</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B282" s="12">
+        <v>231</v>
+      </c>
+      <c r="C282" s="12">
+        <v>48.485643000000003</v>
+      </c>
+      <c r="D282" s="12">
+        <v>-121.58892299999999</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
@@ -4709,13 +4858,13 @@
         <v>89</v>
       </c>
       <c r="B283" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C283" s="2">
-        <v>48.486178000000002</v>
+        <v>48.485537999999998</v>
       </c>
       <c r="D283" s="2">
-        <v>-121.58985800000001</v>
+        <v>-121.588887</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
@@ -4723,13 +4872,13 @@
         <v>89</v>
       </c>
       <c r="B284" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C284" s="2">
-        <v>48.538148999999997</v>
+        <v>48.485568999999998</v>
       </c>
       <c r="D284" s="2">
-        <v>-121.81778300000001</v>
+        <v>-121.58879899999999</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
@@ -4737,13 +4886,13 @@
         <v>89</v>
       </c>
       <c r="B285" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C285" s="2">
-        <v>48.537573999999999</v>
+        <v>48.486178000000002</v>
       </c>
       <c r="D285" s="2">
-        <v>-121.817784</v>
+        <v>-121.58985800000001</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
@@ -4751,13 +4900,13 @@
         <v>89</v>
       </c>
       <c r="B286" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C286" s="2">
-        <v>48.537056</v>
+        <v>48.538148999999997</v>
       </c>
       <c r="D286" s="2">
-        <v>-121.817975</v>
+        <v>-121.81778300000001</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
@@ -4765,13 +4914,13 @@
         <v>89</v>
       </c>
       <c r="B287" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C287" s="2">
-        <v>48.537011</v>
+        <v>48.537573999999999</v>
       </c>
       <c r="D287" s="2">
-        <v>-121.81749499999999</v>
+        <v>-121.817784</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
@@ -4779,13 +4928,13 @@
         <v>89</v>
       </c>
       <c r="B288" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C288" s="2">
-        <v>48.535997999999999</v>
+        <v>48.537056</v>
       </c>
       <c r="D288" s="2">
-        <v>-121.817279</v>
+        <v>-121.817975</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
@@ -4793,13 +4942,13 @@
         <v>89</v>
       </c>
       <c r="B289" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C289" s="2">
-        <v>48.536290999999999</v>
+        <v>48.537011</v>
       </c>
       <c r="D289" s="2">
-        <v>-121.81790700000001</v>
+        <v>-121.81749499999999</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
@@ -4807,13 +4956,13 @@
         <v>89</v>
       </c>
       <c r="B290" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C290" s="2">
-        <v>48.535459000000003</v>
+        <v>48.535997999999999</v>
       </c>
       <c r="D290" s="2">
-        <v>-121.817443</v>
+        <v>-121.817279</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
@@ -4821,13 +4970,13 @@
         <v>89</v>
       </c>
       <c r="B291" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C291" s="2">
-        <v>48.535274999999999</v>
+        <v>48.536290999999999</v>
       </c>
       <c r="D291" s="2">
-        <v>-121.81724</v>
+        <v>-121.81790700000001</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
@@ -4835,13 +4984,13 @@
         <v>89</v>
       </c>
       <c r="B292" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C292" s="2">
-        <v>48.535026999999999</v>
+        <v>48.535459000000003</v>
       </c>
       <c r="D292" s="2">
-        <v>-121.817734</v>
+        <v>-121.817443</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
@@ -4849,13 +4998,13 @@
         <v>89</v>
       </c>
       <c r="B293" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C293" s="2">
-        <v>48.535001999999999</v>
+        <v>48.535274999999999</v>
       </c>
       <c r="D293" s="2">
-        <v>-121.81711</v>
+        <v>-121.81724</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
@@ -4863,13 +5012,13 @@
         <v>89</v>
       </c>
       <c r="B294" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C294" s="2">
-        <v>48.534528000000002</v>
+        <v>48.535026999999999</v>
       </c>
       <c r="D294" s="2">
-        <v>-121.817548</v>
+        <v>-121.817734</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
@@ -4877,13 +5026,13 @@
         <v>89</v>
       </c>
       <c r="B295" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C295" s="2">
-        <v>48.538569000000003</v>
+        <v>48.535001999999999</v>
       </c>
       <c r="D295" s="2">
-        <v>-121.81769799999999</v>
+        <v>-121.81711</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
@@ -4891,55 +5040,55 @@
         <v>89</v>
       </c>
       <c r="B296" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C296" s="2">
-        <v>48.538549000000003</v>
+        <v>48.534528000000002</v>
       </c>
       <c r="D296" s="2">
-        <v>-121.81756</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A297" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B297" s="9">
-        <v>249</v>
-      </c>
-      <c r="C297" s="9">
-        <v>48.540405</v>
-      </c>
-      <c r="D297" s="9">
-        <v>-121.818438</v>
+        <v>-121.817548</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A297" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B297" s="2">
+        <v>247</v>
+      </c>
+      <c r="C297" s="2">
+        <v>48.538569000000003</v>
+      </c>
+      <c r="D297" s="2">
+        <v>-121.81769799999999</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B298">
-        <v>250</v>
-      </c>
-      <c r="C298">
-        <v>48.515582000000002</v>
-      </c>
-      <c r="D298">
-        <v>-122.137444</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A299" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B299">
-        <v>251</v>
-      </c>
-      <c r="C299">
-        <v>48.515664000000001</v>
-      </c>
-      <c r="D299">
-        <v>-122.13708099999999</v>
+      <c r="B298" s="2">
+        <v>248</v>
+      </c>
+      <c r="C298" s="2">
+        <v>48.538549000000003</v>
+      </c>
+      <c r="D298" s="2">
+        <v>-121.81756</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B299" s="9">
+        <v>249</v>
+      </c>
+      <c r="C299" s="9">
+        <v>48.540405</v>
+      </c>
+      <c r="D299" s="9">
+        <v>-121.818438</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.35">
@@ -4947,13 +5096,13 @@
         <v>89</v>
       </c>
       <c r="B300">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C300">
-        <v>48.515645999999997</v>
+        <v>48.515582000000002</v>
       </c>
       <c r="D300">
-        <v>-122.136931</v>
+        <v>-122.137444</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
@@ -4961,69 +5110,69 @@
         <v>89</v>
       </c>
       <c r="B301">
+        <v>251</v>
+      </c>
+      <c r="C301">
+        <v>48.515664000000001</v>
+      </c>
+      <c r="D301">
+        <v>-122.13708099999999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A302" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B302">
+        <v>252</v>
+      </c>
+      <c r="C302">
+        <v>48.515645999999997</v>
+      </c>
+      <c r="D302">
+        <v>-122.136931</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A303" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B303">
         <v>253</v>
       </c>
-      <c r="C301">
+      <c r="C303">
         <v>48.515706000000002</v>
       </c>
-      <c r="D301">
+      <c r="D303">
         <v>-122.136735</v>
       </c>
     </row>
-    <row r="302" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A302" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B302" s="11">
+    <row r="304" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B304" s="11">
         <v>254</v>
       </c>
-      <c r="C302" s="11">
+      <c r="C304" s="11">
         <v>48.523027999999996</v>
       </c>
-      <c r="D302" s="11">
+      <c r="D304" s="11">
         <v>-122.09708500000001</v>
       </c>
     </row>
-    <row r="303" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A303" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B303" s="11">
+    <row r="305" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B305" s="11">
         <v>255</v>
       </c>
-      <c r="C303" s="11">
+      <c r="C305" s="11">
         <v>48.522559000000001</v>
       </c>
-      <c r="D303" s="11">
+      <c r="D305" s="11">
         <v>-122.104742</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A304" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B304">
-        <v>256</v>
-      </c>
-      <c r="C304">
-        <v>48.522629000000002</v>
-      </c>
-      <c r="D304">
-        <v>-122.10482500000001</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A305" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B305">
-        <v>257</v>
-      </c>
-      <c r="C305">
-        <v>48.527442999999998</v>
-      </c>
-      <c r="D305">
-        <v>-121.75259</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.35">
@@ -5031,27 +5180,27 @@
         <v>89</v>
       </c>
       <c r="B306">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C306">
-        <v>48.527816000000001</v>
+        <v>48.522629000000002</v>
       </c>
       <c r="D306">
-        <v>-121.75205800000001</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A307" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B307">
-        <v>259</v>
-      </c>
-      <c r="C307">
-        <v>48.527971000000001</v>
-      </c>
-      <c r="D307">
-        <v>-121.751892</v>
+        <v>-122.10482500000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B307" s="11">
+        <v>257</v>
+      </c>
+      <c r="C307" s="11">
+        <v>48.527442999999998</v>
+      </c>
+      <c r="D307" s="11">
+        <v>-121.75259</v>
       </c>
     </row>
     <row r="308" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5059,13 +5208,13 @@
         <v>89</v>
       </c>
       <c r="B308" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C308" s="11">
-        <v>48.533273000000001</v>
+        <v>48.527816000000001</v>
       </c>
       <c r="D308" s="11">
-        <v>-121.818251</v>
+        <v>-121.75205800000001</v>
       </c>
     </row>
     <row r="309" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5073,41 +5222,41 @@
         <v>89</v>
       </c>
       <c r="B309" s="11">
+        <v>259</v>
+      </c>
+      <c r="C309" s="11">
+        <v>48.527971000000001</v>
+      </c>
+      <c r="D309" s="11">
+        <v>-121.751892</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A310" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B310" s="11">
+        <v>260</v>
+      </c>
+      <c r="C310" s="11">
+        <v>48.533273000000001</v>
+      </c>
+      <c r="D310" s="11">
+        <v>-121.818251</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A311" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B311" s="11">
         <v>261</v>
       </c>
-      <c r="C309" s="11">
+      <c r="C311" s="11">
         <v>48.533605000000001</v>
       </c>
-      <c r="D309" s="11">
+      <c r="D311" s="11">
         <v>-121.818124</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A310" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B310">
-        <v>262</v>
-      </c>
-      <c r="C310">
-        <v>48.484695000000002</v>
-      </c>
-      <c r="D310">
-        <v>-121.61359899999999</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A311" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B311">
-        <v>263</v>
-      </c>
-      <c r="C311">
-        <v>48.484690999999998</v>
-      </c>
-      <c r="D311">
-        <v>-121.613738</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.35">
@@ -5115,13 +5264,13 @@
         <v>89</v>
       </c>
       <c r="B312">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C312">
-        <v>48.484602000000002</v>
+        <v>48.484695000000002</v>
       </c>
       <c r="D312">
-        <v>-121.614114</v>
+        <v>-121.61359899999999</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.35">
@@ -5129,13 +5278,13 @@
         <v>89</v>
       </c>
       <c r="B313">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C313">
-        <v>48.484623999999997</v>
+        <v>48.484690999999998</v>
       </c>
       <c r="D313">
-        <v>-121.614339</v>
+        <v>-121.613738</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
@@ -5143,13 +5292,13 @@
         <v>89</v>
       </c>
       <c r="B314">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C314">
-        <v>48.480823000000001</v>
+        <v>48.484602000000002</v>
       </c>
       <c r="D314">
-        <v>-121.587673</v>
+        <v>-121.614114</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.35">
@@ -5157,27 +5306,27 @@
         <v>89</v>
       </c>
       <c r="B315">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C315">
-        <v>48.481059999999999</v>
+        <v>48.484623999999997</v>
       </c>
       <c r="D315">
-        <v>-121.587757</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A316" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B316" s="11">
-        <v>268</v>
-      </c>
-      <c r="C316" s="11">
-        <v>48.481234999999998</v>
-      </c>
-      <c r="D316" s="11">
-        <v>-121.58769599999999</v>
+        <v>-121.614339</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A316" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B316">
+        <v>266</v>
+      </c>
+      <c r="C316">
+        <v>48.480823000000001</v>
+      </c>
+      <c r="D316">
+        <v>-121.587673</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
@@ -5185,13 +5334,13 @@
         <v>89</v>
       </c>
       <c r="B317">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C317">
-        <v>48.481409999999997</v>
+        <v>48.481059999999999</v>
       </c>
       <c r="D317">
-        <v>-121.587661</v>
+        <v>-121.587757</v>
       </c>
     </row>
     <row r="318" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5199,13 +5348,13 @@
         <v>89</v>
       </c>
       <c r="B318" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C318" s="11">
-        <v>48.481679</v>
+        <v>48.481234999999998</v>
       </c>
       <c r="D318" s="11">
-        <v>-121.58765200000001</v>
+        <v>-121.58769599999999</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
@@ -5213,41 +5362,41 @@
         <v>89</v>
       </c>
       <c r="B319">
+        <v>269</v>
+      </c>
+      <c r="C319">
+        <v>48.481409999999997</v>
+      </c>
+      <c r="D319">
+        <v>-121.587661</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A320" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B320" s="11">
+        <v>270</v>
+      </c>
+      <c r="C320" s="11">
+        <v>48.481679</v>
+      </c>
+      <c r="D320" s="11">
+        <v>-121.58765200000001</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A321" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B321" s="11">
         <v>271</v>
       </c>
-      <c r="C319">
+      <c r="C321" s="11">
         <v>48.481814999999997</v>
       </c>
-      <c r="D319">
+      <c r="D321" s="11">
         <v>-121.587641</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A320" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B320">
-        <v>272</v>
-      </c>
-      <c r="C320">
-        <v>48.503050999999999</v>
-      </c>
-      <c r="D320">
-        <v>-121.718833</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A321" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B321">
-        <v>273</v>
-      </c>
-      <c r="C321">
-        <v>48.503205000000001</v>
-      </c>
-      <c r="D321">
-        <v>-121.718977</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.35">
@@ -5255,13 +5404,13 @@
         <v>89</v>
       </c>
       <c r="B322">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C322">
-        <v>48.487403999999998</v>
+        <v>48.503050999999999</v>
       </c>
       <c r="D322">
-        <v>-121.64868800000001</v>
+        <v>-121.718833</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
@@ -5269,13 +5418,13 @@
         <v>89</v>
       </c>
       <c r="B323">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C323">
-        <v>48.48762</v>
+        <v>48.503205000000001</v>
       </c>
       <c r="D323">
-        <v>-121.649019</v>
+        <v>-121.718977</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.35">
@@ -5283,13 +5432,13 @@
         <v>89</v>
       </c>
       <c r="B324">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C324">
-        <v>48.487774000000002</v>
+        <v>48.487403999999998</v>
       </c>
       <c r="D324">
-        <v>-121.64917800000001</v>
+        <v>-121.64868800000001</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.35">
@@ -5297,13 +5446,13 @@
         <v>89</v>
       </c>
       <c r="B325">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C325">
-        <v>48.487994</v>
+        <v>48.48762</v>
       </c>
       <c r="D325">
-        <v>-121.649433</v>
+        <v>-121.649019</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
@@ -5311,13 +5460,13 @@
         <v>89</v>
       </c>
       <c r="B326">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C326">
-        <v>48.488106999999999</v>
+        <v>48.487774000000002</v>
       </c>
       <c r="D326">
-        <v>-121.649393</v>
+        <v>-121.64917800000001</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.35">
@@ -5325,13 +5474,13 @@
         <v>89</v>
       </c>
       <c r="B327">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C327">
-        <v>48.488177</v>
+        <v>48.487994</v>
       </c>
       <c r="D327">
-        <v>-121.649573</v>
+        <v>-121.649433</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.35">
@@ -5339,13 +5488,13 @@
         <v>89</v>
       </c>
       <c r="B328">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C328">
-        <v>48.488235000000003</v>
+        <v>48.488106999999999</v>
       </c>
       <c r="D328">
-        <v>-121.649624</v>
+        <v>-121.649393</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
@@ -5353,13 +5502,13 @@
         <v>89</v>
       </c>
       <c r="B329">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C329">
-        <v>48.488337000000001</v>
+        <v>48.488177</v>
       </c>
       <c r="D329">
-        <v>-121.64959</v>
+        <v>-121.649573</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.35">
@@ -5367,13 +5516,13 @@
         <v>89</v>
       </c>
       <c r="B330">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C330">
-        <v>48.488163999999998</v>
+        <v>48.488235000000003</v>
       </c>
       <c r="D330">
-        <v>-121.649608</v>
+        <v>-121.649624</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.35">
@@ -5381,13 +5530,13 @@
         <v>89</v>
       </c>
       <c r="B331">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C331">
-        <v>48.488348000000002</v>
+        <v>48.488337000000001</v>
       </c>
       <c r="D331">
-        <v>-121.64962199999999</v>
+        <v>-121.64959</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
@@ -5395,13 +5544,13 @@
         <v>89</v>
       </c>
       <c r="B332">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C332">
-        <v>48.488539000000003</v>
+        <v>48.488163999999998</v>
       </c>
       <c r="D332">
-        <v>-121.649877</v>
+        <v>-121.649608</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.35">
@@ -5409,13 +5558,13 @@
         <v>89</v>
       </c>
       <c r="B333">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C333">
-        <v>48.488624999999999</v>
+        <v>48.488348000000002</v>
       </c>
       <c r="D333">
-        <v>-121.65013500000001</v>
+        <v>-121.64962199999999</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.35">
@@ -5423,13 +5572,13 @@
         <v>89</v>
       </c>
       <c r="B334">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C334">
-        <v>48.503030000000003</v>
+        <v>48.488539000000003</v>
       </c>
       <c r="D334">
-        <v>-121.718829</v>
+        <v>-121.649877</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
@@ -5437,13 +5586,13 @@
         <v>89</v>
       </c>
       <c r="B335">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C335">
-        <v>48.527329000000002</v>
+        <v>48.488624999999999</v>
       </c>
       <c r="D335">
-        <v>-121.749999</v>
+        <v>-121.65013500000001</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.35">
@@ -5451,13 +5600,13 @@
         <v>89</v>
       </c>
       <c r="B336">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C336">
-        <v>48.527717000000003</v>
+        <v>48.503030000000003</v>
       </c>
       <c r="D336">
-        <v>-121.749509</v>
+        <v>-121.718829</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.35">
@@ -5465,41 +5614,41 @@
         <v>89</v>
       </c>
       <c r="B337">
+        <v>287</v>
+      </c>
+      <c r="C337">
+        <v>48.527329000000002</v>
+      </c>
+      <c r="D337">
+        <v>-121.749999</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A338" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B338" s="11">
+        <v>288</v>
+      </c>
+      <c r="C338" s="11">
+        <v>48.527717000000003</v>
+      </c>
+      <c r="D338" s="11">
+        <v>-121.749509</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A339" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B339" s="11">
         <v>289</v>
       </c>
-      <c r="C337">
+      <c r="C339" s="11">
         <v>48.527937000000001</v>
       </c>
-      <c r="D337">
+      <c r="D339" s="11">
         <v>-121.74912399999999</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A338" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B338">
-        <v>290</v>
-      </c>
-      <c r="C338">
-        <v>48.528343999999997</v>
-      </c>
-      <c r="D338">
-        <v>-121.74866299999999</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A339" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B339">
-        <v>291</v>
-      </c>
-      <c r="C339">
-        <v>48.528528999999999</v>
-      </c>
-      <c r="D339">
-        <v>-121.74753200000001</v>
       </c>
     </row>
     <row r="340" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5507,27 +5656,27 @@
         <v>89</v>
       </c>
       <c r="B340" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C340" s="11">
-        <v>48.472003999999998</v>
+        <v>48.528343999999997</v>
       </c>
       <c r="D340" s="11">
-        <v>-122.285893</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A341" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B341">
-        <v>293</v>
-      </c>
-      <c r="C341">
-        <v>48.478256999999999</v>
-      </c>
-      <c r="D341">
-        <v>-122.275356</v>
+        <v>-121.74866299999999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A341" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B341" s="11">
+        <v>291</v>
+      </c>
+      <c r="C341" s="11">
+        <v>48.528528999999999</v>
+      </c>
+      <c r="D341" s="11">
+        <v>-121.74753200000001</v>
       </c>
     </row>
     <row r="342" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5535,27 +5684,27 @@
         <v>89</v>
       </c>
       <c r="B342" s="11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C342" s="11">
-        <v>48.493402000000003</v>
+        <v>48.472003999999998</v>
       </c>
       <c r="D342" s="11">
-        <v>-122.19202799999999</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A343" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B343" s="11">
-        <v>295</v>
-      </c>
-      <c r="C343" s="11">
-        <v>48.488377</v>
-      </c>
-      <c r="D343" s="11">
-        <v>-122.16024299999999</v>
+        <v>-122.285893</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A343" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B343">
+        <v>293</v>
+      </c>
+      <c r="C343">
+        <v>48.478256999999999</v>
+      </c>
+      <c r="D343">
+        <v>-122.275356</v>
       </c>
     </row>
     <row r="344" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5563,41 +5712,41 @@
         <v>89</v>
       </c>
       <c r="B344" s="11">
+        <v>294</v>
+      </c>
+      <c r="C344" s="11">
+        <v>48.493402000000003</v>
+      </c>
+      <c r="D344" s="11">
+        <v>-122.19202799999999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A345" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B345" s="11">
+        <v>295</v>
+      </c>
+      <c r="C345" s="11">
+        <v>48.488377</v>
+      </c>
+      <c r="D345" s="11">
+        <v>-122.16024299999999</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A346" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B346" s="11">
         <v>296</v>
       </c>
-      <c r="C344" s="11">
+      <c r="C346" s="11">
         <v>48.488450999999998</v>
       </c>
-      <c r="D344" s="11">
+      <c r="D346" s="11">
         <v>-122.159278</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A345" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B345">
-        <v>297</v>
-      </c>
-      <c r="C345">
-        <v>48.512653</v>
-      </c>
-      <c r="D345">
-        <v>-122.080733</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A346" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B346">
-        <v>298</v>
-      </c>
-      <c r="C346">
-        <v>48.527771999999999</v>
-      </c>
-      <c r="D346">
-        <v>-121.74947899999999</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
@@ -5605,27 +5754,27 @@
         <v>89</v>
       </c>
       <c r="B347">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C347">
-        <v>48.528429000000003</v>
+        <v>48.512653</v>
       </c>
       <c r="D347">
-        <v>-121.747694</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A348" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B348">
-        <v>300</v>
-      </c>
-      <c r="C348">
-        <v>48.528016000000001</v>
-      </c>
-      <c r="D348">
-        <v>-121.749303</v>
+        <v>-122.080733</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A348" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B348" s="11">
+        <v>298</v>
+      </c>
+      <c r="C348" s="11">
+        <v>48.527771999999999</v>
+      </c>
+      <c r="D348" s="11">
+        <v>-121.74947899999999</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.35">
@@ -5633,13 +5782,13 @@
         <v>89</v>
       </c>
       <c r="B349">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C349">
-        <v>48.528185000000001</v>
+        <v>48.528429000000003</v>
       </c>
       <c r="D349">
-        <v>-121.74846100000001</v>
+        <v>-121.747694</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
@@ -5647,13 +5796,13 @@
         <v>89</v>
       </c>
       <c r="B350">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C350">
-        <v>48.528381000000003</v>
+        <v>48.528016000000001</v>
       </c>
       <c r="D350">
-        <v>-121.748192</v>
+        <v>-121.749303</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.35">
@@ -5661,13 +5810,13 @@
         <v>89</v>
       </c>
       <c r="B351">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C351">
-        <v>48.528146999999997</v>
+        <v>48.528185000000001</v>
       </c>
       <c r="D351">
-        <v>-121.748824</v>
+        <v>-121.74846100000001</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
@@ -5675,13 +5824,13 @@
         <v>89</v>
       </c>
       <c r="B352">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C352">
-        <v>48.513182</v>
+        <v>48.528381000000003</v>
       </c>
       <c r="D352">
-        <v>-121.710078</v>
+        <v>-121.748192</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
@@ -5689,13 +5838,13 @@
         <v>89</v>
       </c>
       <c r="B353">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C353">
-        <v>48.513052000000002</v>
+        <v>48.528146999999997</v>
       </c>
       <c r="D353">
-        <v>-121.709778</v>
+        <v>-121.748824</v>
       </c>
     </row>
     <row r="354" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5703,13 +5852,13 @@
         <v>89</v>
       </c>
       <c r="B354" s="11">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C354" s="11">
-        <v>48.493481000000003</v>
+        <v>48.513182</v>
       </c>
       <c r="D354" s="11">
-        <v>-121.53885200000001</v>
+        <v>-121.710078</v>
       </c>
     </row>
     <row r="355" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5717,13 +5866,13 @@
         <v>89</v>
       </c>
       <c r="B355" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C355" s="11">
-        <v>48.493257999999997</v>
+        <v>48.513052000000002</v>
       </c>
       <c r="D355" s="11">
-        <v>-121.53928500000001</v>
+        <v>-121.709778</v>
       </c>
     </row>
     <row r="356" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5731,13 +5880,13 @@
         <v>89</v>
       </c>
       <c r="B356" s="11">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C356" s="11">
-        <v>48.493205000000003</v>
+        <v>48.493481000000003</v>
       </c>
       <c r="D356" s="11">
-        <v>-121.539917</v>
+        <v>-121.53885200000001</v>
       </c>
     </row>
     <row r="357" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -5745,55 +5894,55 @@
         <v>89</v>
       </c>
       <c r="B357" s="11">
+        <v>307</v>
+      </c>
+      <c r="C357" s="11">
+        <v>48.493257999999997</v>
+      </c>
+      <c r="D357" s="11">
+        <v>-121.53928500000001</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A358" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B358" s="11">
+        <v>308</v>
+      </c>
+      <c r="C358" s="11">
+        <v>48.493205000000003</v>
+      </c>
+      <c r="D358" s="11">
+        <v>-121.539917</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A359" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B359" s="11">
         <v>309</v>
       </c>
-      <c r="C357" s="11">
+      <c r="C359" s="11">
         <v>48.492963000000003</v>
       </c>
-      <c r="D357" s="11">
+      <c r="D359" s="11">
         <v>-121.54064</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A358" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B358">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A360" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B360">
         <v>310</v>
       </c>
-      <c r="C358">
+      <c r="C360">
         <v>48.493471999999997</v>
       </c>
-      <c r="D358">
+      <c r="D360">
         <v>-121.53907599999999</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A359" t="s">
-        <v>89</v>
-      </c>
-      <c r="B359">
-        <v>313</v>
-      </c>
-      <c r="C359">
-        <v>48.513010999999999</v>
-      </c>
-      <c r="D359">
-        <v>-121.70989400000001</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A360" t="s">
-        <v>89</v>
-      </c>
-      <c r="B360">
-        <v>314</v>
-      </c>
-      <c r="C360">
-        <v>48.512836</v>
-      </c>
-      <c r="D360">
-        <v>-121.709947</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
@@ -5801,13 +5950,13 @@
         <v>89</v>
       </c>
       <c r="B361">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C361">
-        <v>48.512669000000002</v>
+        <v>48.513010999999999</v>
       </c>
       <c r="D361">
-        <v>-121.71006199999999</v>
+        <v>-121.70989400000001</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
@@ -5815,13 +5964,13 @@
         <v>89</v>
       </c>
       <c r="B362">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C362">
-        <v>48.512484999999998</v>
+        <v>48.512836</v>
       </c>
       <c r="D362">
-        <v>-121.710112</v>
+        <v>-121.709947</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.35">
@@ -5829,13 +5978,13 @@
         <v>89</v>
       </c>
       <c r="B363">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C363">
-        <v>48.512345000000003</v>
+        <v>48.512669000000002</v>
       </c>
       <c r="D363">
-        <v>-121.710182</v>
+        <v>-121.71006199999999</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.35">
@@ -5843,13 +5992,13 @@
         <v>89</v>
       </c>
       <c r="B364">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C364">
-        <v>48.512281000000002</v>
+        <v>48.512484999999998</v>
       </c>
       <c r="D364">
-        <v>-121.71007299999999</v>
+        <v>-121.710112</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
@@ -5857,13 +6006,13 @@
         <v>89</v>
       </c>
       <c r="B365">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C365">
-        <v>48.512239000000001</v>
+        <v>48.512345000000003</v>
       </c>
       <c r="D365">
-        <v>-121.710258</v>
+        <v>-121.710182</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.35">
@@ -5871,13 +6020,13 @@
         <v>89</v>
       </c>
       <c r="B366">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C366">
-        <v>48.513035000000002</v>
+        <v>48.512281000000002</v>
       </c>
       <c r="D366">
-        <v>-121.709914</v>
+        <v>-121.71007299999999</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.35">
@@ -5885,13 +6034,13 @@
         <v>89</v>
       </c>
       <c r="B367">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C367">
-        <v>48.486179</v>
+        <v>48.512239000000001</v>
       </c>
       <c r="D367">
-        <v>-121.59041000000001</v>
+        <v>-121.710258</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
@@ -5899,13 +6048,13 @@
         <v>89</v>
       </c>
       <c r="B368">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C368">
-        <v>48.486196</v>
+        <v>48.513035000000002</v>
       </c>
       <c r="D368">
-        <v>-121.59023999999999</v>
+        <v>-121.709914</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.35">
@@ -5913,13 +6062,13 @@
         <v>89</v>
       </c>
       <c r="B369">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C369">
-        <v>48.486207</v>
+        <v>48.486179</v>
       </c>
       <c r="D369">
-        <v>-121.590363</v>
+        <v>-121.59041000000001</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.35">
@@ -5927,13 +6076,13 @@
         <v>89</v>
       </c>
       <c r="B370">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C370">
-        <v>48.486212999999999</v>
+        <v>48.486196</v>
       </c>
       <c r="D370">
-        <v>-121.59026</v>
+        <v>-121.59023999999999</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
@@ -5941,13 +6090,13 @@
         <v>89</v>
       </c>
       <c r="B371">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C371">
-        <v>48.486248000000003</v>
+        <v>48.486207</v>
       </c>
       <c r="D371">
-        <v>-121.59023000000001</v>
+        <v>-121.590363</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.35">
@@ -5955,13 +6104,13 @@
         <v>89</v>
       </c>
       <c r="B372">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C372">
         <v>48.486212999999999</v>
       </c>
       <c r="D372">
-        <v>-121.59018500000001</v>
+        <v>-121.59026</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.35">
@@ -5969,13 +6118,13 @@
         <v>89</v>
       </c>
       <c r="B373">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C373">
-        <v>48.486196</v>
+        <v>48.486248000000003</v>
       </c>
       <c r="D373">
-        <v>-121.590107</v>
+        <v>-121.59023000000001</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
@@ -5983,13 +6132,13 @@
         <v>89</v>
       </c>
       <c r="B374">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C374">
-        <v>48.486215999999999</v>
+        <v>48.486212999999999</v>
       </c>
       <c r="D374">
-        <v>-121.590074</v>
+        <v>-121.59018500000001</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.35">
@@ -5997,13 +6146,13 @@
         <v>89</v>
       </c>
       <c r="B375">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C375">
-        <v>48.486221</v>
+        <v>48.486196</v>
       </c>
       <c r="D375">
-        <v>-121.589996</v>
+        <v>-121.590107</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.35">
@@ -6011,13 +6160,13 @@
         <v>89</v>
       </c>
       <c r="B376">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C376">
-        <v>48.486176</v>
+        <v>48.486215999999999</v>
       </c>
       <c r="D376">
-        <v>-121.589918</v>
+        <v>-121.590074</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
@@ -6025,13 +6174,13 @@
         <v>89</v>
       </c>
       <c r="B377">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C377">
-        <v>48.486230999999997</v>
+        <v>48.486221</v>
       </c>
       <c r="D377">
-        <v>-121.589911</v>
+        <v>-121.589996</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.35">
@@ -6039,13 +6188,13 @@
         <v>89</v>
       </c>
       <c r="B378">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C378">
-        <v>48.486190999999998</v>
+        <v>48.486176</v>
       </c>
       <c r="D378">
-        <v>-121.589794</v>
+        <v>-121.589918</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
@@ -6053,13 +6202,13 @@
         <v>89</v>
       </c>
       <c r="B379">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C379">
-        <v>48.486119000000002</v>
+        <v>48.486230999999997</v>
       </c>
       <c r="D379">
-        <v>-121.58977899999999</v>
+        <v>-121.589911</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
@@ -6067,13 +6216,13 @@
         <v>89</v>
       </c>
       <c r="B380">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C380">
-        <v>48.486105999999999</v>
+        <v>48.486190999999998</v>
       </c>
       <c r="D380">
-        <v>-121.589733</v>
+        <v>-121.589794</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.35">
@@ -6081,13 +6230,13 @@
         <v>89</v>
       </c>
       <c r="B381">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C381">
-        <v>48.486192000000003</v>
+        <v>48.486119000000002</v>
       </c>
       <c r="D381">
-        <v>-121.589617</v>
+        <v>-121.58977899999999</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
@@ -6095,13 +6244,13 @@
         <v>89</v>
       </c>
       <c r="B382">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C382">
-        <v>48.486246999999999</v>
+        <v>48.486105999999999</v>
       </c>
       <c r="D382">
-        <v>-121.589564</v>
+        <v>-121.589733</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
@@ -6109,13 +6258,13 @@
         <v>89</v>
       </c>
       <c r="B383">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C383">
-        <v>48.486229000000002</v>
+        <v>48.486192000000003</v>
       </c>
       <c r="D383">
-        <v>-121.589558</v>
+        <v>-121.589617</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.35">
@@ -6123,27 +6272,27 @@
         <v>89</v>
       </c>
       <c r="B384">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C384">
-        <v>48.486170999999999</v>
+        <v>48.486246999999999</v>
       </c>
       <c r="D384">
-        <v>-121.58953200000001</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A385" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B385" s="11">
-        <v>339</v>
-      </c>
-      <c r="C385" s="11">
-        <v>48.350872000000003</v>
-      </c>
-      <c r="D385" s="11">
-        <v>-121.55139200000001</v>
+        <v>-121.589564</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A385" t="s">
+        <v>89</v>
+      </c>
+      <c r="B385">
+        <v>337</v>
+      </c>
+      <c r="C385">
+        <v>48.486229000000002</v>
+      </c>
+      <c r="D385">
+        <v>-121.589558</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
@@ -6151,27 +6300,27 @@
         <v>89</v>
       </c>
       <c r="B386">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C386">
-        <v>48.350879999999997</v>
+        <v>48.486170999999999</v>
       </c>
       <c r="D386">
-        <v>-121.551591</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A387" t="s">
-        <v>89</v>
-      </c>
-      <c r="B387">
-        <v>341</v>
-      </c>
-      <c r="C387">
-        <v>48.351145000000002</v>
-      </c>
-      <c r="D387">
-        <v>-121.551526</v>
+        <v>-121.58953200000001</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A387" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B387" s="11">
+        <v>339</v>
+      </c>
+      <c r="C387" s="11">
+        <v>48.350872000000003</v>
+      </c>
+      <c r="D387" s="11">
+        <v>-121.55139200000001</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.35">
@@ -6179,27 +6328,27 @@
         <v>89</v>
       </c>
       <c r="B388">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C388">
-        <v>48.351019999999998</v>
+        <v>48.350879999999997</v>
       </c>
       <c r="D388">
-        <v>-121.55129100000001</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A389" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B389" s="11">
-        <v>343</v>
-      </c>
-      <c r="C389" s="11">
-        <v>48.351008999999998</v>
-      </c>
-      <c r="D389" s="11">
-        <v>-121.551604</v>
+        <v>-121.551591</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
+        <v>89</v>
+      </c>
+      <c r="B389">
+        <v>341</v>
+      </c>
+      <c r="C389">
+        <v>48.351145000000002</v>
+      </c>
+      <c r="D389">
+        <v>-121.551526</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.35">
@@ -6207,27 +6356,27 @@
         <v>89</v>
       </c>
       <c r="B390">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C390">
-        <v>48.351562000000001</v>
+        <v>48.351019999999998</v>
       </c>
       <c r="D390">
-        <v>-121.551508</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A391" t="s">
-        <v>89</v>
-      </c>
-      <c r="B391">
-        <v>345</v>
-      </c>
-      <c r="C391">
-        <v>48.351461</v>
-      </c>
-      <c r="D391">
-        <v>-121.55141399999999</v>
+        <v>-121.55129100000001</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A391" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B391" s="11">
+        <v>343</v>
+      </c>
+      <c r="C391" s="11">
+        <v>48.351008999999998</v>
+      </c>
+      <c r="D391" s="11">
+        <v>-121.551604</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
@@ -6235,13 +6384,13 @@
         <v>89</v>
       </c>
       <c r="B392">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C392">
-        <v>48.351630999999998</v>
+        <v>48.351562000000001</v>
       </c>
       <c r="D392">
-        <v>-121.55165700000001</v>
+        <v>-121.551508</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.35">
@@ -6249,27 +6398,27 @@
         <v>89</v>
       </c>
       <c r="B393">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C393">
-        <v>48.352632999999997</v>
+        <v>48.351461</v>
       </c>
       <c r="D393">
-        <v>-121.552127</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A394" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B394" s="11">
-        <v>348</v>
-      </c>
-      <c r="C394" s="11">
-        <v>48.353017999999999</v>
-      </c>
-      <c r="D394" s="11">
-        <v>-121.55206099999999</v>
+        <v>-121.55141399999999</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
+        <v>89</v>
+      </c>
+      <c r="B394">
+        <v>346</v>
+      </c>
+      <c r="C394">
+        <v>48.351630999999998</v>
+      </c>
+      <c r="D394">
+        <v>-121.55165700000001</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
@@ -6277,27 +6426,27 @@
         <v>89</v>
       </c>
       <c r="B395">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C395">
-        <v>48.353065999999998</v>
+        <v>48.352632999999997</v>
       </c>
       <c r="D395">
-        <v>-121.552251</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A396" t="s">
-        <v>89</v>
-      </c>
-      <c r="B396">
-        <v>350</v>
-      </c>
-      <c r="C396">
-        <v>48.353065999999998</v>
-      </c>
-      <c r="D396">
-        <v>-121.55225299999999</v>
+        <v>-121.552127</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A396" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B396" s="11">
+        <v>348</v>
+      </c>
+      <c r="C396" s="11">
+        <v>48.353017999999999</v>
+      </c>
+      <c r="D396" s="11">
+        <v>-121.55206099999999</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
@@ -6305,13 +6454,13 @@
         <v>89</v>
       </c>
       <c r="B397">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C397">
-        <v>48.353256999999999</v>
+        <v>48.353065999999998</v>
       </c>
       <c r="D397">
-        <v>-121.55217</v>
+        <v>-121.552251</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
@@ -6319,13 +6468,13 @@
         <v>89</v>
       </c>
       <c r="B398">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C398">
-        <v>48.353316</v>
+        <v>48.353065999999998</v>
       </c>
       <c r="D398">
-        <v>-121.552154</v>
+        <v>-121.55225299999999</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.35">
@@ -6333,13 +6482,13 @@
         <v>89</v>
       </c>
       <c r="B399">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C399">
-        <v>48.353304999999999</v>
+        <v>48.353256999999999</v>
       </c>
       <c r="D399">
-        <v>-121.552136</v>
+        <v>-121.55217</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.35">
@@ -6347,13 +6496,13 @@
         <v>89</v>
       </c>
       <c r="B400">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C400">
-        <v>48.353485999999997</v>
+        <v>48.353316</v>
       </c>
       <c r="D400">
-        <v>-121.552497</v>
+        <v>-121.552154</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
@@ -6361,13 +6510,13 @@
         <v>89</v>
       </c>
       <c r="B401">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C401">
-        <v>48.353411000000001</v>
+        <v>48.353304999999999</v>
       </c>
       <c r="D401">
-        <v>-121.552616</v>
+        <v>-121.552136</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.35">
@@ -6375,13 +6524,13 @@
         <v>89</v>
       </c>
       <c r="B402">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C402">
-        <v>48.353549000000001</v>
+        <v>48.353485999999997</v>
       </c>
       <c r="D402">
-        <v>-121.552482</v>
+        <v>-121.552497</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.35">
@@ -6389,13 +6538,13 @@
         <v>89</v>
       </c>
       <c r="B403">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C403">
-        <v>48.353551000000003</v>
+        <v>48.353411000000001</v>
       </c>
       <c r="D403">
-        <v>-121.55244</v>
+        <v>-121.552616</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
@@ -6403,13 +6552,13 @@
         <v>89</v>
       </c>
       <c r="B404">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C404">
-        <v>48.473525000000002</v>
+        <v>48.353549000000001</v>
       </c>
       <c r="D404">
-        <v>-121.557974</v>
+        <v>-121.552482</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.35">
@@ -6417,41 +6566,41 @@
         <v>89</v>
       </c>
       <c r="B405">
+        <v>357</v>
+      </c>
+      <c r="C405">
+        <v>48.353551000000003</v>
+      </c>
+      <c r="D405">
+        <v>-121.55244</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A406" t="s">
+        <v>89</v>
+      </c>
+      <c r="B406">
+        <v>358</v>
+      </c>
+      <c r="C406">
+        <v>48.473525000000002</v>
+      </c>
+      <c r="D406">
+        <v>-121.557974</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A407" t="s">
+        <v>89</v>
+      </c>
+      <c r="B407">
         <v>359</v>
       </c>
-      <c r="C405">
+      <c r="C407">
         <v>48.473289999999999</v>
       </c>
-      <c r="D405">
+      <c r="D407">
         <v>-121.558246</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A406" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B406" s="14">
-        <v>436</v>
-      </c>
-      <c r="C406" s="9">
-        <v>48.494250000000001</v>
-      </c>
-      <c r="D406" s="9">
-        <v>-121.53421</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A407" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B407" s="14">
-        <v>437</v>
-      </c>
-      <c r="C407" s="9">
-        <v>48.494239999999998</v>
-      </c>
-      <c r="D407" s="9">
-        <v>-121.53449000000001</v>
       </c>
     </row>
     <row r="408" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -6459,13 +6608,13 @@
         <v>89</v>
       </c>
       <c r="B408" s="14">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C408" s="9">
-        <v>48.494059999999998</v>
+        <v>48.494250000000001</v>
       </c>
       <c r="D408" s="9">
-        <v>-121.53514</v>
+        <v>-121.53421</v>
       </c>
     </row>
     <row r="409" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -6473,13 +6622,13 @@
         <v>89</v>
       </c>
       <c r="B409" s="14">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C409" s="9">
-        <v>48.493679999999998</v>
+        <v>48.494239999999998</v>
       </c>
       <c r="D409" s="9">
-        <v>-121.53740000000001</v>
+        <v>-121.53449000000001</v>
       </c>
     </row>
     <row r="410" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -6487,13 +6636,13 @@
         <v>89</v>
       </c>
       <c r="B410" s="14">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C410" s="9">
-        <v>48.493439000000002</v>
+        <v>48.494059999999998</v>
       </c>
       <c r="D410" s="9">
-        <v>-122.191467</v>
+        <v>-121.53514</v>
       </c>
     </row>
     <row r="411" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -6501,13 +6650,13 @@
         <v>89</v>
       </c>
       <c r="B411" s="14">
-        <v>441</v>
-      </c>
-      <c r="C411" s="17">
-        <v>48.52704</v>
-      </c>
-      <c r="D411" s="17">
-        <v>-122.006179</v>
+        <v>439</v>
+      </c>
+      <c r="C411" s="9">
+        <v>48.493679999999998</v>
+      </c>
+      <c r="D411" s="9">
+        <v>-121.53740000000001</v>
       </c>
     </row>
     <row r="412" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -6515,13 +6664,13 @@
         <v>89</v>
       </c>
       <c r="B412" s="14">
-        <v>442</v>
-      </c>
-      <c r="C412" s="17">
-        <v>48.526088000000001</v>
-      </c>
-      <c r="D412" s="17">
-        <v>-122.005256</v>
+        <v>440</v>
+      </c>
+      <c r="C412" s="9">
+        <v>48.493439000000002</v>
+      </c>
+      <c r="D412" s="9">
+        <v>-122.191467</v>
       </c>
     </row>
     <row r="413" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -6529,13 +6678,13 @@
         <v>89</v>
       </c>
       <c r="B413" s="14">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C413" s="17">
-        <v>48.523373999999997</v>
+        <v>48.52704</v>
       </c>
       <c r="D413" s="17">
-        <v>-121.99828599999999</v>
+        <v>-122.006179</v>
       </c>
     </row>
     <row r="414" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -6543,12 +6692,40 @@
         <v>89</v>
       </c>
       <c r="B414" s="14">
+        <v>442</v>
+      </c>
+      <c r="C414" s="17">
+        <v>48.526088000000001</v>
+      </c>
+      <c r="D414" s="17">
+        <v>-122.005256</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A415" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B415" s="14">
+        <v>443</v>
+      </c>
+      <c r="C415" s="17">
+        <v>48.523373999999997</v>
+      </c>
+      <c r="D415" s="17">
+        <v>-121.99828599999999</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A416" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B416" s="14">
         <v>444</v>
       </c>
-      <c r="C414" s="17">
+      <c r="C416" s="17">
         <v>48.515411</v>
       </c>
-      <c r="D414" s="17">
+      <c r="D416" s="17">
         <v>-121.87087200000001</v>
       </c>
     </row>
@@ -6556,4 +6733,1323 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8917EA92-2169-47DE-9544-807A0085513A}">
+  <dimension ref="A1:F65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.7265625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="19">
+        <v>48.512604000000003</v>
+      </c>
+      <c r="D2" s="19">
+        <v>-121.88041200000001</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="19">
+        <v>48.512684999999998</v>
+      </c>
+      <c r="D3" s="19">
+        <v>-121.87742299999999</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="19">
+        <v>48.513381000000003</v>
+      </c>
+      <c r="D4" s="19">
+        <v>-121.878229</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="19">
+        <v>48.512594999999997</v>
+      </c>
+      <c r="D5" s="19">
+        <v>-121.88074</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="19">
+        <v>48.515383</v>
+      </c>
+      <c r="D6" s="19">
+        <v>-121.871781</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="19">
+        <v>48.497661000000001</v>
+      </c>
+      <c r="D7" s="19">
+        <v>-121.46907299999999</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="19">
+        <v>48.497036999999999</v>
+      </c>
+      <c r="D8" s="19">
+        <v>-121.468013</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="13">
+        <v>38</v>
+      </c>
+      <c r="C9" s="12">
+        <v>48.479380999999997</v>
+      </c>
+      <c r="D9" s="12">
+        <v>-121.57585</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="13">
+        <v>58</v>
+      </c>
+      <c r="C10" s="12">
+        <v>48.480485999999999</v>
+      </c>
+      <c r="D10" s="12">
+        <v>-122.27196600000001</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="13">
+        <v>62</v>
+      </c>
+      <c r="C11" s="12">
+        <v>48.484935</v>
+      </c>
+      <c r="D11" s="12">
+        <v>-121.612025</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="13">
+        <v>64</v>
+      </c>
+      <c r="C12" s="12">
+        <v>48.484763000000001</v>
+      </c>
+      <c r="D12" s="12">
+        <v>-121.613505</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="13">
+        <v>66</v>
+      </c>
+      <c r="C13" s="12">
+        <v>48.484715000000001</v>
+      </c>
+      <c r="D13" s="12">
+        <v>-121.613856</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="13">
+        <v>116</v>
+      </c>
+      <c r="C14" s="12">
+        <v>48.497632000000003</v>
+      </c>
+      <c r="D14" s="12">
+        <v>-122.15154800000001</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="13">
+        <v>126</v>
+      </c>
+      <c r="C15" s="12">
+        <v>48.366123000000002</v>
+      </c>
+      <c r="D15" s="12">
+        <v>-121.546778</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="13">
+        <v>135</v>
+      </c>
+      <c r="C16" s="12">
+        <v>48.384366999999997</v>
+      </c>
+      <c r="D16" s="12">
+        <v>-121.560486</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="12">
+        <v>151</v>
+      </c>
+      <c r="C17" s="12">
+        <v>48.497349</v>
+      </c>
+      <c r="D17" s="12">
+        <v>-121.466137</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="12">
+        <v>162</v>
+      </c>
+      <c r="C18" s="12">
+        <v>48.365721999999998</v>
+      </c>
+      <c r="D18" s="12">
+        <v>-121.54598900000001</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="12">
+        <v>163</v>
+      </c>
+      <c r="C19" s="12">
+        <v>48.365634</v>
+      </c>
+      <c r="D19" s="12">
+        <v>-121.54576299999999</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="12">
+        <v>182</v>
+      </c>
+      <c r="C20" s="12">
+        <v>48.48621</v>
+      </c>
+      <c r="D20" s="12">
+        <v>-121.59039900000001</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="12">
+        <v>183</v>
+      </c>
+      <c r="C21" s="12">
+        <v>48.486165999999997</v>
+      </c>
+      <c r="D21" s="12">
+        <v>-121.589386</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="12">
+        <v>184</v>
+      </c>
+      <c r="C22" s="12">
+        <v>48.486001999999999</v>
+      </c>
+      <c r="D22" s="12">
+        <v>-121.58907000000001</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="12">
+        <v>187</v>
+      </c>
+      <c r="C23" s="12">
+        <v>48.50141</v>
+      </c>
+      <c r="D23" s="12">
+        <v>-121.503771</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="12">
+        <v>188</v>
+      </c>
+      <c r="C24" s="12">
+        <v>48.501323999999997</v>
+      </c>
+      <c r="D24" s="12">
+        <v>-121.503259</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="12">
+        <v>195</v>
+      </c>
+      <c r="C25" s="12">
+        <v>48.515165000000003</v>
+      </c>
+      <c r="D25" s="12">
+        <v>-121.88000599999999</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="12">
+        <v>200</v>
+      </c>
+      <c r="C26" s="12">
+        <v>48.514800999999999</v>
+      </c>
+      <c r="D26" s="12">
+        <v>-121.88032699999999</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="12">
+        <v>202</v>
+      </c>
+      <c r="C27" s="12">
+        <v>48.514257999999998</v>
+      </c>
+      <c r="D27" s="12">
+        <v>-121.880703</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="12">
+        <v>249</v>
+      </c>
+      <c r="C28" s="12">
+        <v>48.540405</v>
+      </c>
+      <c r="D28" s="12">
+        <v>-121.818438</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="8">
+        <v>254</v>
+      </c>
+      <c r="C29" s="8">
+        <v>48.523027999999996</v>
+      </c>
+      <c r="D29" s="8">
+        <v>-122.09708500000001</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="8">
+        <v>255</v>
+      </c>
+      <c r="C30" s="8">
+        <v>48.522559000000001</v>
+      </c>
+      <c r="D30" s="8">
+        <v>-122.104742</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="8">
+        <v>257</v>
+      </c>
+      <c r="C31" s="8">
+        <v>48.527442999999998</v>
+      </c>
+      <c r="D31" s="8">
+        <v>-121.75259</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="8">
+        <v>258</v>
+      </c>
+      <c r="C32" s="8">
+        <v>48.527816000000001</v>
+      </c>
+      <c r="D32" s="8">
+        <v>-121.75205800000001</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="8">
+        <v>259</v>
+      </c>
+      <c r="C33" s="8">
+        <v>48.527971000000001</v>
+      </c>
+      <c r="D33" s="8">
+        <v>-121.751892</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="8">
+        <v>260</v>
+      </c>
+      <c r="C34" s="8">
+        <v>48.533273000000001</v>
+      </c>
+      <c r="D34" s="8">
+        <v>-121.818251</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="8">
+        <v>261</v>
+      </c>
+      <c r="C35" s="8">
+        <v>48.533605000000001</v>
+      </c>
+      <c r="D35" s="8">
+        <v>-121.818124</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="8">
+        <v>268</v>
+      </c>
+      <c r="C36" s="8">
+        <v>48.481234999999998</v>
+      </c>
+      <c r="D36" s="8">
+        <v>-121.58769599999999</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="8">
+        <v>270</v>
+      </c>
+      <c r="C37" s="8">
+        <v>48.481679</v>
+      </c>
+      <c r="D37" s="8">
+        <v>-121.58765200000001</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="8">
+        <v>271</v>
+      </c>
+      <c r="C38" s="8">
+        <v>48.481814999999997</v>
+      </c>
+      <c r="D38" s="8">
+        <v>-121.587641</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="8">
+        <v>288</v>
+      </c>
+      <c r="C39" s="8">
+        <v>48.527717000000003</v>
+      </c>
+      <c r="D39" s="8">
+        <v>-121.749509</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="8">
+        <v>289</v>
+      </c>
+      <c r="C40" s="8">
+        <v>48.527937000000001</v>
+      </c>
+      <c r="D40" s="8">
+        <v>-121.74912399999999</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="8">
+        <v>290</v>
+      </c>
+      <c r="C41" s="8">
+        <v>48.528343999999997</v>
+      </c>
+      <c r="D41" s="8">
+        <v>-121.74866299999999</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="8">
+        <v>291</v>
+      </c>
+      <c r="C42" s="8">
+        <v>48.528528999999999</v>
+      </c>
+      <c r="D42" s="8">
+        <v>-121.74753200000001</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="8">
+        <v>292</v>
+      </c>
+      <c r="C43" s="8">
+        <v>48.472003999999998</v>
+      </c>
+      <c r="D43" s="8">
+        <v>-122.285893</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="8">
+        <v>294</v>
+      </c>
+      <c r="C44" s="8">
+        <v>48.493402000000003</v>
+      </c>
+      <c r="D44" s="8">
+        <v>-122.19202799999999</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="8">
+        <v>295</v>
+      </c>
+      <c r="C45" s="8">
+        <v>48.488377</v>
+      </c>
+      <c r="D45" s="8">
+        <v>-122.16024299999999</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="8">
+        <v>296</v>
+      </c>
+      <c r="C46" s="8">
+        <v>48.488450999999998</v>
+      </c>
+      <c r="D46" s="8">
+        <v>-122.159278</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="8">
+        <v>298</v>
+      </c>
+      <c r="C47" s="8">
+        <v>48.527771999999999</v>
+      </c>
+      <c r="D47" s="8">
+        <v>-121.74947899999999</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="8">
+        <v>304</v>
+      </c>
+      <c r="C48" s="8">
+        <v>48.513182</v>
+      </c>
+      <c r="D48" s="8">
+        <v>-121.710078</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="8">
+        <v>305</v>
+      </c>
+      <c r="C49" s="8">
+        <v>48.513052000000002</v>
+      </c>
+      <c r="D49" s="8">
+        <v>-121.709778</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="8">
+        <v>306</v>
+      </c>
+      <c r="C50" s="8">
+        <v>48.493481000000003</v>
+      </c>
+      <c r="D50" s="8">
+        <v>-121.53885200000001</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="8">
+        <v>307</v>
+      </c>
+      <c r="C51" s="8">
+        <v>48.493257999999997</v>
+      </c>
+      <c r="D51" s="8">
+        <v>-121.53928500000001</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="8">
+        <v>308</v>
+      </c>
+      <c r="C52" s="8">
+        <v>48.493205000000003</v>
+      </c>
+      <c r="D52" s="8">
+        <v>-121.539917</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="8">
+        <v>309</v>
+      </c>
+      <c r="C53" s="8">
+        <v>48.492963000000003</v>
+      </c>
+      <c r="D53" s="8">
+        <v>-121.54064</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="8">
+        <v>339</v>
+      </c>
+      <c r="C54" s="8">
+        <v>48.350872000000003</v>
+      </c>
+      <c r="D54" s="8">
+        <v>-121.55139200000001</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="8">
+        <v>343</v>
+      </c>
+      <c r="C55" s="8">
+        <v>48.351008999999998</v>
+      </c>
+      <c r="D55" s="8">
+        <v>-121.551604</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="8">
+        <v>348</v>
+      </c>
+      <c r="C56" s="8">
+        <v>48.353017999999999</v>
+      </c>
+      <c r="D56" s="8">
+        <v>-121.55206099999999</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="20">
+        <v>436</v>
+      </c>
+      <c r="C57" s="12">
+        <v>48.494250000000001</v>
+      </c>
+      <c r="D57" s="12">
+        <v>-121.53421</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="20">
+        <v>437</v>
+      </c>
+      <c r="C58" s="12">
+        <v>48.494239999999998</v>
+      </c>
+      <c r="D58" s="12">
+        <v>-121.53449000000001</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="20">
+        <v>438</v>
+      </c>
+      <c r="C59" s="12">
+        <v>48.494059999999998</v>
+      </c>
+      <c r="D59" s="12">
+        <v>-121.53514</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" s="20">
+        <v>439</v>
+      </c>
+      <c r="C60" s="12">
+        <v>48.493679999999998</v>
+      </c>
+      <c r="D60" s="12">
+        <v>-121.53740000000001</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="20">
+        <v>440</v>
+      </c>
+      <c r="C61" s="12">
+        <v>48.493439000000002</v>
+      </c>
+      <c r="D61" s="12">
+        <v>-122.191467</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="20">
+        <v>441</v>
+      </c>
+      <c r="C62" s="21">
+        <v>48.52704</v>
+      </c>
+      <c r="D62" s="21">
+        <v>-122.006179</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" s="20">
+        <v>442</v>
+      </c>
+      <c r="C63" s="21">
+        <v>48.526088000000001</v>
+      </c>
+      <c r="D63" s="21">
+        <v>-122.005256</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="20">
+        <v>443</v>
+      </c>
+      <c r="C64" s="21">
+        <v>48.523373999999997</v>
+      </c>
+      <c r="D64" s="21">
+        <v>-121.99828599999999</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="20">
+        <v>444</v>
+      </c>
+      <c r="C65" s="21">
+        <v>48.515411</v>
+      </c>
+      <c r="D65" s="21">
+        <v>-121.87087200000001</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Reports/Seasonal_Habitat_Landmark_Waypoints_2021_Final.xlsx
+++ b/Reports/Seasonal_Habitat_Landmark_Waypoints_2021_Final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Desktop\Box Sync\Thesis\Chinook Seasonal Floodplain Habitat\GitHub\seasonal-floodplains\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448A26A2-4B95-4116-90C0-D109608AFA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A69B2F-20E5-4523-ABB2-E1B0E5339BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{5F03E6B5-5464-43F8-AED9-513F851700B6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="141">
   <si>
     <t>Latitude</t>
   </si>
@@ -454,10 +454,10 @@
     <t>Thunderbird Lane Slough</t>
   </si>
   <si>
+    <t>Off-channel LBK Skagit</t>
+  </si>
+  <si>
     <t>Z</t>
-  </si>
-  <si>
-    <t>Off-channel LBK Skagit</t>
   </si>
 </sst>
 </file>
@@ -885,8 +885,8 @@
   <dimension ref="A1:G416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E279" sqref="E279"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1073,17 +1073,17 @@
         <v>-121.48939300000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="16">
         <v>48.502412999999997</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="16">
         <v>-121.489486</v>
       </c>
     </row>
@@ -4335,17 +4335,17 @@
         <v>-121.880021</v>
       </c>
     </row>
-    <row r="246" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A246" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B246" s="9">
+    <row r="246" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B246" s="12">
         <v>195</v>
       </c>
-      <c r="C246" s="9">
+      <c r="C246" s="12">
         <v>48.515165000000003</v>
       </c>
-      <c r="D246" s="9">
+      <c r="D246" s="12">
         <v>-121.88000599999999</v>
       </c>
     </row>
@@ -5385,31 +5385,31 @@
         <v>-121.58765200000001</v>
       </c>
     </row>
-    <row r="321" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A321" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B321" s="11">
+    <row r="321" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A321" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B321" s="8">
         <v>271</v>
       </c>
-      <c r="C321" s="11">
+      <c r="C321" s="8">
         <v>48.481814999999997</v>
       </c>
-      <c r="D321" s="11">
+      <c r="D321" s="8">
         <v>-121.587641</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A322" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B322">
+    <row r="322" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B322" s="11">
         <v>272</v>
       </c>
-      <c r="C322">
+      <c r="C322" s="11">
         <v>48.503050999999999</v>
       </c>
-      <c r="D322">
+      <c r="D322" s="11">
         <v>-121.718833</v>
       </c>
     </row>
@@ -6737,10 +6737,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8917EA92-2169-47DE-9544-807A0085513A}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7234,19 +7234,19 @@
         <v>89</v>
       </c>
       <c r="B25" s="12">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C25" s="12">
-        <v>48.515165000000003</v>
+        <v>48.514800999999999</v>
       </c>
       <c r="D25" s="12">
-        <v>-121.88000599999999</v>
+        <v>-121.88032699999999</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -7254,13 +7254,13 @@
         <v>89</v>
       </c>
       <c r="B26" s="12">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C26" s="12">
-        <v>48.514800999999999</v>
+        <v>48.514257999999998</v>
       </c>
       <c r="D26" s="12">
-        <v>-121.88032699999999</v>
+        <v>-121.880703</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>131</v>
@@ -7274,39 +7274,39 @@
         <v>89</v>
       </c>
       <c r="B27" s="12">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="C27" s="12">
-        <v>48.514257999999998</v>
+        <v>48.540405</v>
       </c>
       <c r="D27" s="12">
-        <v>-121.880703</v>
+        <v>-121.818438</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="12">
-        <v>249</v>
-      </c>
-      <c r="C28" s="12">
-        <v>48.540405</v>
-      </c>
-      <c r="D28" s="12">
-        <v>-121.818438</v>
+      <c r="B28" s="8">
+        <v>254</v>
+      </c>
+      <c r="C28" s="8">
+        <v>48.523027999999996</v>
+      </c>
+      <c r="D28" s="8">
+        <v>-122.09708500000001</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -7314,13 +7314,13 @@
         <v>89</v>
       </c>
       <c r="B29" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C29" s="8">
-        <v>48.523027999999996</v>
+        <v>48.522559000000001</v>
       </c>
       <c r="D29" s="8">
-        <v>-122.09708500000001</v>
+        <v>-122.104742</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>125</v>
@@ -7334,19 +7334,19 @@
         <v>89</v>
       </c>
       <c r="B30" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C30" s="8">
-        <v>48.522559000000001</v>
+        <v>48.527442999999998</v>
       </c>
       <c r="D30" s="8">
-        <v>-122.104742</v>
+        <v>-121.75259</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -7354,13 +7354,13 @@
         <v>89</v>
       </c>
       <c r="B31" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C31" s="8">
-        <v>48.527442999999998</v>
+        <v>48.527816000000001</v>
       </c>
       <c r="D31" s="8">
-        <v>-121.75259</v>
+        <v>-121.75205800000001</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>135</v>
@@ -7374,13 +7374,13 @@
         <v>89</v>
       </c>
       <c r="B32" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C32" s="8">
-        <v>48.527816000000001</v>
+        <v>48.527971000000001</v>
       </c>
       <c r="D32" s="8">
-        <v>-121.75205800000001</v>
+        <v>-121.751892</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>135</v>
@@ -7394,19 +7394,19 @@
         <v>89</v>
       </c>
       <c r="B33" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C33" s="8">
-        <v>48.527971000000001</v>
+        <v>48.533273000000001</v>
       </c>
       <c r="D33" s="8">
-        <v>-121.751892</v>
+        <v>-121.818251</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -7414,13 +7414,13 @@
         <v>89</v>
       </c>
       <c r="B34" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C34" s="8">
-        <v>48.533273000000001</v>
+        <v>48.533605000000001</v>
       </c>
       <c r="D34" s="8">
-        <v>-121.818251</v>
+        <v>-121.818124</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>133</v>
@@ -7434,19 +7434,19 @@
         <v>89</v>
       </c>
       <c r="B35" s="8">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C35" s="8">
-        <v>48.533605000000001</v>
+        <v>48.481234999999998</v>
       </c>
       <c r="D35" s="8">
-        <v>-121.818124</v>
+        <v>-121.58769599999999</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -7454,13 +7454,13 @@
         <v>89</v>
       </c>
       <c r="B36" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C36" s="8">
-        <v>48.481234999999998</v>
+        <v>48.481679</v>
       </c>
       <c r="D36" s="8">
-        <v>-121.58769599999999</v>
+        <v>-121.58765200000001</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>103</v>
@@ -7474,19 +7474,19 @@
         <v>89</v>
       </c>
       <c r="B37" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C37" s="8">
-        <v>48.481679</v>
+        <v>48.503050999999999</v>
       </c>
       <c r="D37" s="8">
-        <v>-121.58765200000001</v>
+        <v>-121.718833</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -7494,19 +7494,19 @@
         <v>89</v>
       </c>
       <c r="B38" s="8">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="C38" s="8">
-        <v>48.481814999999997</v>
+        <v>48.527717000000003</v>
       </c>
       <c r="D38" s="8">
-        <v>-121.587641</v>
+        <v>-121.749509</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -7514,13 +7514,13 @@
         <v>89</v>
       </c>
       <c r="B39" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C39" s="8">
-        <v>48.527717000000003</v>
+        <v>48.527937000000001</v>
       </c>
       <c r="D39" s="8">
-        <v>-121.749509</v>
+        <v>-121.74912399999999</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>135</v>
@@ -7534,13 +7534,13 @@
         <v>89</v>
       </c>
       <c r="B40" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C40" s="8">
-        <v>48.527937000000001</v>
+        <v>48.528343999999997</v>
       </c>
       <c r="D40" s="8">
-        <v>-121.74912399999999</v>
+        <v>-121.74866299999999</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>135</v>
@@ -7554,13 +7554,13 @@
         <v>89</v>
       </c>
       <c r="B41" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C41" s="8">
-        <v>48.528343999999997</v>
+        <v>48.528528999999999</v>
       </c>
       <c r="D41" s="8">
-        <v>-121.74866299999999</v>
+        <v>-121.74753200000001</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>135</v>
@@ -7574,19 +7574,19 @@
         <v>89</v>
       </c>
       <c r="B42" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C42" s="8">
-        <v>48.528528999999999</v>
+        <v>48.472003999999998</v>
       </c>
       <c r="D42" s="8">
-        <v>-121.74753200000001</v>
+        <v>-122.285893</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -7594,19 +7594,19 @@
         <v>89</v>
       </c>
       <c r="B43" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C43" s="8">
-        <v>48.472003999999998</v>
+        <v>48.493402000000003</v>
       </c>
       <c r="D43" s="8">
-        <v>-122.285893</v>
+        <v>-122.19202799999999</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -7614,19 +7614,19 @@
         <v>89</v>
       </c>
       <c r="B44" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C44" s="8">
-        <v>48.493402000000003</v>
+        <v>48.488377</v>
       </c>
       <c r="D44" s="8">
-        <v>-122.19202799999999</v>
+        <v>-122.16024299999999</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -7634,13 +7634,13 @@
         <v>89</v>
       </c>
       <c r="B45" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C45" s="8">
-        <v>48.488377</v>
+        <v>48.488450999999998</v>
       </c>
       <c r="D45" s="8">
-        <v>-122.16024299999999</v>
+        <v>-122.159278</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>121</v>
@@ -7654,19 +7654,19 @@
         <v>89</v>
       </c>
       <c r="B46" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C46" s="8">
-        <v>48.488450999999998</v>
+        <v>48.527771999999999</v>
       </c>
       <c r="D46" s="8">
-        <v>-122.159278</v>
+        <v>-121.74947899999999</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -7674,19 +7674,19 @@
         <v>89</v>
       </c>
       <c r="B47" s="8">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C47" s="8">
-        <v>48.527771999999999</v>
+        <v>48.513182</v>
       </c>
       <c r="D47" s="8">
-        <v>-121.74947899999999</v>
+        <v>-121.710078</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -7694,13 +7694,13 @@
         <v>89</v>
       </c>
       <c r="B48" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C48" s="8">
-        <v>48.513182</v>
+        <v>48.513052000000002</v>
       </c>
       <c r="D48" s="8">
-        <v>-121.710078</v>
+        <v>-121.709778</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>137</v>
@@ -7714,19 +7714,19 @@
         <v>89</v>
       </c>
       <c r="B49" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C49" s="8">
-        <v>48.513052000000002</v>
+        <v>48.493481000000003</v>
       </c>
       <c r="D49" s="8">
-        <v>-121.709778</v>
+        <v>-121.53885200000001</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -7734,13 +7734,13 @@
         <v>89</v>
       </c>
       <c r="B50" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C50" s="8">
-        <v>48.493481000000003</v>
+        <v>48.493257999999997</v>
       </c>
       <c r="D50" s="8">
-        <v>-121.53885200000001</v>
+        <v>-121.53928500000001</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>109</v>
@@ -7754,13 +7754,13 @@
         <v>89</v>
       </c>
       <c r="B51" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C51" s="8">
-        <v>48.493257999999997</v>
+        <v>48.493205000000003</v>
       </c>
       <c r="D51" s="8">
-        <v>-121.53928500000001</v>
+        <v>-121.539917</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>109</v>
@@ -7774,13 +7774,13 @@
         <v>89</v>
       </c>
       <c r="B52" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C52" s="8">
-        <v>48.493205000000003</v>
+        <v>48.492963000000003</v>
       </c>
       <c r="D52" s="8">
-        <v>-121.539917</v>
+        <v>-121.54064</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>109</v>
@@ -7790,23 +7790,23 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="8" t="s">
         <v>89</v>
       </c>
       <c r="B53" s="8">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="C53" s="8">
-        <v>48.492963000000003</v>
+        <v>48.350872000000003</v>
       </c>
       <c r="D53" s="8">
-        <v>-121.54064</v>
+        <v>-121.55139200000001</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -7814,13 +7814,13 @@
         <v>89</v>
       </c>
       <c r="B54" s="8">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C54" s="8">
-        <v>48.350872000000003</v>
+        <v>48.351008999999998</v>
       </c>
       <c r="D54" s="8">
-        <v>-121.55139200000001</v>
+        <v>-121.551604</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>99</v>
@@ -7834,13 +7834,13 @@
         <v>89</v>
       </c>
       <c r="B55" s="8">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C55" s="8">
-        <v>48.351008999999998</v>
+        <v>48.353017999999999</v>
       </c>
       <c r="D55" s="8">
-        <v>-121.551604</v>
+        <v>-121.55206099999999</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>99</v>
@@ -7853,20 +7853,20 @@
       <c r="A56" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B56" s="8">
-        <v>348</v>
-      </c>
-      <c r="C56" s="8">
-        <v>48.353017999999999</v>
-      </c>
-      <c r="D56" s="8">
-        <v>-121.55206099999999</v>
+      <c r="B56" s="20">
+        <v>436</v>
+      </c>
+      <c r="C56" s="12">
+        <v>48.494250000000001</v>
+      </c>
+      <c r="D56" s="12">
+        <v>-121.53421</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -7874,13 +7874,13 @@
         <v>89</v>
       </c>
       <c r="B57" s="20">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C57" s="12">
-        <v>48.494250000000001</v>
+        <v>48.494239999999998</v>
       </c>
       <c r="D57" s="12">
-        <v>-121.53421</v>
+        <v>-121.53449000000001</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>109</v>
@@ -7894,13 +7894,13 @@
         <v>89</v>
       </c>
       <c r="B58" s="20">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C58" s="12">
-        <v>48.494239999999998</v>
+        <v>48.494059999999998</v>
       </c>
       <c r="D58" s="12">
-        <v>-121.53449000000001</v>
+        <v>-121.53514</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>109</v>
@@ -7914,13 +7914,13 @@
         <v>89</v>
       </c>
       <c r="B59" s="20">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C59" s="12">
-        <v>48.494059999999998</v>
+        <v>48.493679999999998</v>
       </c>
       <c r="D59" s="12">
-        <v>-121.53514</v>
+        <v>-121.53740000000001</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>109</v>
@@ -7934,19 +7934,19 @@
         <v>89</v>
       </c>
       <c r="B60" s="20">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C60" s="12">
-        <v>48.493679999999998</v>
+        <v>48.493439000000002</v>
       </c>
       <c r="D60" s="12">
-        <v>-121.53740000000001</v>
+        <v>-122.191467</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -7954,19 +7954,19 @@
         <v>89</v>
       </c>
       <c r="B61" s="20">
-        <v>440</v>
-      </c>
-      <c r="C61" s="12">
-        <v>48.493439000000002</v>
-      </c>
-      <c r="D61" s="12">
-        <v>-122.191467</v>
+        <v>441</v>
+      </c>
+      <c r="C61" s="21">
+        <v>48.52704</v>
+      </c>
+      <c r="D61" s="21">
+        <v>-122.006179</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -7974,13 +7974,13 @@
         <v>89</v>
       </c>
       <c r="B62" s="20">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C62" s="21">
-        <v>48.52704</v>
+        <v>48.526088000000001</v>
       </c>
       <c r="D62" s="21">
-        <v>-122.006179</v>
+        <v>-122.005256</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>127</v>
@@ -7994,19 +7994,19 @@
         <v>89</v>
       </c>
       <c r="B63" s="20">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C63" s="21">
-        <v>48.526088000000001</v>
+        <v>48.523373999999997</v>
       </c>
       <c r="D63" s="21">
-        <v>-122.005256</v>
+        <v>-121.99828599999999</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -8014,38 +8014,18 @@
         <v>89</v>
       </c>
       <c r="B64" s="20">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C64" s="21">
-        <v>48.523373999999997</v>
+        <v>48.515411</v>
       </c>
       <c r="D64" s="21">
-        <v>-121.99828599999999</v>
+        <v>-121.87087200000001</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" s="20">
-        <v>444</v>
-      </c>
-      <c r="C65" s="21">
-        <v>48.515411</v>
-      </c>
-      <c r="D65" s="21">
-        <v>-121.87087200000001</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F65" s="8" t="s">
         <v>132</v>
       </c>
     </row>
